--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.76025867471861</v>
+        <v>10.7602586747186</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.72846367103886</v>
+        <v>2.728463671038864</v>
       </c>
       <c r="E2">
         <v>17.36283667138759</v>
       </c>
       <c r="F2">
-        <v>46.57654074028046</v>
+        <v>46.5765407402805</v>
       </c>
       <c r="G2">
-        <v>35.39003362127838</v>
+        <v>35.39003362127841</v>
       </c>
       <c r="H2">
-        <v>17.25470845578092</v>
+        <v>17.25470845578084</v>
       </c>
       <c r="I2">
-        <v>13.82706292814011</v>
+        <v>13.82706292814012</v>
       </c>
       <c r="J2">
-        <v>58.488205938991</v>
+        <v>58.48820593899098</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.485119408153726</v>
+        <v>2.485119408153532</v>
       </c>
       <c r="E3">
-        <v>15.98686197548192</v>
+        <v>15.9868619754819</v>
       </c>
       <c r="F3">
-        <v>42.7111080003907</v>
+        <v>42.71110800039084</v>
       </c>
       <c r="G3">
-        <v>32.38236070997833</v>
+        <v>32.38236070997841</v>
       </c>
       <c r="H3">
-        <v>16.79649499651156</v>
+        <v>16.79649499651151</v>
       </c>
       <c r="I3">
-        <v>12.72077472359696</v>
+        <v>12.72077472359692</v>
       </c>
       <c r="J3">
-        <v>54.27579365496978</v>
+        <v>54.27579365496982</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.61875837656809</v>
+        <v>9.618758376568106</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.338101531120169</v>
+        <v>2.338101531120363</v>
       </c>
       <c r="E4">
-        <v>15.11785613349672</v>
+        <v>15.11785613349664</v>
       </c>
       <c r="F4">
-        <v>40.31651951526582</v>
+        <v>40.31651951526567</v>
       </c>
       <c r="G4">
-        <v>30.51772157302921</v>
+        <v>30.51772157302909</v>
       </c>
       <c r="H4">
-        <v>16.53182082937085</v>
+        <v>16.53182082937088</v>
       </c>
       <c r="I4">
-        <v>12.02502039259513</v>
+        <v>12.0250203925951</v>
       </c>
       <c r="J4">
-        <v>51.57766390849907</v>
+        <v>51.57766390849896</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.430659504636871</v>
+        <v>9.430659504636903</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.278557924913009</v>
+        <v>2.278557924913008</v>
       </c>
       <c r="E5">
-        <v>14.75690875701143</v>
+        <v>14.75690875701144</v>
       </c>
       <c r="F5">
-        <v>39.33345460087197</v>
+        <v>39.33345460087173</v>
       </c>
       <c r="G5">
-        <v>29.75174864395343</v>
+        <v>29.75174864395323</v>
       </c>
       <c r="H5">
-        <v>16.42801316398958</v>
+        <v>16.42801316398966</v>
       </c>
       <c r="I5">
         <v>11.73668501643987</v>
       </c>
       <c r="J5">
-        <v>50.44866502593809</v>
+        <v>50.44866502593799</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.399087526737752</v>
+        <v>9.399087526737709</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.268686856982375</v>
+        <v>2.268686856982443</v>
       </c>
       <c r="E6">
-        <v>14.69654232324207</v>
+        <v>14.69654232324208</v>
       </c>
       <c r="F6">
-        <v>39.16973410751763</v>
+        <v>39.16973410751756</v>
       </c>
       <c r="G6">
-        <v>29.62415096467165</v>
+        <v>29.6241509646716</v>
       </c>
       <c r="H6">
-        <v>16.4110167821333</v>
+        <v>16.41101678213335</v>
       </c>
       <c r="I6">
-        <v>11.68849938134582</v>
+        <v>11.68849938134581</v>
       </c>
       <c r="J6">
-        <v>50.25937778436536</v>
+        <v>50.25937778436537</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.616244267456031</v>
+        <v>9.616244267455968</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.337297297965049</v>
+        <v>2.337297297965117</v>
       </c>
       <c r="E7">
-        <v>15.11301678193197</v>
+        <v>15.11301678193201</v>
       </c>
       <c r="F7">
-        <v>40.30329304168935</v>
+        <v>40.30329304168954</v>
       </c>
       <c r="G7">
-        <v>30.50741798128732</v>
+        <v>30.5074179812875</v>
       </c>
       <c r="H7">
         <v>16.53040462010738</v>
       </c>
       <c r="I7">
-        <v>12.02115207005799</v>
+        <v>12.02115207005805</v>
       </c>
       <c r="J7">
-        <v>51.56255892571945</v>
+        <v>51.56255892571961</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52562858559862</v>
+        <v>10.52562858559864</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.643905009803855</v>
+        <v>2.643905009803792</v>
       </c>
       <c r="E8">
-        <v>16.8929194200089</v>
+        <v>16.89291942000888</v>
       </c>
       <c r="F8">
-        <v>45.24679406111277</v>
+        <v>45.24679406111281</v>
       </c>
       <c r="G8">
-        <v>34.35559206084204</v>
+        <v>34.35559206084208</v>
       </c>
       <c r="H8">
         <v>17.09316211911231</v>
       </c>
       <c r="I8">
-        <v>13.44859818636584</v>
+        <v>13.44859818636582</v>
       </c>
       <c r="J8">
-        <v>57.05802451096018</v>
+        <v>57.05802451096026</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.13780208866539</v>
+        <v>12.13780208866537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.277832880397211</v>
+        <v>3.277832880397207</v>
       </c>
       <c r="E9">
-        <v>20.23461101635165</v>
+        <v>20.23461101635166</v>
       </c>
       <c r="F9">
-        <v>54.89699136833897</v>
+        <v>54.89699136833894</v>
       </c>
       <c r="G9">
-        <v>41.86119480431307</v>
+        <v>41.86119480431304</v>
       </c>
       <c r="H9">
-        <v>18.33736694669332</v>
+        <v>18.33736694669329</v>
       </c>
       <c r="I9">
-        <v>16.15516919372316</v>
+        <v>16.15516919372319</v>
       </c>
       <c r="J9">
-        <v>67.02807043545599</v>
+        <v>67.0280704354559</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.22472286867754</v>
+        <v>13.22472286867758</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.789836855344322</v>
+        <v>3.789836855344317</v>
       </c>
       <c r="E10">
-        <v>22.68131332946804</v>
+        <v>22.681313329468</v>
       </c>
       <c r="F10">
-        <v>62.21498827928059</v>
+        <v>62.21498827928064</v>
       </c>
       <c r="G10">
-        <v>47.55571768544147</v>
+        <v>47.55571768544149</v>
       </c>
       <c r="H10">
-        <v>19.35378389367588</v>
+        <v>19.35378389367593</v>
       </c>
       <c r="I10">
-        <v>18.16039182561997</v>
+        <v>18.16039182561992</v>
       </c>
       <c r="J10">
-        <v>74.01178035331097</v>
+        <v>74.01178035331111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.70029119679772</v>
+        <v>13.70029119679776</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.042152302200662</v>
+        <v>4.042152302200728</v>
       </c>
       <c r="E11">
-        <v>23.82158734339161</v>
+        <v>23.82158734339162</v>
       </c>
       <c r="F11">
-        <v>65.68733204409399</v>
+        <v>65.68733204409386</v>
       </c>
       <c r="G11">
-        <v>50.26000892189191</v>
+        <v>50.26000892189182</v>
       </c>
       <c r="H11">
-        <v>19.84436150804591</v>
+        <v>19.84436150804597</v>
       </c>
       <c r="I11">
         <v>19.10211996546508</v>
       </c>
       <c r="J11">
-        <v>77.16702221667983</v>
+        <v>77.16702221667985</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.87793959332438</v>
+        <v>13.87793959332435</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.141724371895227</v>
+        <v>4.141724371895223</v>
       </c>
       <c r="E12">
-        <v>24.26113918840908</v>
+        <v>24.26113918840905</v>
       </c>
       <c r="F12">
         <v>67.03533978509478</v>
@@ -810,13 +810,13 @@
         <v>51.31034209853627</v>
       </c>
       <c r="H12">
-        <v>20.0349683996895</v>
+        <v>20.03496839968956</v>
       </c>
       <c r="I12">
-        <v>19.46639879620347</v>
+        <v>19.46639879620342</v>
       </c>
       <c r="J12">
-        <v>78.36554694100005</v>
+        <v>78.36554694100006</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.83978276861761</v>
+        <v>13.83978276861763</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.120074682710658</v>
+        <v>4.120074682710722</v>
       </c>
       <c r="E13">
-        <v>24.16604809587083</v>
+        <v>24.16604809587088</v>
       </c>
       <c r="F13">
-        <v>66.74328641099349</v>
+        <v>66.74328641099346</v>
       </c>
       <c r="G13">
-        <v>51.08275671746265</v>
+        <v>51.08275671746262</v>
       </c>
       <c r="H13">
-        <v>19.99368649360534</v>
+        <v>19.99368649360536</v>
       </c>
       <c r="I13">
-        <v>19.38753179247087</v>
+        <v>19.38753179247093</v>
       </c>
       <c r="J13">
         <v>78.10711543812513</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.71495336473756</v>
+        <v>13.7149533647376</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.050254335554225</v>
+        <v>4.050254335554289</v>
       </c>
       <c r="E14">
-        <v>23.85756572583539</v>
+        <v>23.85756572583538</v>
       </c>
       <c r="F14">
-        <v>65.79747743187885</v>
+        <v>65.7974774318787</v>
       </c>
       <c r="G14">
-        <v>50.34582053088922</v>
+        <v>50.34582053088914</v>
       </c>
       <c r="H14">
-        <v>19.85994022604068</v>
+        <v>19.85994022604081</v>
       </c>
       <c r="I14">
-        <v>19.13191044063396</v>
+        <v>19.13191044063403</v>
       </c>
       <c r="J14">
-        <v>77.26550108175192</v>
+        <v>77.26550108175195</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.008057921673126</v>
+        <v>4.008057921673062</v>
       </c>
       <c r="E15">
-        <v>23.66976509735002</v>
+        <v>23.66976509734998</v>
       </c>
       <c r="F15">
-        <v>65.22292223648205</v>
+        <v>65.22292223648189</v>
       </c>
       <c r="G15">
-        <v>49.89821923590205</v>
+        <v>49.89821923590193</v>
       </c>
       <c r="H15">
-        <v>19.77867549974262</v>
+        <v>19.77867549974264</v>
       </c>
       <c r="I15">
-        <v>18.97646162512902</v>
+        <v>18.976461625129</v>
       </c>
       <c r="J15">
-        <v>76.75072496835857</v>
+        <v>76.75072496835847</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.19328485759977</v>
+        <v>13.19328485759976</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.773831595758649</v>
+        <v>3.773831595758787</v>
       </c>
       <c r="E16">
-        <v>22.60763301390462</v>
+        <v>22.60763301390459</v>
       </c>
       <c r="F16">
-        <v>61.99189379034199</v>
+        <v>61.99189379034187</v>
       </c>
       <c r="G16">
-        <v>47.38202772100522</v>
+        <v>47.38202772100514</v>
       </c>
       <c r="H16">
-        <v>19.32235048276761</v>
+        <v>19.32235048276767</v>
       </c>
       <c r="I16">
-        <v>18.09970134991371</v>
+        <v>18.09970134991377</v>
       </c>
       <c r="J16">
-        <v>73.80566002062369</v>
+        <v>73.80566002062366</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91568588350824</v>
+        <v>12.91568588350826</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.63583477377812</v>
+        <v>3.635834773778118</v>
       </c>
       <c r="E17">
-        <v>21.96527664212636</v>
+        <v>21.96527664212635</v>
       </c>
       <c r="F17">
-        <v>60.05378601557184</v>
+        <v>60.05378601557189</v>
       </c>
       <c r="G17">
-        <v>45.87338140876317</v>
+        <v>45.87338140876321</v>
       </c>
       <c r="H17">
-        <v>19.05009386602284</v>
+        <v>19.05009386602277</v>
       </c>
       <c r="I17">
-        <v>17.57140592484552</v>
+        <v>17.57140592484548</v>
       </c>
       <c r="J17">
-        <v>71.99741565667593</v>
+        <v>71.99741565667588</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.75422058135321</v>
+        <v>12.75422058135322</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.558192242049624</v>
+        <v>3.558192242049691</v>
       </c>
       <c r="E18">
-        <v>21.59807583372771</v>
+        <v>21.59807583372766</v>
       </c>
       <c r="F18">
-        <v>58.95155016645071</v>
+        <v>58.95155016645065</v>
       </c>
       <c r="G18">
-        <v>45.01558513110772</v>
+        <v>45.01558513110766</v>
       </c>
       <c r="H18">
-        <v>18.89609281595149</v>
+        <v>18.89609281595151</v>
       </c>
       <c r="I18">
         <v>17.27005764056926</v>
       </c>
       <c r="J18">
-        <v>70.95478910876881</v>
+        <v>70.95478910876876</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.532171318795904</v>
+        <v>3.532171318795969</v>
       </c>
       <c r="E19">
-        <v>21.47404539730908</v>
+        <v>21.47404539730904</v>
       </c>
       <c r="F19">
-        <v>58.58020289629536</v>
+        <v>58.58020289629534</v>
       </c>
       <c r="G19">
         <v>44.72661995024968</v>
       </c>
       <c r="H19">
-        <v>18.84437736818544</v>
+        <v>18.84437736818551</v>
       </c>
       <c r="I19">
-        <v>17.16837623593844</v>
+        <v>17.16837623593843</v>
       </c>
       <c r="J19">
-        <v>70.60116800773653</v>
+        <v>70.60116800773658</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.94542113460043</v>
+        <v>12.94542113460047</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.650338471490052</v>
+        <v>3.650338471489988</v>
       </c>
       <c r="E20">
-        <v>22.0333994719899</v>
+        <v>22.03339947198995</v>
       </c>
       <c r="F20">
-        <v>60.25873227632479</v>
+        <v>60.25873227632506</v>
       </c>
       <c r="G20">
-        <v>46.03289246394569</v>
+        <v>46.03289246394593</v>
       </c>
       <c r="H20">
         <v>19.07880296239744</v>
       </c>
       <c r="I20">
-        <v>17.62736359532392</v>
+        <v>17.62736359532395</v>
       </c>
       <c r="J20">
-        <v>72.19013215850511</v>
+        <v>72.19013215850531</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.75168226086439</v>
+        <v>13.75168226086438</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.070640285307393</v>
+        <v>4.070640285307391</v>
       </c>
       <c r="E21">
         <v>23.94792448766177</v>
@@ -1152,13 +1152,13 @@
         <v>50.56146136513044</v>
       </c>
       <c r="H21">
-        <v>19.89908555784309</v>
+        <v>19.89908555784308</v>
       </c>
       <c r="I21">
         <v>19.2067493229986</v>
       </c>
       <c r="J21">
-        <v>77.51253314405237</v>
+        <v>77.51253314405233</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.369866788513527</v>
+        <v>4.369866788513721</v>
       </c>
       <c r="E22">
-        <v>25.24770830729349</v>
+        <v>25.24770830729344</v>
       </c>
       <c r="F22">
-        <v>70.0788420745979</v>
+        <v>70.0788420745976</v>
       </c>
       <c r="G22">
-        <v>53.68288041760226</v>
+        <v>53.68288041760202</v>
       </c>
       <c r="H22">
-        <v>20.46403007295068</v>
+        <v>20.46403007295071</v>
       </c>
       <c r="I22">
-        <v>20.28662518456322</v>
+        <v>20.28662518456318</v>
       </c>
       <c r="J22">
-        <v>81.01847837511943</v>
+        <v>81.01847837511924</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99201499800743</v>
+        <v>13.99201499800744</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.207339560479897</v>
+        <v>4.20733956048003</v>
       </c>
       <c r="E23">
-        <v>24.54774740975686</v>
+        <v>24.5477474097568</v>
       </c>
       <c r="F23">
-        <v>67.91700743078626</v>
+        <v>67.91700743078624</v>
       </c>
       <c r="G23">
         <v>51.99747566312729</v>
       </c>
       <c r="H23">
-        <v>20.15951007122824</v>
+        <v>20.15951007122817</v>
       </c>
       <c r="I23">
-        <v>19.70430915442606</v>
+        <v>19.70430915442604</v>
       </c>
       <c r="J23">
-        <v>79.14159429850859</v>
+        <v>79.14159429850852</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.93198367130198</v>
+        <v>12.931983671302</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.643776158725505</v>
+        <v>3.643776158725508</v>
       </c>
       <c r="E24">
-        <v>22.00259486631412</v>
+        <v>22.00259486631409</v>
       </c>
       <c r="F24">
-        <v>60.16603952236574</v>
+        <v>60.16603952236569</v>
       </c>
       <c r="G24">
-        <v>45.96074846364122</v>
+        <v>45.96074846364118</v>
       </c>
       <c r="H24">
-        <v>19.0658157752594</v>
+        <v>19.06581577525942</v>
       </c>
       <c r="I24">
-        <v>17.6020579658334</v>
+        <v>17.60205796583338</v>
       </c>
       <c r="J24">
         <v>72.10301497233013</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.71940460656204</v>
+        <v>11.71940460656208</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.100598752608374</v>
+        <v>3.100598752608298</v>
       </c>
       <c r="E25">
-        <v>19.33949221878592</v>
+        <v>19.33949221878599</v>
       </c>
       <c r="F25">
-        <v>52.26991796177253</v>
+        <v>52.26991796177258</v>
       </c>
       <c r="G25">
-        <v>39.81795620430546</v>
+        <v>39.81795620430549</v>
       </c>
       <c r="H25">
-        <v>17.98432515812884</v>
+        <v>17.98432515812901</v>
       </c>
       <c r="I25">
-        <v>15.42664140346483</v>
+        <v>15.42664140346485</v>
       </c>
       <c r="J25">
-        <v>64.40430678325701</v>
+        <v>64.4043067832572</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.7602586747186</v>
+        <v>10.76025867471861</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.728463671038864</v>
+        <v>2.72846367103886</v>
       </c>
       <c r="E2">
         <v>17.36283667138759</v>
       </c>
       <c r="F2">
-        <v>46.5765407402805</v>
+        <v>46.57654074028046</v>
       </c>
       <c r="G2">
-        <v>35.39003362127841</v>
+        <v>35.39003362127838</v>
       </c>
       <c r="H2">
-        <v>17.25470845578084</v>
+        <v>17.25470845578092</v>
       </c>
       <c r="I2">
-        <v>13.82706292814012</v>
+        <v>13.82706292814011</v>
       </c>
       <c r="J2">
-        <v>58.48820593899098</v>
+        <v>58.488205938991</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.485119408153532</v>
+        <v>2.485119408153726</v>
       </c>
       <c r="E3">
-        <v>15.9868619754819</v>
+        <v>15.98686197548192</v>
       </c>
       <c r="F3">
-        <v>42.71110800039084</v>
+        <v>42.7111080003907</v>
       </c>
       <c r="G3">
-        <v>32.38236070997841</v>
+        <v>32.38236070997833</v>
       </c>
       <c r="H3">
-        <v>16.79649499651151</v>
+        <v>16.79649499651156</v>
       </c>
       <c r="I3">
-        <v>12.72077472359692</v>
+        <v>12.72077472359696</v>
       </c>
       <c r="J3">
-        <v>54.27579365496982</v>
+        <v>54.27579365496978</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.618758376568106</v>
+        <v>9.61875837656809</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.338101531120363</v>
+        <v>2.338101531120169</v>
       </c>
       <c r="E4">
-        <v>15.11785613349664</v>
+        <v>15.11785613349672</v>
       </c>
       <c r="F4">
-        <v>40.31651951526567</v>
+        <v>40.31651951526582</v>
       </c>
       <c r="G4">
-        <v>30.51772157302909</v>
+        <v>30.51772157302921</v>
       </c>
       <c r="H4">
-        <v>16.53182082937088</v>
+        <v>16.53182082937085</v>
       </c>
       <c r="I4">
-        <v>12.0250203925951</v>
+        <v>12.02502039259513</v>
       </c>
       <c r="J4">
-        <v>51.57766390849896</v>
+        <v>51.57766390849907</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.430659504636903</v>
+        <v>9.430659504636871</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.278557924913008</v>
+        <v>2.278557924913009</v>
       </c>
       <c r="E5">
-        <v>14.75690875701144</v>
+        <v>14.75690875701143</v>
       </c>
       <c r="F5">
-        <v>39.33345460087173</v>
+        <v>39.33345460087197</v>
       </c>
       <c r="G5">
-        <v>29.75174864395323</v>
+        <v>29.75174864395343</v>
       </c>
       <c r="H5">
-        <v>16.42801316398966</v>
+        <v>16.42801316398958</v>
       </c>
       <c r="I5">
         <v>11.73668501643987</v>
       </c>
       <c r="J5">
-        <v>50.44866502593799</v>
+        <v>50.44866502593809</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.399087526737709</v>
+        <v>9.399087526737752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.268686856982443</v>
+        <v>2.268686856982375</v>
       </c>
       <c r="E6">
-        <v>14.69654232324208</v>
+        <v>14.69654232324207</v>
       </c>
       <c r="F6">
-        <v>39.16973410751756</v>
+        <v>39.16973410751763</v>
       </c>
       <c r="G6">
-        <v>29.6241509646716</v>
+        <v>29.62415096467165</v>
       </c>
       <c r="H6">
-        <v>16.41101678213335</v>
+        <v>16.4110167821333</v>
       </c>
       <c r="I6">
-        <v>11.68849938134581</v>
+        <v>11.68849938134582</v>
       </c>
       <c r="J6">
-        <v>50.25937778436537</v>
+        <v>50.25937778436536</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.616244267455968</v>
+        <v>9.616244267456031</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.337297297965117</v>
+        <v>2.337297297965049</v>
       </c>
       <c r="E7">
-        <v>15.11301678193201</v>
+        <v>15.11301678193197</v>
       </c>
       <c r="F7">
-        <v>40.30329304168954</v>
+        <v>40.30329304168935</v>
       </c>
       <c r="G7">
-        <v>30.5074179812875</v>
+        <v>30.50741798128732</v>
       </c>
       <c r="H7">
         <v>16.53040462010738</v>
       </c>
       <c r="I7">
-        <v>12.02115207005805</v>
+        <v>12.02115207005799</v>
       </c>
       <c r="J7">
-        <v>51.56255892571961</v>
+        <v>51.56255892571945</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52562858559864</v>
+        <v>10.52562858559862</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.643905009803792</v>
+        <v>2.643905009803855</v>
       </c>
       <c r="E8">
-        <v>16.89291942000888</v>
+        <v>16.8929194200089</v>
       </c>
       <c r="F8">
-        <v>45.24679406111281</v>
+        <v>45.24679406111277</v>
       </c>
       <c r="G8">
-        <v>34.35559206084208</v>
+        <v>34.35559206084204</v>
       </c>
       <c r="H8">
         <v>17.09316211911231</v>
       </c>
       <c r="I8">
-        <v>13.44859818636582</v>
+        <v>13.44859818636584</v>
       </c>
       <c r="J8">
-        <v>57.05802451096026</v>
+        <v>57.05802451096018</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.13780208866537</v>
+        <v>12.13780208866539</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.277832880397207</v>
+        <v>3.277832880397211</v>
       </c>
       <c r="E9">
-        <v>20.23461101635166</v>
+        <v>20.23461101635165</v>
       </c>
       <c r="F9">
-        <v>54.89699136833894</v>
+        <v>54.89699136833897</v>
       </c>
       <c r="G9">
-        <v>41.86119480431304</v>
+        <v>41.86119480431307</v>
       </c>
       <c r="H9">
-        <v>18.33736694669329</v>
+        <v>18.33736694669332</v>
       </c>
       <c r="I9">
-        <v>16.15516919372319</v>
+        <v>16.15516919372316</v>
       </c>
       <c r="J9">
-        <v>67.0280704354559</v>
+        <v>67.02807043545599</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.22472286867758</v>
+        <v>13.22472286867754</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.789836855344317</v>
+        <v>3.789836855344322</v>
       </c>
       <c r="E10">
-        <v>22.681313329468</v>
+        <v>22.68131332946804</v>
       </c>
       <c r="F10">
-        <v>62.21498827928064</v>
+        <v>62.21498827928059</v>
       </c>
       <c r="G10">
-        <v>47.55571768544149</v>
+        <v>47.55571768544147</v>
       </c>
       <c r="H10">
-        <v>19.35378389367593</v>
+        <v>19.35378389367588</v>
       </c>
       <c r="I10">
-        <v>18.16039182561992</v>
+        <v>18.16039182561997</v>
       </c>
       <c r="J10">
-        <v>74.01178035331111</v>
+        <v>74.01178035331097</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.70029119679776</v>
+        <v>13.70029119679772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.042152302200728</v>
+        <v>4.042152302200662</v>
       </c>
       <c r="E11">
-        <v>23.82158734339162</v>
+        <v>23.82158734339161</v>
       </c>
       <c r="F11">
-        <v>65.68733204409386</v>
+        <v>65.68733204409399</v>
       </c>
       <c r="G11">
-        <v>50.26000892189182</v>
+        <v>50.26000892189191</v>
       </c>
       <c r="H11">
-        <v>19.84436150804597</v>
+        <v>19.84436150804591</v>
       </c>
       <c r="I11">
         <v>19.10211996546508</v>
       </c>
       <c r="J11">
-        <v>77.16702221667985</v>
+        <v>77.16702221667983</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.87793959332435</v>
+        <v>13.87793959332438</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.141724371895223</v>
+        <v>4.141724371895227</v>
       </c>
       <c r="E12">
-        <v>24.26113918840905</v>
+        <v>24.26113918840908</v>
       </c>
       <c r="F12">
         <v>67.03533978509478</v>
@@ -810,13 +810,13 @@
         <v>51.31034209853627</v>
       </c>
       <c r="H12">
-        <v>20.03496839968956</v>
+        <v>20.0349683996895</v>
       </c>
       <c r="I12">
-        <v>19.46639879620342</v>
+        <v>19.46639879620347</v>
       </c>
       <c r="J12">
-        <v>78.36554694100006</v>
+        <v>78.36554694100005</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.83978276861763</v>
+        <v>13.83978276861761</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.120074682710722</v>
+        <v>4.120074682710658</v>
       </c>
       <c r="E13">
-        <v>24.16604809587088</v>
+        <v>24.16604809587083</v>
       </c>
       <c r="F13">
-        <v>66.74328641099346</v>
+        <v>66.74328641099349</v>
       </c>
       <c r="G13">
-        <v>51.08275671746262</v>
+        <v>51.08275671746265</v>
       </c>
       <c r="H13">
-        <v>19.99368649360536</v>
+        <v>19.99368649360534</v>
       </c>
       <c r="I13">
-        <v>19.38753179247093</v>
+        <v>19.38753179247087</v>
       </c>
       <c r="J13">
         <v>78.10711543812513</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.7149533647376</v>
+        <v>13.71495336473756</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.050254335554289</v>
+        <v>4.050254335554225</v>
       </c>
       <c r="E14">
-        <v>23.85756572583538</v>
+        <v>23.85756572583539</v>
       </c>
       <c r="F14">
-        <v>65.7974774318787</v>
+        <v>65.79747743187885</v>
       </c>
       <c r="G14">
-        <v>50.34582053088914</v>
+        <v>50.34582053088922</v>
       </c>
       <c r="H14">
-        <v>19.85994022604081</v>
+        <v>19.85994022604068</v>
       </c>
       <c r="I14">
-        <v>19.13191044063403</v>
+        <v>19.13191044063396</v>
       </c>
       <c r="J14">
-        <v>77.26550108175195</v>
+        <v>77.26550108175192</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.008057921673062</v>
+        <v>4.008057921673126</v>
       </c>
       <c r="E15">
-        <v>23.66976509734998</v>
+        <v>23.66976509735002</v>
       </c>
       <c r="F15">
-        <v>65.22292223648189</v>
+        <v>65.22292223648205</v>
       </c>
       <c r="G15">
-        <v>49.89821923590193</v>
+        <v>49.89821923590205</v>
       </c>
       <c r="H15">
-        <v>19.77867549974264</v>
+        <v>19.77867549974262</v>
       </c>
       <c r="I15">
-        <v>18.976461625129</v>
+        <v>18.97646162512902</v>
       </c>
       <c r="J15">
-        <v>76.75072496835847</v>
+        <v>76.75072496835857</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.19328485759976</v>
+        <v>13.19328485759977</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.773831595758787</v>
+        <v>3.773831595758649</v>
       </c>
       <c r="E16">
-        <v>22.60763301390459</v>
+        <v>22.60763301390462</v>
       </c>
       <c r="F16">
-        <v>61.99189379034187</v>
+        <v>61.99189379034199</v>
       </c>
       <c r="G16">
-        <v>47.38202772100514</v>
+        <v>47.38202772100522</v>
       </c>
       <c r="H16">
-        <v>19.32235048276767</v>
+        <v>19.32235048276761</v>
       </c>
       <c r="I16">
-        <v>18.09970134991377</v>
+        <v>18.09970134991371</v>
       </c>
       <c r="J16">
-        <v>73.80566002062366</v>
+        <v>73.80566002062369</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91568588350826</v>
+        <v>12.91568588350824</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.635834773778118</v>
+        <v>3.63583477377812</v>
       </c>
       <c r="E17">
-        <v>21.96527664212635</v>
+        <v>21.96527664212636</v>
       </c>
       <c r="F17">
-        <v>60.05378601557189</v>
+        <v>60.05378601557184</v>
       </c>
       <c r="G17">
-        <v>45.87338140876321</v>
+        <v>45.87338140876317</v>
       </c>
       <c r="H17">
-        <v>19.05009386602277</v>
+        <v>19.05009386602284</v>
       </c>
       <c r="I17">
-        <v>17.57140592484548</v>
+        <v>17.57140592484552</v>
       </c>
       <c r="J17">
-        <v>71.99741565667588</v>
+        <v>71.99741565667593</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.75422058135322</v>
+        <v>12.75422058135321</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.558192242049691</v>
+        <v>3.558192242049624</v>
       </c>
       <c r="E18">
-        <v>21.59807583372766</v>
+        <v>21.59807583372771</v>
       </c>
       <c r="F18">
-        <v>58.95155016645065</v>
+        <v>58.95155016645071</v>
       </c>
       <c r="G18">
-        <v>45.01558513110766</v>
+        <v>45.01558513110772</v>
       </c>
       <c r="H18">
-        <v>18.89609281595151</v>
+        <v>18.89609281595149</v>
       </c>
       <c r="I18">
         <v>17.27005764056926</v>
       </c>
       <c r="J18">
-        <v>70.95478910876876</v>
+        <v>70.95478910876881</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.532171318795969</v>
+        <v>3.532171318795904</v>
       </c>
       <c r="E19">
-        <v>21.47404539730904</v>
+        <v>21.47404539730908</v>
       </c>
       <c r="F19">
-        <v>58.58020289629534</v>
+        <v>58.58020289629536</v>
       </c>
       <c r="G19">
         <v>44.72661995024968</v>
       </c>
       <c r="H19">
-        <v>18.84437736818551</v>
+        <v>18.84437736818544</v>
       </c>
       <c r="I19">
-        <v>17.16837623593843</v>
+        <v>17.16837623593844</v>
       </c>
       <c r="J19">
-        <v>70.60116800773658</v>
+        <v>70.60116800773653</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.94542113460047</v>
+        <v>12.94542113460043</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.650338471489988</v>
+        <v>3.650338471490052</v>
       </c>
       <c r="E20">
-        <v>22.03339947198995</v>
+        <v>22.0333994719899</v>
       </c>
       <c r="F20">
-        <v>60.25873227632506</v>
+        <v>60.25873227632479</v>
       </c>
       <c r="G20">
-        <v>46.03289246394593</v>
+        <v>46.03289246394569</v>
       </c>
       <c r="H20">
         <v>19.07880296239744</v>
       </c>
       <c r="I20">
-        <v>17.62736359532395</v>
+        <v>17.62736359532392</v>
       </c>
       <c r="J20">
-        <v>72.19013215850531</v>
+        <v>72.19013215850511</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.75168226086438</v>
+        <v>13.75168226086439</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.070640285307391</v>
+        <v>4.070640285307393</v>
       </c>
       <c r="E21">
         <v>23.94792448766177</v>
@@ -1152,13 +1152,13 @@
         <v>50.56146136513044</v>
       </c>
       <c r="H21">
-        <v>19.89908555784308</v>
+        <v>19.89908555784309</v>
       </c>
       <c r="I21">
         <v>19.2067493229986</v>
       </c>
       <c r="J21">
-        <v>77.51253314405233</v>
+        <v>77.51253314405237</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.369866788513721</v>
+        <v>4.369866788513527</v>
       </c>
       <c r="E22">
-        <v>25.24770830729344</v>
+        <v>25.24770830729349</v>
       </c>
       <c r="F22">
-        <v>70.0788420745976</v>
+        <v>70.0788420745979</v>
       </c>
       <c r="G22">
-        <v>53.68288041760202</v>
+        <v>53.68288041760226</v>
       </c>
       <c r="H22">
-        <v>20.46403007295071</v>
+        <v>20.46403007295068</v>
       </c>
       <c r="I22">
-        <v>20.28662518456318</v>
+        <v>20.28662518456322</v>
       </c>
       <c r="J22">
-        <v>81.01847837511924</v>
+        <v>81.01847837511943</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99201499800744</v>
+        <v>13.99201499800743</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.20733956048003</v>
+        <v>4.207339560479897</v>
       </c>
       <c r="E23">
-        <v>24.5477474097568</v>
+        <v>24.54774740975686</v>
       </c>
       <c r="F23">
-        <v>67.91700743078624</v>
+        <v>67.91700743078626</v>
       </c>
       <c r="G23">
         <v>51.99747566312729</v>
       </c>
       <c r="H23">
-        <v>20.15951007122817</v>
+        <v>20.15951007122824</v>
       </c>
       <c r="I23">
-        <v>19.70430915442604</v>
+        <v>19.70430915442606</v>
       </c>
       <c r="J23">
-        <v>79.14159429850852</v>
+        <v>79.14159429850859</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.931983671302</v>
+        <v>12.93198367130198</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.643776158725508</v>
+        <v>3.643776158725505</v>
       </c>
       <c r="E24">
-        <v>22.00259486631409</v>
+        <v>22.00259486631412</v>
       </c>
       <c r="F24">
-        <v>60.16603952236569</v>
+        <v>60.16603952236574</v>
       </c>
       <c r="G24">
-        <v>45.96074846364118</v>
+        <v>45.96074846364122</v>
       </c>
       <c r="H24">
-        <v>19.06581577525942</v>
+        <v>19.0658157752594</v>
       </c>
       <c r="I24">
-        <v>17.60205796583338</v>
+        <v>17.6020579658334</v>
       </c>
       <c r="J24">
         <v>72.10301497233013</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.71940460656208</v>
+        <v>11.71940460656204</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.100598752608298</v>
+        <v>3.100598752608374</v>
       </c>
       <c r="E25">
-        <v>19.33949221878599</v>
+        <v>19.33949221878592</v>
       </c>
       <c r="F25">
-        <v>52.26991796177258</v>
+        <v>52.26991796177253</v>
       </c>
       <c r="G25">
-        <v>39.81795620430549</v>
+        <v>39.81795620430546</v>
       </c>
       <c r="H25">
-        <v>17.98432515812901</v>
+        <v>17.98432515812884</v>
       </c>
       <c r="I25">
-        <v>15.42664140346485</v>
+        <v>15.42664140346483</v>
       </c>
       <c r="J25">
-        <v>64.4043067832572</v>
+        <v>64.40430678325701</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.76025867471861</v>
+        <v>10.7635303189851</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.72846367103886</v>
+        <v>2.723089656687046</v>
       </c>
       <c r="E2">
-        <v>17.36283667138759</v>
+        <v>17.36344242335907</v>
       </c>
       <c r="F2">
-        <v>46.57654074028046</v>
+        <v>46.53353075515843</v>
       </c>
       <c r="G2">
-        <v>35.39003362127838</v>
+        <v>35.43978501174881</v>
       </c>
       <c r="H2">
-        <v>17.25470845578092</v>
+        <v>35.10141449419996</v>
       </c>
       <c r="I2">
-        <v>13.82706292814011</v>
+        <v>17.26644655152019</v>
       </c>
       <c r="J2">
-        <v>58.488205938991</v>
+        <v>13.82332587596118</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>58.46784940494786</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.06664152219953</v>
+        <v>10.06970661870765</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.485119408153726</v>
+        <v>2.480585127160547</v>
       </c>
       <c r="E3">
-        <v>15.98686197548192</v>
+        <v>15.98772753853605</v>
       </c>
       <c r="F3">
-        <v>42.7111080003907</v>
+        <v>42.67258541073458</v>
       </c>
       <c r="G3">
-        <v>32.38236070997833</v>
+        <v>32.42866252723772</v>
       </c>
       <c r="H3">
-        <v>16.79649499651156</v>
+        <v>32.1752673147274</v>
       </c>
       <c r="I3">
-        <v>12.72077472359696</v>
+        <v>16.8069240500266</v>
       </c>
       <c r="J3">
-        <v>54.27579365496978</v>
+        <v>12.71760733259084</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>54.25782694909125</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.61875837656809</v>
+        <v>9.621685032162262</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.338101531120169</v>
+        <v>2.3340770335642</v>
       </c>
       <c r="E4">
-        <v>15.11785613349672</v>
+        <v>15.1188406364917</v>
       </c>
       <c r="F4">
-        <v>40.31651951526582</v>
+        <v>40.28064172520518</v>
       </c>
       <c r="G4">
-        <v>30.51772157302921</v>
+        <v>30.56179411907693</v>
       </c>
       <c r="H4">
-        <v>16.53182082937085</v>
+        <v>30.36903252381119</v>
       </c>
       <c r="I4">
-        <v>12.02502039259513</v>
+        <v>16.54139331898149</v>
       </c>
       <c r="J4">
-        <v>51.57766390849907</v>
+        <v>12.02217231201369</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>51.56110296051406</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.430659504636871</v>
+        <v>9.433526900357888</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.278557924913009</v>
+        <v>2.274740889592294</v>
       </c>
       <c r="E5">
-        <v>14.75690875701143</v>
+        <v>14.75793357906694</v>
       </c>
       <c r="F5">
-        <v>39.33345460087197</v>
+        <v>39.29863556643217</v>
       </c>
       <c r="G5">
-        <v>29.75174864395343</v>
+        <v>29.79488819552587</v>
       </c>
       <c r="H5">
-        <v>16.42801316398958</v>
+        <v>29.62912439325327</v>
       </c>
       <c r="I5">
-        <v>11.73668501643987</v>
+        <v>16.43722476614165</v>
       </c>
       <c r="J5">
-        <v>50.44866502593809</v>
+        <v>11.73396142577414</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>50.43266688531018</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.399087526737752</v>
+        <v>9.401944912262806</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.268686856982375</v>
+        <v>2.264904283400811</v>
       </c>
       <c r="E6">
-        <v>14.69654232324207</v>
+        <v>14.69757339806156</v>
       </c>
       <c r="F6">
-        <v>39.16973410751763</v>
+        <v>39.13508994279022</v>
       </c>
       <c r="G6">
-        <v>29.62415096467165</v>
+        <v>29.66713419700746</v>
       </c>
       <c r="H6">
-        <v>16.4110167821333</v>
+        <v>29.50599686221189</v>
       </c>
       <c r="I6">
-        <v>11.68849938134582</v>
+        <v>16.42016778688329</v>
       </c>
       <c r="J6">
-        <v>50.25937778436536</v>
+        <v>11.68579617175175</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>50.24347262664165</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.616244267456031</v>
+        <v>9.619170135288355</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.337297297965049</v>
+        <v>2.333275598075191</v>
       </c>
       <c r="E7">
-        <v>15.11301678193197</v>
+        <v>15.11400185935854</v>
       </c>
       <c r="F7">
-        <v>40.30329304168935</v>
+        <v>40.26742959749446</v>
       </c>
       <c r="G7">
-        <v>30.50741798128732</v>
+        <v>30.55147804005736</v>
       </c>
       <c r="H7">
-        <v>16.53040462010738</v>
+        <v>30.35907104460101</v>
       </c>
       <c r="I7">
-        <v>12.02115207005799</v>
+        <v>16.53997228865722</v>
       </c>
       <c r="J7">
-        <v>51.56255892571945</v>
+        <v>12.01830568888548</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>51.54600560234702</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52562858559862</v>
+        <v>10.52883148244235</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.643905009803855</v>
+        <v>2.63882254919067</v>
       </c>
       <c r="E8">
-        <v>16.8929194200089</v>
+        <v>16.89362460797878</v>
       </c>
       <c r="F8">
-        <v>45.24679406111277</v>
+        <v>45.2053603418084</v>
       </c>
       <c r="G8">
-        <v>34.35559206084204</v>
+        <v>34.40417945794861</v>
       </c>
       <c r="H8">
-        <v>17.09316211911231</v>
+        <v>34.09344255845565</v>
       </c>
       <c r="I8">
-        <v>13.44859818636584</v>
+        <v>17.10446069209533</v>
       </c>
       <c r="J8">
-        <v>57.05802451096018</v>
+        <v>13.44506527991389</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>57.03850848706175</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.13780208866539</v>
+        <v>12.14144999705799</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.277832880397211</v>
+        <v>3.270550061891876</v>
       </c>
       <c r="E9">
-        <v>20.23461101635165</v>
+        <v>20.23430889454499</v>
       </c>
       <c r="F9">
-        <v>54.89699136833897</v>
+        <v>54.84318395186267</v>
       </c>
       <c r="G9">
-        <v>41.86119480431307</v>
+        <v>41.91755402703352</v>
       </c>
       <c r="H9">
-        <v>18.33736694669332</v>
+        <v>41.43591827399106</v>
       </c>
       <c r="I9">
-        <v>16.15516919372316</v>
+        <v>18.35157414819326</v>
       </c>
       <c r="J9">
-        <v>67.02807043545599</v>
+        <v>16.14991549580069</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>67.00191280511305</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.22472286867754</v>
+        <v>13.22862277930102</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.789836855344322</v>
+        <v>3.780705071168396</v>
       </c>
       <c r="E10">
-        <v>22.68131332946804</v>
+        <v>22.67967608855354</v>
       </c>
       <c r="F10">
-        <v>62.21498827928059</v>
+        <v>62.1499191524933</v>
       </c>
       <c r="G10">
-        <v>47.55571768544147</v>
+        <v>47.616570399202</v>
       </c>
       <c r="H10">
-        <v>19.35378389367588</v>
+        <v>47.03992643791428</v>
       </c>
       <c r="I10">
-        <v>18.16039182561997</v>
+        <v>19.36972844992601</v>
       </c>
       <c r="J10">
-        <v>74.01178035331097</v>
+        <v>18.15334300278383</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>73.97948685485464</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.70029119679772</v>
+        <v>13.70428254931191</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.042152302200662</v>
+        <v>4.032063246366023</v>
       </c>
       <c r="E11">
-        <v>23.82158734339161</v>
+        <v>23.81907182907858</v>
       </c>
       <c r="F11">
-        <v>65.68733204409399</v>
+        <v>65.61611501162007</v>
       </c>
       <c r="G11">
-        <v>50.26000892189191</v>
+        <v>50.32237962258681</v>
       </c>
       <c r="H11">
-        <v>19.84436150804591</v>
+        <v>49.70798838638886</v>
       </c>
       <c r="I11">
-        <v>19.10211996546508</v>
+        <v>19.86097816486793</v>
       </c>
       <c r="J11">
-        <v>77.16702221667983</v>
+        <v>19.09400550326172</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>77.13134801302559</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.87793959332438</v>
+        <v>13.88196112567117</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.141724371895227</v>
+        <v>4.131246128348986</v>
       </c>
       <c r="E12">
-        <v>24.26113918840908</v>
+        <v>24.25822921939439</v>
       </c>
       <c r="F12">
-        <v>67.03533978509478</v>
+        <v>66.96156091227185</v>
       </c>
       <c r="G12">
-        <v>51.31034209853627</v>
+        <v>51.37316707358551</v>
       </c>
       <c r="H12">
-        <v>20.0349683996895</v>
+        <v>50.74518060248496</v>
       </c>
       <c r="I12">
-        <v>19.46639879620347</v>
+        <v>20.05181839139105</v>
       </c>
       <c r="J12">
-        <v>78.36554694100005</v>
+        <v>19.45782359495183</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>78.3284587417339</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.83978276861761</v>
+        <v>13.84379802497898</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.120074682710658</v>
+        <v>4.109681673314471</v>
       </c>
       <c r="E13">
-        <v>24.16604809587083</v>
+        <v>24.163226372705</v>
       </c>
       <c r="F13">
-        <v>66.74328641099349</v>
+        <v>66.67007167566038</v>
       </c>
       <c r="G13">
-        <v>51.08275671746265</v>
+        <v>51.14549030846713</v>
       </c>
       <c r="H13">
-        <v>19.99368649360534</v>
+        <v>50.520402165829</v>
       </c>
       <c r="I13">
-        <v>19.38753179247087</v>
+        <v>20.0104872659607</v>
       </c>
       <c r="J13">
-        <v>78.10711543812513</v>
+        <v>19.37905886652014</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>78.07033885194353</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.71495336473756</v>
+        <v>13.71894729833558</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.050254335554225</v>
+        <v>4.040133875575544</v>
       </c>
       <c r="E14">
-        <v>23.85756572583539</v>
+        <v>23.85501918757867</v>
       </c>
       <c r="F14">
-        <v>65.79747743187885</v>
+        <v>65.72605501737526</v>
       </c>
       <c r="G14">
-        <v>50.34582053088922</v>
+        <v>50.4082313991603</v>
       </c>
       <c r="H14">
-        <v>19.85994022604068</v>
+        <v>49.7927081818513</v>
       </c>
       <c r="I14">
-        <v>19.13191044063396</v>
+        <v>19.87657653589113</v>
       </c>
       <c r="J14">
-        <v>77.26550108175192</v>
+        <v>19.1237593944015</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>77.22971362389164</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.63818405678222</v>
+        <v>13.64216430502664</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.008057921673126</v>
+        <v>3.998100529793408</v>
       </c>
       <c r="E15">
-        <v>23.66976509735002</v>
+        <v>23.66737811724703</v>
       </c>
       <c r="F15">
-        <v>65.22292223648205</v>
+        <v>65.15256372620829</v>
       </c>
       <c r="G15">
-        <v>49.89821923590205</v>
+        <v>49.96041483667266</v>
       </c>
       <c r="H15">
-        <v>19.77867549974262</v>
+        <v>49.35083877494758</v>
       </c>
       <c r="I15">
-        <v>18.97646162512902</v>
+        <v>19.79520815240764</v>
       </c>
       <c r="J15">
-        <v>76.75072496835857</v>
+        <v>18.96849941304371</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>76.715523973785</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.19328485759977</v>
+        <v>13.19717824550859</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.773831595758649</v>
+        <v>3.764759306825249</v>
       </c>
       <c r="E16">
-        <v>22.60763301390462</v>
+        <v>22.60604607750678</v>
       </c>
       <c r="F16">
-        <v>61.99189379034199</v>
+        <v>61.92719957183116</v>
       </c>
       <c r="G16">
-        <v>47.38202772100522</v>
+        <v>47.44276747718177</v>
       </c>
       <c r="H16">
-        <v>19.32235048276761</v>
+        <v>46.86869299350939</v>
       </c>
       <c r="I16">
-        <v>18.09970134991371</v>
+        <v>19.33824842522616</v>
       </c>
       <c r="J16">
-        <v>73.80566002062369</v>
+        <v>18.09271562139906</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>73.77357204494388</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91568588350824</v>
+        <v>12.91951944612244</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.63583477377812</v>
+        <v>3.627270232985724</v>
       </c>
       <c r="E17">
-        <v>21.96527664212636</v>
+        <v>21.96409887761396</v>
       </c>
       <c r="F17">
-        <v>60.05378601557184</v>
+        <v>59.99225726515287</v>
       </c>
       <c r="G17">
-        <v>45.87338140876317</v>
+        <v>45.9330699154281</v>
       </c>
       <c r="H17">
-        <v>19.05009386602284</v>
+        <v>45.38211334832224</v>
       </c>
       <c r="I17">
-        <v>17.57140592484552</v>
+        <v>19.06556976336812</v>
       </c>
       <c r="J17">
-        <v>71.99741565667593</v>
+        <v>17.56494397397156</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>71.96705974788067</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.75422058135321</v>
+        <v>12.75801764317508</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.558192242049624</v>
+        <v>3.549909627231588</v>
       </c>
       <c r="E18">
-        <v>21.59807583372771</v>
+        <v>21.59710982134182</v>
       </c>
       <c r="F18">
-        <v>58.95155016645071</v>
+        <v>58.89175276400304</v>
       </c>
       <c r="G18">
-        <v>45.01558513110772</v>
+        <v>45.07462326038934</v>
       </c>
       <c r="H18">
-        <v>18.89609281595149</v>
+        <v>44.53748359329197</v>
       </c>
       <c r="I18">
-        <v>17.27005764056926</v>
+        <v>18.91131516100281</v>
       </c>
       <c r="J18">
-        <v>70.95478910876881</v>
+        <v>17.26387528904939</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>70.92537798893925</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.6992355524095</v>
+        <v>12.70301992041567</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.532171318795904</v>
+        <v>3.523982641164439</v>
       </c>
       <c r="E19">
-        <v>21.47404539730908</v>
+        <v>21.4731475147941</v>
       </c>
       <c r="F19">
-        <v>58.58020289629536</v>
+        <v>58.52097822560018</v>
       </c>
       <c r="G19">
-        <v>44.72661995024968</v>
+        <v>44.78543094101599</v>
       </c>
       <c r="H19">
-        <v>18.84437736818544</v>
+        <v>44.25306144918426</v>
       </c>
       <c r="I19">
-        <v>17.16837623593844</v>
+        <v>18.85951210622455</v>
       </c>
       <c r="J19">
-        <v>70.60116800773653</v>
+        <v>17.16228528802975</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>70.57206900732494</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.94542113460043</v>
+        <v>12.94926128808994</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.650338471490052</v>
+        <v>3.641720981954143</v>
       </c>
       <c r="E20">
-        <v>22.0333994719899</v>
+        <v>22.0321807142089</v>
       </c>
       <c r="F20">
-        <v>60.25873227632479</v>
+        <v>60.19687627172875</v>
       </c>
       <c r="G20">
-        <v>46.03289246394569</v>
+        <v>46.09269784281589</v>
       </c>
       <c r="H20">
-        <v>19.07880296239744</v>
+        <v>45.53922714276371</v>
       </c>
       <c r="I20">
-        <v>17.62736359532392</v>
+        <v>19.09432492918371</v>
       </c>
       <c r="J20">
-        <v>72.19013215850511</v>
+        <v>17.62084824405831</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>72.15959745981654</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.75168226086439</v>
+        <v>13.7556825907589</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.070640285307393</v>
+        <v>4.060440606202343</v>
       </c>
       <c r="E21">
-        <v>23.94792448766177</v>
+        <v>23.94529906193548</v>
       </c>
       <c r="F21">
-        <v>66.07425717301891</v>
+        <v>66.00231562519441</v>
       </c>
       <c r="G21">
-        <v>50.56146136513044</v>
+        <v>50.6239708229237</v>
       </c>
       <c r="H21">
-        <v>19.89908555784309</v>
+        <v>50.00561990256114</v>
       </c>
       <c r="I21">
-        <v>19.2067493229986</v>
+        <v>19.91577079361436</v>
       </c>
       <c r="J21">
-        <v>77.51253314405237</v>
+        <v>19.19850552872284</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>77.47645933571107</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.26462064383129</v>
+        <v>14.26869854288969</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.369866788513527</v>
+        <v>4.358467184375111</v>
       </c>
       <c r="E22">
-        <v>25.24770830729349</v>
+        <v>25.24377775456252</v>
       </c>
       <c r="F22">
-        <v>70.0788420745979</v>
+        <v>69.99885511215486</v>
       </c>
       <c r="G22">
-        <v>53.68288041760226</v>
+        <v>53.7464024749635</v>
       </c>
       <c r="H22">
-        <v>20.46403007295068</v>
+        <v>53.08967700262301</v>
       </c>
       <c r="I22">
-        <v>20.28662518456322</v>
+        <v>20.48134812938005</v>
       </c>
       <c r="J22">
-        <v>81.01847837511943</v>
+        <v>20.27689507230349</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>80.97795300516692</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99201499800743</v>
+        <v>13.99605457618597</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.207339560479897</v>
+        <v>4.196600788992783</v>
       </c>
       <c r="E23">
-        <v>24.54774740975686</v>
+        <v>24.54456123587892</v>
       </c>
       <c r="F23">
-        <v>67.91700743078626</v>
+        <v>67.84149350843397</v>
       </c>
       <c r="G23">
-        <v>51.99747566312729</v>
+        <v>52.06055173613729</v>
       </c>
       <c r="H23">
-        <v>20.15951007122824</v>
+        <v>51.42396917318731</v>
       </c>
       <c r="I23">
-        <v>19.70430915442606</v>
+        <v>20.17650412679941</v>
       </c>
       <c r="J23">
-        <v>79.14159429850859</v>
+        <v>19.69541655481775</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>79.10354690398856</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.93198367130198</v>
+        <v>12.93582085154598</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.643776158725505</v>
+        <v>3.635182637764954</v>
       </c>
       <c r="E24">
-        <v>22.00259486631412</v>
+        <v>22.00139471327077</v>
       </c>
       <c r="F24">
-        <v>60.16603952236574</v>
+        <v>60.10433173949479</v>
       </c>
       <c r="G24">
-        <v>45.96074846364122</v>
+        <v>46.02050114502712</v>
       </c>
       <c r="H24">
-        <v>19.0658157752594</v>
+        <v>45.46816543921147</v>
       </c>
       <c r="I24">
-        <v>17.6020579658334</v>
+        <v>19.08131694776449</v>
       </c>
       <c r="J24">
-        <v>72.10301497233013</v>
+        <v>17.59556682255799</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>72.07256126021228</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.71940460656204</v>
+        <v>11.72294376184662</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.100598752608374</v>
+        <v>3.093936740187054</v>
       </c>
       <c r="E25">
-        <v>19.33949221878592</v>
+        <v>19.33953576782433</v>
       </c>
       <c r="F25">
-        <v>52.26991796177253</v>
+        <v>52.21971346895447</v>
       </c>
       <c r="G25">
-        <v>39.81795620430546</v>
+        <v>39.87237130963938</v>
       </c>
       <c r="H25">
-        <v>17.98432515812884</v>
+        <v>39.43117801723071</v>
       </c>
       <c r="I25">
-        <v>15.42664140346483</v>
+        <v>17.99780724019694</v>
       </c>
       <c r="J25">
-        <v>64.40430678325701</v>
+        <v>15.42191661410735</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>64.38009400676772</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.7635303189851</v>
+        <v>15.98860220919189</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.723089656687046</v>
+        <v>10.13420468674978</v>
       </c>
       <c r="E2">
-        <v>17.36344242335907</v>
+        <v>12.09607547827657</v>
       </c>
       <c r="F2">
-        <v>46.53353075515843</v>
+        <v>66.52260666179841</v>
       </c>
       <c r="G2">
-        <v>35.43978501174881</v>
+        <v>2.12678474937087</v>
       </c>
       <c r="H2">
-        <v>35.10141449419996</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.26644655152019</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.82332587596118</v>
+        <v>7.984895253136869</v>
       </c>
       <c r="K2">
-        <v>58.46784940494786</v>
+        <v>23.80165251297331</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.872565802398464</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.99081440086258</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.06970661870765</v>
+        <v>15.29162434962298</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.480585127160547</v>
+        <v>9.369222973305897</v>
       </c>
       <c r="E3">
-        <v>15.98772753853605</v>
+        <v>11.38010467095411</v>
       </c>
       <c r="F3">
-        <v>42.67258541073458</v>
+        <v>63.47543964363884</v>
       </c>
       <c r="G3">
-        <v>32.42866252723772</v>
+        <v>2.14440699668598</v>
       </c>
       <c r="H3">
-        <v>32.1752673147274</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.8069240500266</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.71760733259084</v>
+        <v>7.800227638806552</v>
       </c>
       <c r="K3">
-        <v>54.25782694909125</v>
+        <v>22.00324255777547</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.520679061438045</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.60266381183053</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.621685032162262</v>
+        <v>14.86622464451848</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.3340770335642</v>
+        <v>8.925610028217969</v>
       </c>
       <c r="E4">
-        <v>15.1188406364917</v>
+        <v>10.92842175797792</v>
       </c>
       <c r="F4">
-        <v>40.28064172520518</v>
+        <v>61.5976282611456</v>
       </c>
       <c r="G4">
-        <v>30.56179411907693</v>
+        <v>2.155361932258574</v>
       </c>
       <c r="H4">
-        <v>30.36903252381119</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.54139331898149</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.02217231201369</v>
+        <v>7.686445475655868</v>
       </c>
       <c r="K4">
-        <v>51.56110296051406</v>
+        <v>20.85674585483327</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.311183150855987</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.37400243105789</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.433526900357888</v>
+        <v>14.69365105528549</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.274740889592294</v>
+        <v>8.745361589603023</v>
       </c>
       <c r="E5">
-        <v>14.75793357906694</v>
+        <v>10.74116773915613</v>
       </c>
       <c r="F5">
-        <v>39.29863556643217</v>
+        <v>60.83079665261272</v>
       </c>
       <c r="G5">
-        <v>29.79488819552587</v>
+        <v>2.159867842050293</v>
       </c>
       <c r="H5">
-        <v>29.62912439325327</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.43722476614165</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.73396142577414</v>
+        <v>7.639893433685198</v>
       </c>
       <c r="K5">
-        <v>50.43266688531018</v>
+        <v>20.4153840410571</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.227472596589335</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.28324381434268</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.401944912262806</v>
+        <v>14.66504734001811</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.264904283400811</v>
+        <v>8.715247514914964</v>
       </c>
       <c r="E6">
-        <v>14.69757339806156</v>
+        <v>10.70987801510327</v>
       </c>
       <c r="F6">
-        <v>39.13508994279022</v>
+        <v>60.70337446610882</v>
       </c>
       <c r="G6">
-        <v>29.66713419700746</v>
+        <v>2.160618773419493</v>
       </c>
       <c r="H6">
-        <v>29.50599686221189</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.42016778688329</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.68579617175175</v>
+        <v>7.632150065442493</v>
       </c>
       <c r="K6">
-        <v>50.24347262664165</v>
+        <v>20.34914729886151</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.213673477808751</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.26831975026265</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.619170135288355</v>
+        <v>14.86389388270545</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.333275598075191</v>
+        <v>8.923191452076477</v>
       </c>
       <c r="E7">
-        <v>15.11400185935854</v>
+        <v>10.92590947201418</v>
       </c>
       <c r="F7">
-        <v>40.26742959749446</v>
+        <v>61.58729273296137</v>
       </c>
       <c r="G7">
-        <v>30.55147804005736</v>
+        <v>2.155422522108744</v>
       </c>
       <c r="H7">
-        <v>30.35907104460101</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.53997228865722</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.01830568888548</v>
+        <v>7.685818511310667</v>
       </c>
       <c r="K7">
-        <v>51.54600560234702</v>
+        <v>20.85034176201976</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.310047449563672</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.37276861990303</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52883148244235</v>
+        <v>15.74782548914302</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.63882254919067</v>
+        <v>9.87420428945692</v>
       </c>
       <c r="E8">
-        <v>16.89362460797878</v>
+        <v>11.85160885282129</v>
       </c>
       <c r="F8">
-        <v>45.2053603418084</v>
+        <v>65.47336892847683</v>
       </c>
       <c r="G8">
-        <v>34.40417945794861</v>
+        <v>2.132837907682616</v>
       </c>
       <c r="H8">
-        <v>34.09344255845565</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.10446069209533</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>13.44506527991389</v>
+        <v>7.921248473736456</v>
       </c>
       <c r="K8">
-        <v>57.03850848706175</v>
+        <v>23.19009882911186</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.749872232224863</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.85496495228645</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.14144999705799</v>
+        <v>17.497912674716</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.270550061891876</v>
+        <v>11.68938802328568</v>
       </c>
       <c r="E9">
-        <v>20.23430889454499</v>
+        <v>13.58051507947968</v>
       </c>
       <c r="F9">
-        <v>54.84318395186267</v>
+        <v>73.04637950904022</v>
       </c>
       <c r="G9">
-        <v>41.91755402703352</v>
+        <v>2.089210533142932</v>
       </c>
       <c r="H9">
-        <v>41.43591827399106</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.35157414819326</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>16.14991549580069</v>
+        <v>8.384426206301786</v>
       </c>
       <c r="K9">
-        <v>67.00191280511305</v>
+        <v>27.46317723893592</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.992335087582857</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.87866735653179</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.22862277930102</v>
+        <v>18.79385102518983</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.780705071168396</v>
+        <v>12.95620823961144</v>
       </c>
       <c r="E10">
-        <v>22.67967608855354</v>
+        <v>14.81559186753819</v>
       </c>
       <c r="F10">
-        <v>62.1499191524933</v>
+        <v>78.61091642556563</v>
       </c>
       <c r="G10">
-        <v>47.616570399202</v>
+        <v>2.056877977848596</v>
       </c>
       <c r="H10">
-        <v>47.03992643791428</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.36972844992601</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>18.15334300278383</v>
+        <v>8.73365506787359</v>
       </c>
       <c r="K10">
-        <v>73.97948685485464</v>
+        <v>30.44630055863494</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.08421294572631</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.82700130501602</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.70428254931191</v>
+        <v>19.38719636860337</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.032063246366023</v>
+        <v>13.52297185560569</v>
       </c>
       <c r="E11">
-        <v>23.81907182907858</v>
+        <v>15.37527632815532</v>
       </c>
       <c r="F11">
-        <v>65.61611501162007</v>
+        <v>81.1558962654813</v>
       </c>
       <c r="G11">
-        <v>50.32237962258681</v>
+        <v>2.041913643040067</v>
       </c>
       <c r="H11">
-        <v>49.70798838638886</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.86097816486793</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>19.09400550326172</v>
+        <v>8.896843891925958</v>
       </c>
       <c r="K11">
-        <v>77.13134801302559</v>
+        <v>31.78012551887486</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.57232511640675</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.46104561837619</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.88196112567117</v>
+        <v>19.61269115987004</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.131246128348986</v>
+        <v>13.73674601097139</v>
       </c>
       <c r="E12">
-        <v>24.25822921939439</v>
+        <v>15.58750859490421</v>
       </c>
       <c r="F12">
-        <v>66.96156091227185</v>
+        <v>82.12327999422719</v>
       </c>
       <c r="G12">
-        <v>51.37316707358551</v>
+        <v>2.036189504668501</v>
       </c>
       <c r="H12">
-        <v>50.74518060248496</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.05181839139105</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.45782359495183</v>
+        <v>8.959520326067544</v>
       </c>
       <c r="K12">
-        <v>78.3284587417339</v>
+        <v>32.28302406016086</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.75637278651787</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.69954896310819</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.84379802497898</v>
+        <v>19.56408545299366</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.109681673314471</v>
+        <v>13.69073400991714</v>
       </c>
       <c r="E13">
-        <v>24.163226372705</v>
+        <v>15.54177634180595</v>
       </c>
       <c r="F13">
-        <v>66.67007167566038</v>
+        <v>81.91474088472765</v>
       </c>
       <c r="G13">
-        <v>51.14549030846713</v>
+        <v>2.037425235677608</v>
       </c>
       <c r="H13">
-        <v>50.520402165829</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20.0104872659607</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>19.37905886652014</v>
+        <v>8.945977866127439</v>
       </c>
       <c r="K13">
-        <v>78.07033885194353</v>
+        <v>32.17479217974349</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.71676178755352</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.64824503134309</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.71894729833558</v>
+        <v>19.40572985224541</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.040133875575544</v>
+        <v>13.54057275044208</v>
       </c>
       <c r="E14">
-        <v>23.85501918757867</v>
+        <v>15.39272695595057</v>
       </c>
       <c r="F14">
-        <v>65.72605501737526</v>
+        <v>81.23539851049095</v>
       </c>
       <c r="G14">
-        <v>50.4082313991603</v>
+        <v>2.041444001455398</v>
       </c>
       <c r="H14">
-        <v>49.7927081818513</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.87657653589113</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>19.1237593944015</v>
+        <v>8.9019809654268</v>
       </c>
       <c r="K14">
-        <v>77.22971362389164</v>
+        <v>31.82153568800253</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.58747975277439</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.48069623153563</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.64216430502664</v>
+        <v>19.30884742847217</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.998100529793408</v>
+        <v>13.44850181516719</v>
       </c>
       <c r="E15">
-        <v>23.66737811724703</v>
+        <v>15.30148839031348</v>
       </c>
       <c r="F15">
-        <v>65.15256372620829</v>
+        <v>80.81981764304744</v>
       </c>
       <c r="G15">
-        <v>49.96041483667266</v>
+        <v>2.043897435563809</v>
       </c>
       <c r="H15">
-        <v>49.35083877494758</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.79520815240764</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>18.96849941304371</v>
+        <v>8.875155003798264</v>
       </c>
       <c r="K15">
-        <v>76.715523973785</v>
+        <v>31.60490899614325</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.50820281053823</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.37787626064424</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.19717824550859</v>
+        <v>18.75517076518951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.764759306825249</v>
+        <v>12.91901943543774</v>
       </c>
       <c r="E16">
-        <v>22.60604607750678</v>
+        <v>14.77901988924999</v>
       </c>
       <c r="F16">
-        <v>61.92719957183116</v>
+        <v>78.44500276351452</v>
       </c>
       <c r="G16">
-        <v>47.44276747718177</v>
+        <v>2.05784911578461</v>
       </c>
       <c r="H16">
-        <v>46.86869299350939</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.33824842522616</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>18.09271562139906</v>
+        <v>8.723098013942341</v>
       </c>
       <c r="K16">
-        <v>73.77357204494388</v>
+        <v>30.35875695469641</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.05217674572583</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.7853128836834</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91951944612244</v>
+        <v>18.41663351253164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.627270232985724</v>
+        <v>12.59209841694847</v>
       </c>
       <c r="E17">
-        <v>21.96409887761396</v>
+        <v>14.45833329829027</v>
       </c>
       <c r="F17">
-        <v>59.99225726515287</v>
+        <v>76.99266085186399</v>
       </c>
       <c r="G17">
-        <v>45.9330699154281</v>
+        <v>2.066329100410002</v>
       </c>
       <c r="H17">
-        <v>45.38211334832224</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.06556976336812</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>17.56494397397156</v>
+        <v>8.631088677916205</v>
       </c>
       <c r="K17">
-        <v>71.96705974788067</v>
+        <v>29.58907424059538</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.77050763813961</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.44527624001381</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.75801764317508</v>
+        <v>18.22225312601044</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.549909627231588</v>
+        <v>12.40312912765562</v>
       </c>
       <c r="E18">
-        <v>21.59710982134182</v>
+        <v>14.27363602812682</v>
       </c>
       <c r="F18">
-        <v>58.89175276400304</v>
+        <v>76.1584655706573</v>
       </c>
       <c r="G18">
-        <v>45.07462326038934</v>
+        <v>2.071183924069307</v>
       </c>
       <c r="H18">
-        <v>44.53748359329197</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.91131516100281</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>17.26387528904939</v>
+        <v>8.578555607871783</v>
       </c>
       <c r="K18">
-        <v>70.92537798893925</v>
+        <v>29.14410618726425</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.60765908925776</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.32392863916966</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.70301992041567</v>
+        <v>18.15649119302898</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.523982641164439</v>
+        <v>12.33897300348477</v>
       </c>
       <c r="E19">
-        <v>21.4731475147941</v>
+        <v>14.21104229859076</v>
       </c>
       <c r="F19">
-        <v>58.52097822560018</v>
+        <v>75.87617668528085</v>
       </c>
       <c r="G19">
-        <v>44.78543094101599</v>
+        <v>2.072824353734918</v>
       </c>
       <c r="H19">
-        <v>44.25306144918426</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.85951210622455</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>17.16228528802975</v>
+        <v>8.560828583043763</v>
       </c>
       <c r="K19">
-        <v>70.57206900732494</v>
+        <v>28.99302749318041</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.55236505253982</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.28304754279292</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.94926128808994</v>
+        <v>18.45263497194826</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.641720981954143</v>
+        <v>12.62699284982475</v>
       </c>
       <c r="E20">
-        <v>22.0321807142089</v>
+        <v>14.49249258309499</v>
       </c>
       <c r="F20">
-        <v>60.19687627172875</v>
+        <v>77.14713524537754</v>
       </c>
       <c r="G20">
-        <v>46.09269784281589</v>
+        <v>2.065428869984546</v>
       </c>
       <c r="H20">
-        <v>45.53922714276371</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.09432492918371</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>17.62084824405831</v>
+        <v>8.640841364435783</v>
       </c>
       <c r="K20">
-        <v>72.15959745981654</v>
+        <v>29.6712354158528</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.80057580165146</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.46783383333354</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.7556825907589</v>
+        <v>19.45221813588606</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.060440606202343</v>
+        <v>13.58469699563466</v>
       </c>
       <c r="E21">
-        <v>23.94529906193548</v>
+        <v>15.43649288657335</v>
       </c>
       <c r="F21">
-        <v>66.00231562519441</v>
+        <v>81.43482228996317</v>
       </c>
       <c r="G21">
-        <v>50.6239708229237</v>
+        <v>2.040265340051109</v>
       </c>
       <c r="H21">
-        <v>50.00561990256114</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.91577079361436</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>19.19850552872284</v>
+        <v>8.914877648002397</v>
       </c>
       <c r="K21">
-        <v>77.47645933571107</v>
+        <v>31.92534469648349</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.62547041217208</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.5299482556969</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.26869854288969</v>
+        <v>20.11042562823052</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.358467184375111</v>
+        <v>14.20600947174044</v>
       </c>
       <c r="E22">
-        <v>25.24377775456252</v>
+        <v>16.05555265053219</v>
       </c>
       <c r="F22">
-        <v>69.99885511215486</v>
+        <v>84.25960618917085</v>
       </c>
       <c r="G22">
-        <v>53.7464024749635</v>
+        <v>2.023471296308288</v>
       </c>
       <c r="H22">
-        <v>53.08967700262301</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.48134812938005</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>20.27689507230349</v>
+        <v>9.099277951911379</v>
       </c>
       <c r="K22">
-        <v>80.97795300516692</v>
+        <v>33.38650133424658</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.16026765481531</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.2218007645289</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99605457618597</v>
+        <v>19.75855865202672</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.196600788992783</v>
+        <v>13.87461957788389</v>
       </c>
       <c r="E23">
-        <v>24.54456123587892</v>
+        <v>15.72471510851747</v>
       </c>
       <c r="F23">
-        <v>67.84149350843397</v>
+        <v>82.74918766751993</v>
       </c>
       <c r="G23">
-        <v>52.06055173613729</v>
+        <v>2.032474571999766</v>
       </c>
       <c r="H23">
-        <v>51.42396917318731</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>20.17650412679941</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>19.69541655481775</v>
+        <v>9.000271700947014</v>
       </c>
       <c r="K23">
-        <v>79.10354690398856</v>
+        <v>32.60730241401848</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.87505684739927</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.85317769477333</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.93582085154598</v>
+        <v>18.43635795386345</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.635182637764954</v>
+        <v>12.61122028550003</v>
       </c>
       <c r="E24">
-        <v>22.00139471327077</v>
+        <v>14.47705024254551</v>
       </c>
       <c r="F24">
-        <v>60.10433173949479</v>
+        <v>77.07729507680654</v>
       </c>
       <c r="G24">
-        <v>46.02050114502712</v>
+        <v>2.065835926307405</v>
       </c>
       <c r="H24">
-        <v>45.46816543921147</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.08131694776449</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>17.59556682255799</v>
+        <v>8.63643105873075</v>
       </c>
       <c r="K24">
-        <v>72.07256126021228</v>
+        <v>29.63409811617317</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.78698486168269</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.45763190134437</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.72294376184662</v>
+        <v>17.02293644465844</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.093936740187054</v>
+        <v>11.21150861678059</v>
       </c>
       <c r="E25">
-        <v>19.33953576782433</v>
+        <v>13.12049929912346</v>
       </c>
       <c r="F25">
-        <v>52.21971346895447</v>
+        <v>71.00081640190265</v>
       </c>
       <c r="G25">
-        <v>39.87237130963938</v>
+        <v>2.1010054264797</v>
       </c>
       <c r="H25">
-        <v>39.43117801723071</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.99780724019694</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>15.42191661410735</v>
+        <v>8.258233020712778</v>
       </c>
       <c r="K25">
-        <v>64.38009400676772</v>
+        <v>26.33769614146441</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.58013402852494</v>
       </c>
       <c r="M25">
+        <v>13.59304822907704</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.98860220919189</v>
+        <v>11.302843959243</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.13420468674978</v>
+        <v>6.397789544556937</v>
       </c>
       <c r="E2">
-        <v>12.09607547827657</v>
+        <v>9.588484372292816</v>
       </c>
       <c r="F2">
-        <v>66.52260666179841</v>
+        <v>20.27163620710351</v>
       </c>
       <c r="G2">
-        <v>2.12678474937087</v>
+        <v>21.80122929188777</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.915317048223516</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.28148263893644</v>
       </c>
       <c r="J2">
-        <v>7.984895253136869</v>
+        <v>6.985686315105588</v>
       </c>
       <c r="K2">
-        <v>23.80165251297331</v>
+        <v>12.27112897615379</v>
       </c>
       <c r="L2">
-        <v>8.872565802398464</v>
+        <v>6.209936612361444</v>
       </c>
       <c r="M2">
-        <v>12.99081440086258</v>
+        <v>9.535573887765821</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.31217594267226</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.42860165615049</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.29162434962298</v>
+        <v>10.72351608982935</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.369222973305897</v>
+        <v>6.343103028702254</v>
       </c>
       <c r="E3">
-        <v>11.38010467095411</v>
+        <v>9.662451827549491</v>
       </c>
       <c r="F3">
-        <v>63.47543964363884</v>
+        <v>20.17370263996458</v>
       </c>
       <c r="G3">
-        <v>2.14440699668598</v>
+        <v>21.54510410789053</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.962356539229239</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.50967808399727</v>
       </c>
       <c r="J3">
-        <v>7.800227638806552</v>
+        <v>7.026118067555415</v>
       </c>
       <c r="K3">
-        <v>22.00324255777547</v>
+        <v>11.64942043262916</v>
       </c>
       <c r="L3">
-        <v>8.520679061438045</v>
+        <v>6.014050059488167</v>
       </c>
       <c r="M3">
-        <v>12.60266381183053</v>
+        <v>9.241996997648409</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.4684121326585</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.43522627528811</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.86622464451848</v>
+        <v>10.35404414815692</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.925610028217969</v>
+        <v>6.311622058308775</v>
       </c>
       <c r="E4">
-        <v>10.92842175797792</v>
+        <v>9.710431020086292</v>
       </c>
       <c r="F4">
-        <v>61.5976282611456</v>
+        <v>20.1270420893452</v>
       </c>
       <c r="G4">
-        <v>2.155361932258574</v>
+        <v>21.40585822214124</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.995521771623546</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.6568541115624</v>
       </c>
       <c r="J4">
-        <v>7.686445475655868</v>
+        <v>7.051886167654095</v>
       </c>
       <c r="K4">
-        <v>20.85674585483327</v>
+        <v>11.24926186076042</v>
       </c>
       <c r="L4">
-        <v>8.311183150855987</v>
+        <v>5.892115550130101</v>
       </c>
       <c r="M4">
-        <v>12.37400243105789</v>
+        <v>9.059401550375208</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.56710866456763</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14.44877987364601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69365105528549</v>
+        <v>10.20019575444273</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.745361589603023</v>
+        <v>6.299327055091358</v>
       </c>
       <c r="E5">
-        <v>10.74116773915613</v>
+        <v>9.730624310401721</v>
       </c>
       <c r="F5">
-        <v>60.83079665261272</v>
+        <v>20.11134814170291</v>
       </c>
       <c r="G5">
-        <v>2.159867842050293</v>
+        <v>21.3535894764634</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.010086726814642</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.71858196002713</v>
       </c>
       <c r="J5">
-        <v>7.639893433685198</v>
+        <v>7.062625575547993</v>
       </c>
       <c r="K5">
-        <v>20.4153840410571</v>
+        <v>11.08165862822693</v>
       </c>
       <c r="L5">
-        <v>8.227472596589335</v>
+        <v>5.84208082426567</v>
       </c>
       <c r="M5">
-        <v>12.28324381434268</v>
+        <v>8.984513679790174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.60803236832603</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>14.45661939727756</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.66504734001811</v>
+        <v>10.17445663122405</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.715247514914964</v>
+        <v>6.297317885395122</v>
       </c>
       <c r="E6">
-        <v>10.70987801510327</v>
+        <v>9.734016043645214</v>
       </c>
       <c r="F6">
-        <v>60.70337446610882</v>
+        <v>20.1089406636271</v>
       </c>
       <c r="G6">
-        <v>2.160618773419493</v>
+        <v>21.34517866138325</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.012567859200002</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.7289370177765</v>
       </c>
       <c r="J6">
-        <v>7.632150065442493</v>
+        <v>7.06442330974193</v>
       </c>
       <c r="K6">
-        <v>20.34914729886151</v>
+        <v>11.05355759185668</v>
       </c>
       <c r="L6">
-        <v>8.213673477808751</v>
+        <v>5.833753935164783</v>
       </c>
       <c r="M6">
-        <v>12.26831975026265</v>
+        <v>8.972053028174255</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.61487048305363</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>14.45805900962228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.86389388270545</v>
+        <v>10.35198234409562</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.923191452076477</v>
+        <v>6.311454074652686</v>
       </c>
       <c r="E7">
-        <v>10.92590947201418</v>
+        <v>9.710700760791834</v>
       </c>
       <c r="F7">
-        <v>61.58729273296137</v>
+        <v>20.12681708277777</v>
       </c>
       <c r="G7">
-        <v>2.155422522108744</v>
+        <v>21.40513527228588</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.995713984042752</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.6576795288929</v>
       </c>
       <c r="J7">
-        <v>7.685818511310667</v>
+        <v>7.052030034453045</v>
       </c>
       <c r="K7">
-        <v>20.85034176201976</v>
+        <v>11.24701972366167</v>
       </c>
       <c r="L7">
-        <v>8.310047449563672</v>
+        <v>5.891442064140545</v>
       </c>
       <c r="M7">
-        <v>12.37276861990303</v>
+        <v>9.058393374982231</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.5676577142704</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>14.44887631330695</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.74782548914302</v>
+        <v>11.10604383578005</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.87420428945692</v>
+        <v>6.378502656185052</v>
       </c>
       <c r="E8">
-        <v>11.85160885282129</v>
+        <v>9.613454501768995</v>
       </c>
       <c r="F8">
-        <v>65.47336892847683</v>
+        <v>20.23503443421298</v>
       </c>
       <c r="G8">
-        <v>2.132837907682616</v>
+        <v>21.70914961907027</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.930630813984958</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.35868352195564</v>
       </c>
       <c r="J8">
-        <v>7.921248473736456</v>
+        <v>6.999432476943353</v>
       </c>
       <c r="K8">
-        <v>23.19009882911186</v>
+        <v>12.06064119286149</v>
       </c>
       <c r="L8">
-        <v>8.749872232224863</v>
+        <v>6.142780774302368</v>
       </c>
       <c r="M8">
-        <v>12.85496495228645</v>
+        <v>9.434896960019325</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.36547697389829</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.42887576782464</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.497912674716</v>
+        <v>12.46932249684936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.68938802328568</v>
+        <v>6.52629077179202</v>
       </c>
       <c r="E9">
-        <v>13.58051507947968</v>
+        <v>9.443239525136971</v>
       </c>
       <c r="F9">
-        <v>73.04637950904022</v>
+        <v>20.55681786630821</v>
       </c>
       <c r="G9">
-        <v>2.089210533142932</v>
+        <v>22.44997699232476</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.838241794303038</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.82958187259594</v>
       </c>
       <c r="J9">
-        <v>8.384426206301786</v>
+        <v>6.903694754157217</v>
       </c>
       <c r="K9">
-        <v>27.46317723893592</v>
+        <v>13.50658968596381</v>
       </c>
       <c r="L9">
-        <v>9.992335087582857</v>
+        <v>6.619613699597883</v>
       </c>
       <c r="M9">
-        <v>13.87866735653179</v>
+        <v>10.15027552647036</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.9905672359557</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.46795375773565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.79385102518983</v>
+        <v>13.39394888200503</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.95620823961144</v>
+        <v>6.644312277587876</v>
       </c>
       <c r="E10">
-        <v>14.81559186753819</v>
+        <v>9.330895356954304</v>
       </c>
       <c r="F10">
-        <v>78.61091642556563</v>
+        <v>20.86325414002598</v>
       </c>
       <c r="G10">
-        <v>2.056877977848596</v>
+        <v>23.08378779941204</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.793636343705888</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.47758795690572</v>
       </c>
       <c r="J10">
-        <v>8.73365506787359</v>
+        <v>6.837763914908424</v>
       </c>
       <c r="K10">
-        <v>30.44630055863494</v>
+        <v>14.47441014403926</v>
       </c>
       <c r="L10">
-        <v>11.08421294572631</v>
+        <v>6.956724747464162</v>
       </c>
       <c r="M10">
-        <v>14.82700130501602</v>
+        <v>10.65659094599896</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.72771301774234</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.54844430379756</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.38719636860337</v>
+        <v>13.79689527357792</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.52297185560569</v>
+        <v>6.699932604011945</v>
       </c>
       <c r="E11">
-        <v>15.37527632815532</v>
+        <v>9.282603655199697</v>
       </c>
       <c r="F11">
-        <v>81.1558962654813</v>
+        <v>21.01842166596578</v>
       </c>
       <c r="G11">
-        <v>2.041913643040067</v>
+        <v>23.3915852002821</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.778802415468794</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.32591127131002</v>
       </c>
       <c r="J11">
-        <v>8.896843891925958</v>
+        <v>6.808703926244017</v>
       </c>
       <c r="K11">
-        <v>31.78012551887486</v>
+        <v>14.89373546641042</v>
       </c>
       <c r="L11">
-        <v>11.57232511640675</v>
+        <v>7.106605564280888</v>
       </c>
       <c r="M11">
-        <v>15.46104561837619</v>
+        <v>10.88179580336881</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.61074565962121</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.59713531962618</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.61269115987004</v>
+        <v>13.94688006817935</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.73674601097139</v>
+        <v>6.721261320920971</v>
       </c>
       <c r="E12">
-        <v>15.58750859490421</v>
+        <v>9.264726909646884</v>
       </c>
       <c r="F12">
-        <v>82.12327999422719</v>
+        <v>21.07948311699417</v>
       </c>
       <c r="G12">
-        <v>2.036189504668501</v>
+        <v>23.51092564067772</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.77400466394956</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.26973621412793</v>
       </c>
       <c r="J12">
-        <v>8.959520326067544</v>
+        <v>6.797831885079145</v>
       </c>
       <c r="K12">
-        <v>32.28302406016086</v>
+        <v>15.04948844486973</v>
       </c>
       <c r="L12">
-        <v>11.75637278651787</v>
+        <v>7.162818980930316</v>
       </c>
       <c r="M12">
-        <v>15.69954896310819</v>
+        <v>10.96627106951505</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.56681817440385</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.6173747327679</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.56408545299366</v>
+        <v>13.91469472241495</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.69073400991714</v>
+        <v>6.71665613025133</v>
       </c>
       <c r="E13">
-        <v>15.54177634180595</v>
+        <v>9.268558645331575</v>
       </c>
       <c r="F13">
-        <v>81.91474088472765</v>
+        <v>21.06622951745575</v>
       </c>
       <c r="G13">
-        <v>2.037425235677608</v>
+        <v>23.4851000518716</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.775000931689334</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.28177760339424</v>
       </c>
       <c r="J13">
-        <v>8.945977866127439</v>
+        <v>6.800167514994778</v>
       </c>
       <c r="K13">
-        <v>32.17479217974349</v>
+        <v>15.01607960668646</v>
       </c>
       <c r="L13">
-        <v>11.71676178755352</v>
+        <v>7.150737214115432</v>
       </c>
       <c r="M13">
-        <v>15.64824503134309</v>
+        <v>10.94811461477237</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.57626263687878</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.61293469908035</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.40572985224541</v>
+        <v>13.80928706711635</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.54057275044208</v>
+        <v>6.701682054991505</v>
       </c>
       <c r="E14">
-        <v>15.39272695595057</v>
+        <v>9.281124668305843</v>
       </c>
       <c r="F14">
-        <v>81.23539851049095</v>
+        <v>21.02339889293373</v>
       </c>
       <c r="G14">
-        <v>2.041444001455398</v>
+        <v>23.40134773028016</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.77839107394937</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.32126414333017</v>
       </c>
       <c r="J14">
-        <v>8.9019809654268</v>
+        <v>6.807806834332911</v>
       </c>
       <c r="K14">
-        <v>31.82153568800253</v>
+        <v>14.90661032471811</v>
       </c>
       <c r="L14">
-        <v>11.58747975277439</v>
+        <v>7.111241393851114</v>
       </c>
       <c r="M14">
-        <v>15.48069623153563</v>
+        <v>10.88876213031133</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.60712444705338</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.59876396744163</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.30884742847217</v>
+        <v>13.74438136629356</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.44850181516719</v>
+        <v>6.692544367985066</v>
       </c>
       <c r="E15">
-        <v>15.30148839031348</v>
+        <v>9.288875324300804</v>
       </c>
       <c r="F15">
-        <v>80.81981764304744</v>
+        <v>20.9974647532561</v>
       </c>
       <c r="G15">
-        <v>2.043897435563809</v>
+        <v>23.35040899056673</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.780575411618276</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.34561657108159</v>
       </c>
       <c r="J15">
-        <v>8.875155003798264</v>
+        <v>6.812503322237709</v>
       </c>
       <c r="K15">
-        <v>31.60490899614325</v>
+        <v>14.83916120238524</v>
       </c>
       <c r="L15">
-        <v>11.50820281053823</v>
+        <v>7.086977116641065</v>
       </c>
       <c r="M15">
-        <v>15.37787626064424</v>
+        <v>10.85230029771231</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.62607552048634</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.5903204338746</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.75517076518951</v>
+        <v>13.3672542465786</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.91901943543774</v>
+        <v>6.640715274520447</v>
       </c>
       <c r="E16">
-        <v>14.77901988924999</v>
+        <v>9.334108429576821</v>
       </c>
       <c r="F16">
-        <v>78.44500276351452</v>
+        <v>20.85343403655896</v>
       </c>
       <c r="G16">
-        <v>2.05784911578461</v>
+        <v>23.06406319650498</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.794718540320332</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.48767425549536</v>
       </c>
       <c r="J16">
-        <v>8.723098013942341</v>
+        <v>6.83968166707092</v>
       </c>
       <c r="K16">
-        <v>30.35875695469641</v>
+        <v>14.44658250737469</v>
       </c>
       <c r="L16">
-        <v>11.05217674572583</v>
+        <v>6.946855931369926</v>
       </c>
       <c r="M16">
-        <v>14.7853128836834</v>
+        <v>10.64176418986731</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.73540876590941</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.54551080813827</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.41663351253164</v>
+        <v>13.13132489331217</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.59209841694847</v>
+        <v>6.609406669295689</v>
       </c>
       <c r="E17">
-        <v>14.45833329829027</v>
+        <v>9.362582091477782</v>
       </c>
       <c r="F17">
-        <v>76.99266085186399</v>
+        <v>20.76914155660265</v>
       </c>
       <c r="G17">
-        <v>2.066329100410002</v>
+        <v>22.89337833956082</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.804817057873365</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.5770173155126</v>
       </c>
       <c r="J17">
-        <v>8.631088677916205</v>
+        <v>6.856592264615327</v>
       </c>
       <c r="K17">
-        <v>29.58907424059538</v>
+        <v>14.2003639099415</v>
       </c>
       <c r="L17">
-        <v>10.77050763813961</v>
+        <v>6.859973736343796</v>
       </c>
       <c r="M17">
-        <v>14.44527624001381</v>
+        <v>10.51124419839191</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.80314215718534</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.52116116600729</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.22225312601044</v>
+        <v>12.99396398238683</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.40312912765562</v>
+        <v>6.59158131664293</v>
       </c>
       <c r="E18">
-        <v>14.27363602812682</v>
+        <v>9.379223913496514</v>
       </c>
       <c r="F18">
-        <v>76.1584655706573</v>
+        <v>20.72214119456356</v>
       </c>
       <c r="G18">
-        <v>2.071183924069307</v>
+        <v>22.7970394580894</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.811136981185932</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.6291970509514</v>
       </c>
       <c r="J18">
-        <v>8.578555607871783</v>
+        <v>6.866406647157867</v>
       </c>
       <c r="K18">
-        <v>29.14410618726425</v>
+        <v>14.05677529307129</v>
       </c>
       <c r="L18">
-        <v>10.60765908925776</v>
+        <v>6.809676790638513</v>
       </c>
       <c r="M18">
-        <v>14.32392863916966</v>
+        <v>10.43569415076963</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.84234649625209</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.50828876463965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.15649119302898</v>
+        <v>12.94717283198708</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.33897300348477</v>
+        <v>6.585577645542856</v>
       </c>
       <c r="E19">
-        <v>14.21104229859076</v>
+        <v>9.38490381834688</v>
       </c>
       <c r="F19">
-        <v>75.87617668528085</v>
+        <v>20.70648111347932</v>
       </c>
       <c r="G19">
-        <v>2.072824353734918</v>
+        <v>22.7647361995871</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.813363610453017</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.64699888886919</v>
       </c>
       <c r="J19">
-        <v>8.560828583043763</v>
+        <v>6.869744769519897</v>
       </c>
       <c r="K19">
-        <v>28.99302749318041</v>
+        <v>14.00782118629295</v>
       </c>
       <c r="L19">
-        <v>10.55236505253982</v>
+        <v>6.792592784090957</v>
       </c>
       <c r="M19">
-        <v>14.28304754279292</v>
+        <v>10.4100342612014</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.85566292324537</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.50412295137733</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.45263497194826</v>
+        <v>13.15661232863585</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.62699284982475</v>
+        <v>6.612720713271868</v>
       </c>
       <c r="E20">
-        <v>14.49249258309499</v>
+        <v>9.359523605292623</v>
       </c>
       <c r="F20">
-        <v>77.14713524537754</v>
+        <v>20.77796093237401</v>
       </c>
       <c r="G20">
-        <v>2.065428869984546</v>
+        <v>22.91135825644351</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.803688864117669</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.56742430498557</v>
       </c>
       <c r="J20">
-        <v>8.640841364435783</v>
+        <v>6.854783022457248</v>
       </c>
       <c r="K20">
-        <v>29.6712354158528</v>
+        <v>14.22677841763099</v>
       </c>
       <c r="L20">
-        <v>10.80057580165146</v>
+        <v>6.869256424734862</v>
       </c>
       <c r="M20">
-        <v>14.46783383333354</v>
+        <v>10.52518830973594</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.79590644081575</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.52363550299689</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.45221813588606</v>
+        <v>13.84031889387475</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.58469699563466</v>
+        <v>6.706073162505966</v>
       </c>
       <c r="E21">
-        <v>15.43649288657335</v>
+        <v>9.277422541037781</v>
       </c>
       <c r="F21">
-        <v>81.43482228996317</v>
+        <v>21.03591653264224</v>
       </c>
       <c r="G21">
-        <v>2.040265340051109</v>
+        <v>23.4258724215614</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.777372782715021</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.30963134934357</v>
       </c>
       <c r="J21">
-        <v>8.914877648002397</v>
+        <v>6.805559402964382</v>
       </c>
       <c r="K21">
-        <v>31.92534469648349</v>
+        <v>14.93884667058344</v>
       </c>
       <c r="L21">
-        <v>11.62547041217208</v>
+        <v>7.122857337860985</v>
       </c>
       <c r="M21">
-        <v>15.5299482556969</v>
+        <v>10.9062177455913</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.59804973983432</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.60287686691776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.11042562823052</v>
+        <v>14.27197374350307</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.20600947174044</v>
+        <v>6.768632351231693</v>
       </c>
       <c r="E22">
-        <v>16.05555265053219</v>
+        <v>9.226159091396289</v>
       </c>
       <c r="F22">
-        <v>84.25960618917085</v>
+        <v>21.21794078521575</v>
       </c>
       <c r="G22">
-        <v>2.023471296308288</v>
+        <v>23.77835321468201</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.764967451610971</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.14852804337108</v>
       </c>
       <c r="J22">
-        <v>9.099277951911379</v>
+        <v>6.774159530923473</v>
       </c>
       <c r="K22">
-        <v>33.38650133424658</v>
+        <v>15.38652016199351</v>
       </c>
       <c r="L22">
-        <v>12.16026765481531</v>
+        <v>7.285417534135274</v>
       </c>
       <c r="M22">
-        <v>16.2218007645289</v>
+        <v>11.15052462590882</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.47086506362204</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.66519269557857</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.75855865202672</v>
+        <v>14.04299773768336</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.87461957788389</v>
+        <v>6.735105501224647</v>
       </c>
       <c r="E23">
-        <v>15.72471510851747</v>
+        <v>9.253298299864257</v>
       </c>
       <c r="F23">
-        <v>82.74918766751993</v>
+        <v>21.11955145433717</v>
       </c>
       <c r="G23">
-        <v>2.032474571999766</v>
+        <v>23.58875109309281</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.771138022436892</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.23381979901426</v>
       </c>
       <c r="J23">
-        <v>9.000271700947014</v>
+        <v>6.790848292537095</v>
       </c>
       <c r="K23">
-        <v>32.60730241401848</v>
+        <v>15.14921441637488</v>
       </c>
       <c r="L23">
-        <v>11.87505684739927</v>
+        <v>7.198960381136294</v>
       </c>
       <c r="M23">
-        <v>15.85317769477333</v>
+        <v>11.02058571173094</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.53855447325591</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.63094956521313</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.43635795386345</v>
+        <v>13.14518523792798</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.61122028550003</v>
+        <v>6.611221889978819</v>
       </c>
       <c r="E24">
-        <v>14.47705024254551</v>
+        <v>9.360905500298882</v>
       </c>
       <c r="F24">
-        <v>77.07729507680654</v>
+        <v>20.77396914618313</v>
       </c>
       <c r="G24">
-        <v>2.065835926307405</v>
+        <v>22.90322395906922</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.804197321669898</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.57175876930026</v>
       </c>
       <c r="J24">
-        <v>8.63643105873075</v>
+        <v>6.855600693354294</v>
       </c>
       <c r="K24">
-        <v>29.63409811617317</v>
+        <v>14.21484275298717</v>
       </c>
       <c r="L24">
-        <v>10.78698486168269</v>
+        <v>6.865060799422712</v>
       </c>
       <c r="M24">
-        <v>14.45763190134437</v>
+        <v>10.51888576760885</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.79917688671061</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.52251335128058</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.02293644465844</v>
+        <v>12.11364487623673</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.21150861678059</v>
+        <v>6.484612917019537</v>
       </c>
       <c r="E25">
-        <v>13.12049929912346</v>
+        <v>9.487072333158071</v>
       </c>
       <c r="F25">
-        <v>71.00081640190265</v>
+        <v>20.45767868954589</v>
       </c>
       <c r="G25">
-        <v>2.1010054264797</v>
+        <v>22.23388577583542</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.85928182673554</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.96641388782695</v>
       </c>
       <c r="J25">
-        <v>8.258233020712778</v>
+        <v>6.928812505260722</v>
       </c>
       <c r="K25">
-        <v>26.33769614146441</v>
+        <v>13.13183337950808</v>
       </c>
       <c r="L25">
-        <v>9.58013402852494</v>
+        <v>6.492712732654351</v>
       </c>
       <c r="M25">
-        <v>13.59304822907704</v>
+        <v>9.959781683606158</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.08973833646444</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.44857564508879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.302843959243</v>
+        <v>13.40779845954312</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.397789544556937</v>
+        <v>10.46174214695353</v>
       </c>
       <c r="E2">
-        <v>9.588484372292816</v>
+        <v>16.03317886736952</v>
       </c>
       <c r="F2">
-        <v>20.27163620710351</v>
+        <v>31.52211588303407</v>
       </c>
       <c r="G2">
-        <v>21.80122929188777</v>
+        <v>31.15315849066681</v>
       </c>
       <c r="H2">
-        <v>8.915317048223516</v>
+        <v>14.99467126253498</v>
       </c>
       <c r="I2">
-        <v>16.28148263893644</v>
+        <v>26.7547578819472</v>
       </c>
       <c r="J2">
-        <v>6.985686315105588</v>
+        <v>11.41113510158284</v>
       </c>
       <c r="K2">
-        <v>12.27112897615379</v>
+        <v>8.574258142907363</v>
       </c>
       <c r="L2">
-        <v>6.209936612361444</v>
+        <v>9.393925519460577</v>
       </c>
       <c r="M2">
-        <v>9.535573887765821</v>
+        <v>14.45150249074237</v>
       </c>
       <c r="N2">
-        <v>13.31217594267226</v>
+        <v>20.2926044772611</v>
       </c>
       <c r="O2">
-        <v>14.42860165615049</v>
+        <v>23.12349415907035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.72351608982935</v>
+        <v>13.29510081750062</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.343103028702254</v>
+        <v>10.47253772403793</v>
       </c>
       <c r="E3">
-        <v>9.662451827549491</v>
+        <v>16.06910585303083</v>
       </c>
       <c r="F3">
-        <v>20.17370263996458</v>
+        <v>31.59537262430561</v>
       </c>
       <c r="G3">
-        <v>21.54510410789053</v>
+        <v>31.21701388903059</v>
       </c>
       <c r="H3">
-        <v>8.962356539229239</v>
+        <v>15.03413146974096</v>
       </c>
       <c r="I3">
-        <v>16.50967808399727</v>
+        <v>26.85156005304958</v>
       </c>
       <c r="J3">
-        <v>7.026118067555415</v>
+        <v>11.42692813526894</v>
       </c>
       <c r="K3">
-        <v>11.64942043262916</v>
+        <v>8.276626970665966</v>
       </c>
       <c r="L3">
-        <v>6.014050059488167</v>
+        <v>9.373255466259886</v>
       </c>
       <c r="M3">
-        <v>9.241996997648409</v>
+        <v>14.42099030664209</v>
       </c>
       <c r="N3">
-        <v>13.4684121326585</v>
+        <v>20.34354738156455</v>
       </c>
       <c r="O3">
-        <v>14.43522627528811</v>
+        <v>23.18689182409732</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.35404414815692</v>
+        <v>13.22735689591754</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.311622058308775</v>
+        <v>10.48039693836186</v>
       </c>
       <c r="E4">
-        <v>9.710431020086292</v>
+        <v>16.09253053376818</v>
       </c>
       <c r="F4">
-        <v>20.1270420893452</v>
+        <v>31.64617199250318</v>
       </c>
       <c r="G4">
-        <v>21.40585822214124</v>
+        <v>31.26392623049429</v>
       </c>
       <c r="H4">
-        <v>8.995521771623546</v>
+        <v>15.06028085738942</v>
       </c>
       <c r="I4">
-        <v>16.6568541115624</v>
+        <v>26.91454005720088</v>
       </c>
       <c r="J4">
-        <v>7.051886167654095</v>
+        <v>11.43715669855246</v>
       </c>
       <c r="K4">
-        <v>11.24926186076042</v>
+        <v>8.086721615987148</v>
       </c>
       <c r="L4">
-        <v>5.892115550130101</v>
+        <v>9.361557164497002</v>
       </c>
       <c r="M4">
-        <v>9.059401550375208</v>
+        <v>14.40380511331256</v>
       </c>
       <c r="N4">
-        <v>13.56710866456763</v>
+        <v>20.37640830752763</v>
       </c>
       <c r="O4">
-        <v>14.44877987364601</v>
+        <v>23.22973938332125</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.20019575444273</v>
+        <v>13.20014124732838</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.299327055091358</v>
+        <v>10.48390974142248</v>
       </c>
       <c r="E5">
-        <v>9.730624310401721</v>
+        <v>16.10242040773261</v>
       </c>
       <c r="F5">
-        <v>20.11134814170291</v>
+        <v>31.66833566556065</v>
       </c>
       <c r="G5">
-        <v>21.3535894764634</v>
+        <v>31.2849772805979</v>
       </c>
       <c r="H5">
-        <v>9.010086726814642</v>
+        <v>15.07142032324328</v>
       </c>
       <c r="I5">
-        <v>16.71858196002713</v>
+        <v>26.94109731006498</v>
       </c>
       <c r="J5">
-        <v>7.062625575547993</v>
+        <v>11.44145895438658</v>
       </c>
       <c r="K5">
-        <v>11.08165862822693</v>
+        <v>8.007605867148726</v>
       </c>
       <c r="L5">
-        <v>5.84208082426567</v>
+        <v>9.357042860947121</v>
       </c>
       <c r="M5">
-        <v>8.984513679790174</v>
+        <v>14.39719635272134</v>
       </c>
       <c r="N5">
-        <v>13.60803236832603</v>
+        <v>20.3901981831693</v>
       </c>
       <c r="O5">
-        <v>14.45661939727756</v>
+        <v>23.24818571805644</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.17445663122405</v>
+        <v>13.19564642169039</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.297317885395122</v>
+        <v>10.48451178762443</v>
       </c>
       <c r="E6">
-        <v>9.734016043645214</v>
+        <v>16.10408342155223</v>
       </c>
       <c r="F6">
-        <v>20.1089406636271</v>
+        <v>31.67210423148457</v>
       </c>
       <c r="G6">
-        <v>21.34517866138325</v>
+        <v>31.28858947843184</v>
       </c>
       <c r="H6">
-        <v>9.012567859200002</v>
+        <v>15.07329923000172</v>
       </c>
       <c r="I6">
-        <v>16.7289370177765</v>
+        <v>26.94556106289427</v>
       </c>
       <c r="J6">
-        <v>7.06442330974193</v>
+        <v>11.44218144668757</v>
       </c>
       <c r="K6">
-        <v>11.05355759185668</v>
+        <v>7.99436667637716</v>
       </c>
       <c r="L6">
-        <v>5.833753935164783</v>
+        <v>9.356308623287326</v>
       </c>
       <c r="M6">
-        <v>8.972053028174255</v>
+        <v>14.39612292410847</v>
       </c>
       <c r="N6">
-        <v>13.61487048305363</v>
+        <v>20.39251209733901</v>
       </c>
       <c r="O6">
-        <v>14.45805900962228</v>
+        <v>23.2513082335729</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.35198234409562</v>
+        <v>13.22698824202055</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.311454074652686</v>
+        <v>10.48044305679922</v>
       </c>
       <c r="E7">
-        <v>9.710700760791834</v>
+        <v>16.09266251764611</v>
       </c>
       <c r="F7">
-        <v>20.12681708277777</v>
+        <v>31.64646497908273</v>
       </c>
       <c r="G7">
-        <v>21.40513527228588</v>
+        <v>31.26420230719314</v>
       </c>
       <c r="H7">
-        <v>8.995713984042752</v>
+        <v>15.06042913039447</v>
       </c>
       <c r="I7">
-        <v>16.6576795288929</v>
+        <v>26.91489460239628</v>
       </c>
       <c r="J7">
-        <v>7.052030034453045</v>
+        <v>11.4372141770963</v>
       </c>
       <c r="K7">
-        <v>11.24701972366167</v>
+        <v>8.085661527550576</v>
       </c>
       <c r="L7">
-        <v>5.891442064140545</v>
+        <v>9.361495255262771</v>
       </c>
       <c r="M7">
-        <v>9.058393374982231</v>
+        <v>14.40371438249223</v>
       </c>
       <c r="N7">
-        <v>13.5676577142704</v>
+        <v>20.37659266658725</v>
       </c>
       <c r="O7">
-        <v>14.44887631330695</v>
+        <v>23.22998416691572</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.10604383578005</v>
+        <v>13.36865407829155</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.378502656185052</v>
+        <v>10.4652094290529</v>
       </c>
       <c r="E8">
-        <v>9.613454501768995</v>
+        <v>16.04528358827726</v>
       </c>
       <c r="F8">
-        <v>20.23503443421298</v>
+        <v>31.54616653866376</v>
       </c>
       <c r="G8">
-        <v>21.70914961907027</v>
+        <v>31.17357471080163</v>
       </c>
       <c r="H8">
-        <v>8.930630813984958</v>
+        <v>15.00787875813339</v>
       </c>
       <c r="I8">
-        <v>16.35868352195564</v>
+        <v>26.78740077930549</v>
       </c>
       <c r="J8">
-        <v>6.999432476943353</v>
+        <v>11.41647043031598</v>
       </c>
       <c r="K8">
-        <v>12.06064119286149</v>
+        <v>8.473161597681793</v>
       </c>
       <c r="L8">
-        <v>6.142780774302368</v>
+        <v>9.386594253554319</v>
       </c>
       <c r="M8">
-        <v>9.434896960019325</v>
+        <v>14.44066321653548</v>
       </c>
       <c r="N8">
-        <v>13.36547697389829</v>
+        <v>20.30984191510792</v>
       </c>
       <c r="O8">
-        <v>14.42887576782464</v>
+        <v>23.14453962010745</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.46932249684936</v>
+        <v>13.65685409166914</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.52629077179202</v>
+        <v>10.44507215192333</v>
       </c>
       <c r="E9">
-        <v>9.443239525136971</v>
+        <v>15.96317128528461</v>
       </c>
       <c r="F9">
-        <v>20.55681786630821</v>
+        <v>31.39568768790399</v>
       </c>
       <c r="G9">
-        <v>22.44997699232476</v>
+        <v>31.05712551020118</v>
       </c>
       <c r="H9">
-        <v>8.838241794303038</v>
+        <v>14.92004874970462</v>
       </c>
       <c r="I9">
-        <v>15.82958187259594</v>
+        <v>26.56543217285943</v>
       </c>
       <c r="J9">
-        <v>6.903694754157217</v>
+        <v>11.3799931985196</v>
       </c>
       <c r="K9">
-        <v>13.50658968596381</v>
+        <v>9.173468952657696</v>
       </c>
       <c r="L9">
-        <v>6.619613699597883</v>
+        <v>9.443551959452462</v>
       </c>
       <c r="M9">
-        <v>10.15027552647036</v>
+        <v>14.52519722411023</v>
       </c>
       <c r="N9">
-        <v>12.9905672359557</v>
+        <v>20.19144704929682</v>
       </c>
       <c r="O9">
-        <v>14.46795375773565</v>
+        <v>23.00811191711018</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.39394888200503</v>
+        <v>13.87338241270431</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.644312277587876</v>
+        <v>10.43617206839235</v>
       </c>
       <c r="E10">
-        <v>9.330895356954304</v>
+        <v>15.90937602199367</v>
       </c>
       <c r="F10">
-        <v>20.86325414002598</v>
+        <v>31.31333408503228</v>
       </c>
       <c r="G10">
-        <v>23.08378779941204</v>
+        <v>31.00907536494671</v>
       </c>
       <c r="H10">
-        <v>8.793636343705888</v>
+        <v>14.86477385489337</v>
       </c>
       <c r="I10">
-        <v>15.47758795690572</v>
+        <v>26.41935679971628</v>
       </c>
       <c r="J10">
-        <v>6.837763914908424</v>
+        <v>11.35573122600899</v>
       </c>
       <c r="K10">
-        <v>14.47441014403926</v>
+        <v>9.648457909572477</v>
       </c>
       <c r="L10">
-        <v>6.956724747464162</v>
+        <v>9.489918275329416</v>
       </c>
       <c r="M10">
-        <v>10.65659094599896</v>
+        <v>14.59436488130516</v>
       </c>
       <c r="N10">
-        <v>12.72771301774234</v>
+        <v>20.11201736541618</v>
       </c>
       <c r="O10">
-        <v>14.54844430379756</v>
+        <v>22.9268756473842</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.79689527357792</v>
+        <v>13.97259172023152</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.699932604011945</v>
+        <v>10.43339377407858</v>
       </c>
       <c r="E11">
-        <v>9.282603655199697</v>
+        <v>15.88631111794388</v>
       </c>
       <c r="F11">
-        <v>21.01842166596578</v>
+        <v>31.28199681369297</v>
       </c>
       <c r="G11">
-        <v>23.3915852002821</v>
+        <v>30.99537938604703</v>
       </c>
       <c r="H11">
-        <v>8.778802415468794</v>
+        <v>14.84163185961329</v>
       </c>
       <c r="I11">
-        <v>15.32591127131002</v>
+        <v>26.35657640285476</v>
       </c>
       <c r="J11">
-        <v>6.808703926244017</v>
+        <v>11.34523994697733</v>
       </c>
       <c r="K11">
-        <v>14.89373546641042</v>
+        <v>9.855414702079802</v>
       </c>
       <c r="L11">
-        <v>7.106605564280888</v>
+        <v>9.511947622993832</v>
       </c>
       <c r="M11">
-        <v>10.88179580336881</v>
+        <v>14.62729518061373</v>
       </c>
       <c r="N11">
-        <v>12.61074565962121</v>
+        <v>20.07750898833955</v>
       </c>
       <c r="O11">
-        <v>14.59713531962618</v>
+        <v>22.89404745564746</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.94688006817935</v>
+        <v>14.01023351561092</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.721261320920971</v>
+        <v>10.4325235124812</v>
       </c>
       <c r="E12">
-        <v>9.264726909646884</v>
+        <v>15.87777854208984</v>
       </c>
       <c r="F12">
-        <v>21.07948311699417</v>
+        <v>31.27101097872561</v>
       </c>
       <c r="G12">
-        <v>23.51092564067772</v>
+        <v>30.9913671832078</v>
       </c>
       <c r="H12">
-        <v>8.77400466394956</v>
+        <v>14.83315618592787</v>
       </c>
       <c r="I12">
-        <v>15.26973621412793</v>
+        <v>26.33332946293747</v>
       </c>
       <c r="J12">
-        <v>6.797831885079145</v>
+        <v>11.3413452595298</v>
       </c>
       <c r="K12">
-        <v>15.04948844486973</v>
+        <v>9.932434820784167</v>
       </c>
       <c r="L12">
-        <v>7.162818980930316</v>
+        <v>9.520420227576427</v>
       </c>
       <c r="M12">
-        <v>10.96627106951505</v>
+        <v>14.63996955023038</v>
       </c>
       <c r="N12">
-        <v>12.56681817440385</v>
+        <v>20.06467413058927</v>
       </c>
       <c r="O12">
-        <v>14.6173747327679</v>
+        <v>22.88220985174397</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.91469472241495</v>
+        <v>14.00212387222861</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.71665613025133</v>
+        <v>10.43270286672417</v>
       </c>
       <c r="E13">
-        <v>9.268558645331575</v>
+        <v>15.8796072296729</v>
       </c>
       <c r="F13">
-        <v>21.06622951745575</v>
+        <v>31.27333779826321</v>
       </c>
       <c r="G13">
-        <v>23.4851000518716</v>
+        <v>30.99217906218985</v>
       </c>
       <c r="H13">
-        <v>8.775000931689334</v>
+        <v>14.8349687833933</v>
       </c>
       <c r="I13">
-        <v>15.28177760339424</v>
+        <v>26.33831270259541</v>
       </c>
       <c r="J13">
-        <v>6.800167514994778</v>
+        <v>11.34218058036982</v>
       </c>
       <c r="K13">
-        <v>15.01607960668646</v>
+        <v>9.915907760810766</v>
       </c>
       <c r="L13">
-        <v>7.150737214115432</v>
+        <v>9.518589761518053</v>
       </c>
       <c r="M13">
-        <v>10.94811461477237</v>
+        <v>14.63723091169379</v>
       </c>
       <c r="N13">
-        <v>12.57626263687878</v>
+        <v>20.0674280109216</v>
       </c>
       <c r="O13">
-        <v>14.61293469908035</v>
+        <v>22.88473288139105</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.80928706711635</v>
+        <v>13.9756872262287</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.701682054991505</v>
+        <v>10.43331853833703</v>
       </c>
       <c r="E14">
-        <v>9.281124668305843</v>
+        <v>15.88560510134572</v>
       </c>
       <c r="F14">
-        <v>21.02339889293373</v>
+        <v>31.28107534838719</v>
       </c>
       <c r="G14">
-        <v>23.40134773028016</v>
+        <v>30.99502576769967</v>
       </c>
       <c r="H14">
-        <v>8.77839107394937</v>
+        <v>14.84092879671644</v>
       </c>
       <c r="I14">
-        <v>15.32126414333017</v>
+        <v>26.35465331485027</v>
       </c>
       <c r="J14">
-        <v>6.807806834332911</v>
+        <v>11.34491796466892</v>
       </c>
       <c r="K14">
-        <v>14.90661032471811</v>
+        <v>9.861778451761225</v>
       </c>
       <c r="L14">
-        <v>7.111241393851114</v>
+        <v>9.51264207691047</v>
       </c>
       <c r="M14">
-        <v>10.88876213031133</v>
+        <v>14.62833384976019</v>
       </c>
       <c r="N14">
-        <v>12.60712444705338</v>
+        <v>20.07644839799612</v>
       </c>
       <c r="O14">
-        <v>14.59876396744163</v>
+        <v>22.89306166824899</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.74438136629356</v>
+        <v>13.95950272620298</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.692544367985066</v>
+        <v>10.43371930664891</v>
       </c>
       <c r="E15">
-        <v>9.288875324300804</v>
+        <v>15.88930520496696</v>
       </c>
       <c r="F15">
-        <v>20.9974647532561</v>
+        <v>31.28592953844246</v>
       </c>
       <c r="G15">
-        <v>23.35040899056673</v>
+        <v>30.99692236895917</v>
       </c>
       <c r="H15">
-        <v>8.780575411618276</v>
+        <v>14.84461693454016</v>
       </c>
       <c r="I15">
-        <v>15.34561657108159</v>
+        <v>26.3647309624777</v>
       </c>
       <c r="J15">
-        <v>6.812503322237709</v>
+        <v>11.34660485708205</v>
       </c>
       <c r="K15">
-        <v>14.83916120238524</v>
+        <v>9.828445825024565</v>
       </c>
       <c r="L15">
-        <v>7.086977116641065</v>
+        <v>9.509015825844807</v>
       </c>
       <c r="M15">
-        <v>10.85230029771231</v>
+        <v>14.62291056620104</v>
       </c>
       <c r="N15">
-        <v>12.62607552048634</v>
+        <v>20.08200392556299</v>
       </c>
       <c r="O15">
-        <v>14.5903204338746</v>
+        <v>22.89824061878054</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.3672542465786</v>
+        <v>13.8669106770536</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.640715274520447</v>
+        <v>10.43637912736185</v>
       </c>
       <c r="E16">
-        <v>9.334108429576821</v>
+        <v>15.91091161693985</v>
       </c>
       <c r="F16">
-        <v>20.85343403655896</v>
+        <v>31.31550532386371</v>
       </c>
       <c r="G16">
-        <v>23.06406319650498</v>
+        <v>31.01013472953628</v>
       </c>
       <c r="H16">
-        <v>8.794718540320332</v>
+        <v>14.86632651461308</v>
       </c>
       <c r="I16">
-        <v>15.48767425549536</v>
+        <v>26.4235334009158</v>
       </c>
       <c r="J16">
-        <v>6.83968166707092</v>
+        <v>11.35642780694225</v>
       </c>
       <c r="K16">
-        <v>14.44658250737469</v>
+        <v>9.63474588419589</v>
       </c>
       <c r="L16">
-        <v>6.946855931369926</v>
+        <v>9.488497107673078</v>
       </c>
       <c r="M16">
-        <v>10.64176418986731</v>
+        <v>14.59224176036845</v>
       </c>
       <c r="N16">
-        <v>12.73540876590941</v>
+        <v>20.11430518280522</v>
       </c>
       <c r="O16">
-        <v>14.54551080813827</v>
+        <v>22.92910411364734</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.13132489331217</v>
+        <v>13.81026976243564</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.609406669295689</v>
+        <v>10.43833562097937</v>
       </c>
       <c r="E17">
-        <v>9.362582091477782</v>
+        <v>15.92452627525645</v>
       </c>
       <c r="F17">
-        <v>20.76914155660265</v>
+        <v>31.33521816822098</v>
       </c>
       <c r="G17">
-        <v>22.89337833956082</v>
+        <v>31.02033118297945</v>
       </c>
       <c r="H17">
-        <v>8.804817057873365</v>
+        <v>14.88015739436725</v>
       </c>
       <c r="I17">
-        <v>15.5770173155126</v>
+        <v>26.46054597360138</v>
       </c>
       <c r="J17">
-        <v>6.856592264615327</v>
+        <v>11.36259338010849</v>
       </c>
       <c r="K17">
-        <v>14.2003639099415</v>
+        <v>9.513552623281431</v>
       </c>
       <c r="L17">
-        <v>6.859973736343796</v>
+        <v>9.47614661482225</v>
       </c>
       <c r="M17">
-        <v>10.51124419839191</v>
+        <v>14.57379834717744</v>
       </c>
       <c r="N17">
-        <v>12.80314215718534</v>
+        <v>20.13453641047105</v>
       </c>
       <c r="O17">
-        <v>14.52116116600729</v>
+        <v>22.9490950394486</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.99396398238683</v>
+        <v>13.77775989753622</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.59158131664293</v>
+        <v>10.43958057486902</v>
       </c>
       <c r="E18">
-        <v>9.379223913496514</v>
+        <v>15.93248952552607</v>
       </c>
       <c r="F18">
-        <v>20.72214119456356</v>
+        <v>31.34713307699113</v>
       </c>
       <c r="G18">
-        <v>22.7970394580894</v>
+        <v>31.02696420417249</v>
       </c>
       <c r="H18">
-        <v>8.811136981185932</v>
+        <v>14.88830108508672</v>
       </c>
       <c r="I18">
-        <v>15.6291970509514</v>
+        <v>26.4821801310228</v>
       </c>
       <c r="J18">
-        <v>6.866406647157867</v>
+        <v>11.36619102981164</v>
       </c>
       <c r="K18">
-        <v>14.05677529307129</v>
+        <v>9.442989193165902</v>
       </c>
       <c r="L18">
-        <v>6.809676790638513</v>
+        <v>9.469131399294314</v>
       </c>
       <c r="M18">
-        <v>10.43569415076963</v>
+        <v>14.56332852611882</v>
       </c>
       <c r="N18">
-        <v>12.84234649625209</v>
+        <v>20.14632584400263</v>
       </c>
       <c r="O18">
-        <v>14.50828876463965</v>
+        <v>22.96098169128469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.94717283198708</v>
+        <v>13.76676525366535</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.585577645542856</v>
+        <v>10.44002266706519</v>
       </c>
       <c r="E19">
-        <v>9.38490381834688</v>
+        <v>15.93520851655541</v>
       </c>
       <c r="F19">
-        <v>20.70648111347932</v>
+        <v>31.35126628761854</v>
       </c>
       <c r="G19">
-        <v>22.7647361995871</v>
+        <v>31.02934196054901</v>
       </c>
       <c r="H19">
-        <v>8.813363610453017</v>
+        <v>14.89109078913556</v>
       </c>
       <c r="I19">
-        <v>15.64699888886919</v>
+        <v>26.48956446006463</v>
       </c>
       <c r="J19">
-        <v>6.869744769519897</v>
+        <v>11.3674179659009</v>
       </c>
       <c r="K19">
-        <v>14.00782118629295</v>
+        <v>9.418951830329309</v>
       </c>
       <c r="L19">
-        <v>6.792592784090957</v>
+        <v>9.466771486356789</v>
       </c>
       <c r="M19">
-        <v>10.4100342612014</v>
+        <v>14.55980757571636</v>
       </c>
       <c r="N19">
-        <v>12.85566292324537</v>
+        <v>20.15034384331513</v>
       </c>
       <c r="O19">
-        <v>14.50412295137733</v>
+        <v>22.96507300446946</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.15661232863585</v>
+        <v>13.81629240375517</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.612720713271868</v>
+        <v>10.438114973701</v>
       </c>
       <c r="E20">
-        <v>9.359523605292623</v>
+        <v>15.92306326772234</v>
       </c>
       <c r="F20">
-        <v>20.77796093237401</v>
+        <v>31.33306002518612</v>
       </c>
       <c r="G20">
-        <v>22.91135825644351</v>
+        <v>31.01916623237903</v>
       </c>
       <c r="H20">
-        <v>8.803688864117669</v>
+        <v>14.87866556320863</v>
       </c>
       <c r="I20">
-        <v>15.56742430498557</v>
+        <v>26.45657017177104</v>
       </c>
       <c r="J20">
-        <v>6.854783022457248</v>
+        <v>11.36193172956707</v>
       </c>
       <c r="K20">
-        <v>14.22677841763099</v>
+        <v>9.526542771076418</v>
       </c>
       <c r="L20">
-        <v>6.869256424734862</v>
+        <v>9.477452220320629</v>
       </c>
       <c r="M20">
-        <v>10.52518830973594</v>
+        <v>14.57574740756283</v>
       </c>
       <c r="N20">
-        <v>12.79590644081575</v>
+        <v>20.13236693683221</v>
       </c>
       <c r="O20">
-        <v>14.52363550299689</v>
+        <v>22.94692677076464</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.84031889387475</v>
+        <v>13.98345054594208</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.706073162505966</v>
+        <v>10.43313277328087</v>
       </c>
       <c r="E21">
-        <v>9.277422541037781</v>
+        <v>15.88383791513194</v>
       </c>
       <c r="F21">
-        <v>21.03591653264224</v>
+        <v>31.27877873568516</v>
       </c>
       <c r="G21">
-        <v>23.4258724215614</v>
+        <v>30.99415775481172</v>
       </c>
       <c r="H21">
-        <v>8.777372782715021</v>
+        <v>14.83917039075911</v>
       </c>
       <c r="I21">
-        <v>15.30963134934357</v>
+        <v>26.34983939694888</v>
       </c>
       <c r="J21">
-        <v>6.805559402964382</v>
+        <v>11.34411181064459</v>
       </c>
       <c r="K21">
-        <v>14.93884667058344</v>
+        <v>9.877714461803382</v>
       </c>
       <c r="L21">
-        <v>7.122857337860985</v>
+        <v>9.514385546448725</v>
       </c>
       <c r="M21">
-        <v>10.9062177455913</v>
+        <v>14.6309416374783</v>
       </c>
       <c r="N21">
-        <v>12.59804973983432</v>
+        <v>20.07379258291029</v>
       </c>
       <c r="O21">
-        <v>14.60287686691776</v>
+        <v>22.89059918608595</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.27197374350307</v>
+        <v>14.09311262966553</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.768632351231693</v>
+        <v>10.43093595916552</v>
       </c>
       <c r="E22">
-        <v>9.226159091396289</v>
+        <v>15.85937665582343</v>
       </c>
       <c r="F22">
-        <v>21.21794078521575</v>
+        <v>31.2484372333267</v>
       </c>
       <c r="G22">
-        <v>23.77835321468201</v>
+        <v>30.98465690204811</v>
       </c>
       <c r="H22">
-        <v>8.764967451610971</v>
+        <v>14.8150347901948</v>
       </c>
       <c r="I22">
-        <v>15.14852804337108</v>
+        <v>26.28315379581491</v>
       </c>
       <c r="J22">
-        <v>6.774159530923473</v>
+        <v>11.33292072868492</v>
       </c>
       <c r="K22">
-        <v>15.38652016199351</v>
+        <v>10.09934262427397</v>
       </c>
       <c r="L22">
-        <v>7.285417534135274</v>
+        <v>9.539282631815523</v>
       </c>
       <c r="M22">
-        <v>11.15052462590882</v>
+        <v>14.66820244408577</v>
       </c>
       <c r="N22">
-        <v>12.47086506362204</v>
+        <v>20.03686689395047</v>
       </c>
       <c r="O22">
-        <v>14.66519269557857</v>
+        <v>22.85724660229077</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.04299773768336</v>
+        <v>14.03455539842769</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.735105501224647</v>
+        <v>10.43201180766496</v>
       </c>
       <c r="E23">
-        <v>9.253298299864257</v>
+        <v>15.87232482692726</v>
       </c>
       <c r="F23">
-        <v>21.11955145433717</v>
+        <v>31.26416131369306</v>
       </c>
       <c r="G23">
-        <v>23.58875109309281</v>
+        <v>30.98910153568986</v>
       </c>
       <c r="H23">
-        <v>8.771138022436892</v>
+        <v>14.8277630913404</v>
       </c>
       <c r="I23">
-        <v>15.23381979901426</v>
+        <v>26.31846469013222</v>
       </c>
       <c r="J23">
-        <v>6.790848292537095</v>
+        <v>11.33885206997446</v>
       </c>
       <c r="K23">
-        <v>15.14921441637488</v>
+        <v>9.981788272993574</v>
       </c>
       <c r="L23">
-        <v>7.198960381136294</v>
+        <v>9.525926554063304</v>
       </c>
       <c r="M23">
-        <v>11.02058571173094</v>
+        <v>14.64820908757819</v>
       </c>
       <c r="N23">
-        <v>12.53855447325591</v>
+        <v>20.05645104498788</v>
       </c>
       <c r="O23">
-        <v>14.63094956521313</v>
+        <v>22.87473075871996</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.14518523792798</v>
+        <v>13.81356939800448</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.611221889978819</v>
+        <v>10.43821435406227</v>
       </c>
       <c r="E24">
-        <v>9.360905500298882</v>
+        <v>15.92372426975633</v>
       </c>
       <c r="F24">
-        <v>20.77396914618313</v>
+        <v>31.3340339096249</v>
       </c>
       <c r="G24">
-        <v>22.90322395906922</v>
+        <v>31.01969050517333</v>
       </c>
       <c r="H24">
-        <v>8.804197321669898</v>
+        <v>14.87933942157109</v>
       </c>
       <c r="I24">
-        <v>15.57175876930026</v>
+        <v>26.45836652548116</v>
       </c>
       <c r="J24">
-        <v>6.855600693354294</v>
+        <v>11.36223069672964</v>
       </c>
       <c r="K24">
-        <v>14.21484275298717</v>
+        <v>9.520672687616333</v>
       </c>
       <c r="L24">
-        <v>6.865060799422712</v>
+        <v>9.47686169022356</v>
       </c>
       <c r="M24">
-        <v>10.51888576760885</v>
+        <v>14.57486582091257</v>
       </c>
       <c r="N24">
-        <v>12.79917688671061</v>
+        <v>20.13334726291828</v>
       </c>
       <c r="O24">
-        <v>14.52251335128058</v>
+        <v>22.94790581902551</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.11364487623673</v>
+        <v>13.57793424384209</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.484612917019537</v>
+        <v>10.44948153796386</v>
       </c>
       <c r="E25">
-        <v>9.487072333158071</v>
+        <v>15.98423406044215</v>
       </c>
       <c r="F25">
-        <v>20.45767868954589</v>
+        <v>31.43144511671708</v>
       </c>
       <c r="G25">
-        <v>22.23388577583542</v>
+        <v>31.0820502881373</v>
       </c>
       <c r="H25">
-        <v>8.85928182673554</v>
+        <v>14.94218218928278</v>
       </c>
       <c r="I25">
-        <v>15.96641388782695</v>
+        <v>26.62248770879532</v>
       </c>
       <c r="J25">
-        <v>6.928812505260722</v>
+        <v>11.38941391073557</v>
       </c>
       <c r="K25">
-        <v>13.13183337950808</v>
+        <v>8.990753138861526</v>
       </c>
       <c r="L25">
-        <v>6.492712732654351</v>
+        <v>9.427334757930387</v>
       </c>
       <c r="M25">
-        <v>9.959781683606158</v>
+        <v>14.50106582213639</v>
       </c>
       <c r="N25">
-        <v>13.08973833646444</v>
+        <v>20.22214444361843</v>
       </c>
       <c r="O25">
-        <v>14.44857564508879</v>
+        <v>23.04168434402805</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.40779845954312</v>
+        <v>11.30284395924296</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.46174214695353</v>
+        <v>6.397789544556856</v>
       </c>
       <c r="E2">
-        <v>16.03317886736952</v>
+        <v>9.588484372292816</v>
       </c>
       <c r="F2">
-        <v>31.52211588303407</v>
+        <v>20.27163620710354</v>
       </c>
       <c r="G2">
-        <v>31.15315849066681</v>
+        <v>21.80122929188784</v>
       </c>
       <c r="H2">
-        <v>14.99467126253498</v>
+        <v>8.915317048223512</v>
       </c>
       <c r="I2">
-        <v>26.7547578819472</v>
+        <v>16.28148263893643</v>
       </c>
       <c r="J2">
-        <v>11.41113510158284</v>
+        <v>6.98568631510552</v>
       </c>
       <c r="K2">
-        <v>8.574258142907363</v>
+        <v>12.27112897615376</v>
       </c>
       <c r="L2">
-        <v>9.393925519460577</v>
+        <v>6.209936612361482</v>
       </c>
       <c r="M2">
-        <v>14.45150249074237</v>
+        <v>9.535573887765841</v>
       </c>
       <c r="N2">
-        <v>20.2926044772611</v>
+        <v>13.31217594267227</v>
       </c>
       <c r="O2">
-        <v>23.12349415907035</v>
+        <v>14.42860165615054</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.29510081750062</v>
+        <v>10.72351608982939</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.47253772403793</v>
+        <v>6.343103028702135</v>
       </c>
       <c r="E3">
-        <v>16.06910585303083</v>
+        <v>9.662451827549491</v>
       </c>
       <c r="F3">
-        <v>31.59537262430561</v>
+        <v>20.17370263996452</v>
       </c>
       <c r="G3">
-        <v>31.21701388903059</v>
+        <v>21.54510410789064</v>
       </c>
       <c r="H3">
-        <v>15.03413146974096</v>
+        <v>8.962356539229246</v>
       </c>
       <c r="I3">
-        <v>26.85156005304958</v>
+        <v>16.50967808399734</v>
       </c>
       <c r="J3">
-        <v>11.42692813526894</v>
+        <v>7.026118067555482</v>
       </c>
       <c r="K3">
-        <v>8.276626970665966</v>
+        <v>11.64942043262919</v>
       </c>
       <c r="L3">
-        <v>9.373255466259886</v>
+        <v>6.014050059488104</v>
       </c>
       <c r="M3">
-        <v>14.42099030664209</v>
+        <v>9.241996997648382</v>
       </c>
       <c r="N3">
-        <v>20.34354738156455</v>
+        <v>13.46841213265854</v>
       </c>
       <c r="O3">
-        <v>23.18689182409732</v>
+        <v>14.43522627528812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.22735689591754</v>
+        <v>10.35404414815692</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.48039693836186</v>
+        <v>6.311622058308878</v>
       </c>
       <c r="E4">
-        <v>16.09253053376818</v>
+        <v>9.710431020086226</v>
       </c>
       <c r="F4">
-        <v>31.64617199250318</v>
+        <v>20.12704208934539</v>
       </c>
       <c r="G4">
-        <v>31.26392623049429</v>
+        <v>21.40585822214161</v>
       </c>
       <c r="H4">
-        <v>15.06028085738942</v>
+        <v>8.995521771623542</v>
       </c>
       <c r="I4">
-        <v>26.91454005720088</v>
+        <v>16.65685411156247</v>
       </c>
       <c r="J4">
-        <v>11.43715669855246</v>
+        <v>7.05188616765406</v>
       </c>
       <c r="K4">
-        <v>8.086721615987148</v>
+        <v>11.24926186076036</v>
       </c>
       <c r="L4">
-        <v>9.361557164497002</v>
+        <v>5.892115550130186</v>
       </c>
       <c r="M4">
-        <v>14.40380511331256</v>
+        <v>9.059401550375251</v>
       </c>
       <c r="N4">
-        <v>20.37640830752763</v>
+        <v>13.5671086645677</v>
       </c>
       <c r="O4">
-        <v>23.22973938332125</v>
+        <v>14.44877987364615</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.20014124732838</v>
+        <v>10.2001957544428</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.48390974142248</v>
+        <v>6.299327055091533</v>
       </c>
       <c r="E5">
-        <v>16.10242040773261</v>
+        <v>9.730624310401916</v>
       </c>
       <c r="F5">
-        <v>31.66833566556065</v>
+        <v>20.11134814170313</v>
       </c>
       <c r="G5">
-        <v>31.2849772805979</v>
+        <v>21.35358947646351</v>
       </c>
       <c r="H5">
-        <v>15.07142032324328</v>
+        <v>9.010086726814649</v>
       </c>
       <c r="I5">
-        <v>26.94109731006498</v>
+        <v>16.7185819600273</v>
       </c>
       <c r="J5">
-        <v>11.44145895438658</v>
+        <v>7.062625575548028</v>
       </c>
       <c r="K5">
-        <v>8.007605867148726</v>
+        <v>11.0816586282269</v>
       </c>
       <c r="L5">
-        <v>9.357042860947121</v>
+        <v>5.842080824265691</v>
       </c>
       <c r="M5">
-        <v>14.39719635272134</v>
+        <v>8.984513679790238</v>
       </c>
       <c r="N5">
-        <v>20.3901981831693</v>
+        <v>13.60803236832606</v>
       </c>
       <c r="O5">
-        <v>23.24818571805644</v>
+        <v>14.45661939727762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.19564642169039</v>
+        <v>10.174456631224</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.48451178762443</v>
+        <v>6.297317885394937</v>
       </c>
       <c r="E6">
-        <v>16.10408342155223</v>
+        <v>9.734016043645145</v>
       </c>
       <c r="F6">
-        <v>31.67210423148457</v>
+        <v>20.10894066362698</v>
       </c>
       <c r="G6">
-        <v>31.28858947843184</v>
+        <v>21.34517866138313</v>
       </c>
       <c r="H6">
-        <v>15.07329923000172</v>
+        <v>9.012567859199995</v>
       </c>
       <c r="I6">
-        <v>26.94556106289427</v>
+        <v>16.7289370177764</v>
       </c>
       <c r="J6">
-        <v>11.44218144668757</v>
+        <v>7.06442330974193</v>
       </c>
       <c r="K6">
-        <v>7.99436667637716</v>
+        <v>11.05355759185663</v>
       </c>
       <c r="L6">
-        <v>9.356308623287326</v>
+        <v>5.833753935164777</v>
       </c>
       <c r="M6">
-        <v>14.39612292410847</v>
+        <v>8.972053028174242</v>
       </c>
       <c r="N6">
-        <v>20.39251209733901</v>
+        <v>13.61487048305353</v>
       </c>
       <c r="O6">
-        <v>23.2513082335729</v>
+        <v>14.45805900962221</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.22698824202055</v>
+        <v>10.35198234409562</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.48044305679922</v>
+        <v>6.31145407465274</v>
       </c>
       <c r="E7">
-        <v>16.09266251764611</v>
+        <v>9.710700760791763</v>
       </c>
       <c r="F7">
-        <v>31.64646497908273</v>
+        <v>20.12681708277782</v>
       </c>
       <c r="G7">
-        <v>31.26420230719314</v>
+        <v>21.40513527228617</v>
       </c>
       <c r="H7">
-        <v>15.06042913039447</v>
+        <v>8.995713984042689</v>
       </c>
       <c r="I7">
-        <v>26.91489460239628</v>
+        <v>16.65767952889296</v>
       </c>
       <c r="J7">
-        <v>11.4372141770963</v>
+        <v>7.052030034452981</v>
       </c>
       <c r="K7">
-        <v>8.085661527550576</v>
+        <v>11.24701972366166</v>
       </c>
       <c r="L7">
-        <v>9.361495255262771</v>
+        <v>5.891442064140498</v>
       </c>
       <c r="M7">
-        <v>14.40371438249223</v>
+        <v>9.058393374982201</v>
       </c>
       <c r="N7">
-        <v>20.37659266658725</v>
+        <v>13.56765771427044</v>
       </c>
       <c r="O7">
-        <v>23.22998416691572</v>
+        <v>14.448876313307</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.36865407829155</v>
+        <v>11.10604383578001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.4652094290529</v>
+        <v>6.378502656185109</v>
       </c>
       <c r="E8">
-        <v>16.04528358827726</v>
+        <v>9.613454501769001</v>
       </c>
       <c r="F8">
-        <v>31.54616653866376</v>
+        <v>20.23503443421286</v>
       </c>
       <c r="G8">
-        <v>31.17357471080163</v>
+        <v>21.70914961907006</v>
       </c>
       <c r="H8">
-        <v>15.00787875813339</v>
+        <v>8.930630813984951</v>
       </c>
       <c r="I8">
-        <v>26.78740077930549</v>
+        <v>16.35868352195554</v>
       </c>
       <c r="J8">
-        <v>11.41647043031598</v>
+        <v>6.999432476943386</v>
       </c>
       <c r="K8">
-        <v>8.473161597681793</v>
+        <v>12.06064119286152</v>
       </c>
       <c r="L8">
-        <v>9.386594253554319</v>
+        <v>6.142780774302367</v>
       </c>
       <c r="M8">
-        <v>14.44066321653548</v>
+        <v>9.434896960019303</v>
       </c>
       <c r="N8">
-        <v>20.30984191510792</v>
+        <v>13.36547697389823</v>
       </c>
       <c r="O8">
-        <v>23.14453962010745</v>
+        <v>14.42887576782452</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.65685409166914</v>
+        <v>12.46932249684936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.44507215192333</v>
+        <v>6.526290771791925</v>
       </c>
       <c r="E9">
-        <v>15.96317128528461</v>
+        <v>9.443239525136971</v>
       </c>
       <c r="F9">
-        <v>31.39568768790399</v>
+        <v>20.55681786630817</v>
       </c>
       <c r="G9">
-        <v>31.05712551020118</v>
+        <v>22.44997699232478</v>
       </c>
       <c r="H9">
-        <v>14.92004874970462</v>
+        <v>8.838241794303029</v>
       </c>
       <c r="I9">
-        <v>26.56543217285943</v>
+        <v>15.82958187259595</v>
       </c>
       <c r="J9">
-        <v>11.3799931985196</v>
+        <v>6.903694754157283</v>
       </c>
       <c r="K9">
-        <v>9.173468952657696</v>
+        <v>13.50658968596384</v>
       </c>
       <c r="L9">
-        <v>9.443551959452462</v>
+        <v>6.619613699597883</v>
       </c>
       <c r="M9">
-        <v>14.52519722411023</v>
+        <v>10.15027552647034</v>
       </c>
       <c r="N9">
-        <v>20.19144704929682</v>
+        <v>12.99056723595573</v>
       </c>
       <c r="O9">
-        <v>23.00811191711018</v>
+        <v>14.46795375773565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.87338241270431</v>
+        <v>13.39394888200503</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.43617206839235</v>
+        <v>6.644312277588016</v>
       </c>
       <c r="E10">
-        <v>15.90937602199367</v>
+        <v>9.330895356954374</v>
       </c>
       <c r="F10">
-        <v>31.31333408503228</v>
+        <v>20.86325414002602</v>
       </c>
       <c r="G10">
-        <v>31.00907536494671</v>
+        <v>23.08378779941202</v>
       </c>
       <c r="H10">
-        <v>14.86477385489337</v>
+        <v>8.793636343705787</v>
       </c>
       <c r="I10">
-        <v>26.41935679971628</v>
+        <v>15.47758795690572</v>
       </c>
       <c r="J10">
-        <v>11.35573122600899</v>
+        <v>6.837763914908389</v>
       </c>
       <c r="K10">
-        <v>9.648457909572477</v>
+        <v>14.4744101440393</v>
       </c>
       <c r="L10">
-        <v>9.489918275329416</v>
+        <v>6.956724747464162</v>
       </c>
       <c r="M10">
-        <v>14.59436488130516</v>
+        <v>10.65659094599896</v>
       </c>
       <c r="N10">
-        <v>20.11201736541618</v>
+        <v>12.72771301774234</v>
       </c>
       <c r="O10">
-        <v>22.9268756473842</v>
+        <v>14.54844430379751</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.97259172023152</v>
+        <v>13.79689527357792</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.43339377407858</v>
+        <v>6.699932604012042</v>
       </c>
       <c r="E11">
-        <v>15.88631111794388</v>
+        <v>9.282603655199825</v>
       </c>
       <c r="F11">
-        <v>31.28199681369297</v>
+        <v>21.01842166596582</v>
       </c>
       <c r="G11">
-        <v>30.99537938604703</v>
+        <v>23.39158520028209</v>
       </c>
       <c r="H11">
-        <v>14.84163185961329</v>
+        <v>8.778802415468794</v>
       </c>
       <c r="I11">
-        <v>26.35657640285476</v>
+        <v>15.32591127131002</v>
       </c>
       <c r="J11">
-        <v>11.34523994697733</v>
+        <v>6.808703926244118</v>
       </c>
       <c r="K11">
-        <v>9.855414702079802</v>
+        <v>14.89373546641041</v>
       </c>
       <c r="L11">
-        <v>9.511947622993832</v>
+        <v>7.106605564280925</v>
       </c>
       <c r="M11">
-        <v>14.62729518061373</v>
+        <v>10.88179580336883</v>
       </c>
       <c r="N11">
-        <v>20.07750898833955</v>
+        <v>12.61074565962121</v>
       </c>
       <c r="O11">
-        <v>22.89404745564746</v>
+        <v>14.59713531962618</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.01023351561092</v>
+        <v>13.94688006817941</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.4325235124812</v>
+        <v>6.721261320920975</v>
       </c>
       <c r="E12">
-        <v>15.87777854208984</v>
+        <v>9.264726909646818</v>
       </c>
       <c r="F12">
-        <v>31.27101097872561</v>
+        <v>21.07948311699419</v>
       </c>
       <c r="G12">
-        <v>30.9913671832078</v>
+        <v>23.51092564067777</v>
       </c>
       <c r="H12">
-        <v>14.83315618592787</v>
+        <v>8.774004663949519</v>
       </c>
       <c r="I12">
-        <v>26.33332946293747</v>
+        <v>15.26973621412797</v>
       </c>
       <c r="J12">
-        <v>11.3413452595298</v>
+        <v>6.797831885079078</v>
       </c>
       <c r="K12">
-        <v>9.932434820784167</v>
+        <v>15.0494884448697</v>
       </c>
       <c r="L12">
-        <v>9.520420227576427</v>
+        <v>7.162818980930267</v>
       </c>
       <c r="M12">
-        <v>14.63996955023038</v>
+        <v>10.96627106951505</v>
       </c>
       <c r="N12">
-        <v>20.06467413058927</v>
+        <v>12.56681817440381</v>
       </c>
       <c r="O12">
-        <v>22.88220985174397</v>
+        <v>14.6173747327679</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.00212387222861</v>
+        <v>13.91469472241496</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.43270286672417</v>
+        <v>6.716656130251603</v>
       </c>
       <c r="E13">
-        <v>15.8796072296729</v>
+        <v>9.268558645331579</v>
       </c>
       <c r="F13">
-        <v>31.27333779826321</v>
+        <v>21.06622951745589</v>
       </c>
       <c r="G13">
-        <v>30.99217906218985</v>
+        <v>23.48510005187164</v>
       </c>
       <c r="H13">
-        <v>14.8349687833933</v>
+        <v>8.775000931689341</v>
       </c>
       <c r="I13">
-        <v>26.33831270259541</v>
+        <v>15.28177760339427</v>
       </c>
       <c r="J13">
-        <v>11.34218058036982</v>
+        <v>6.800167514994575</v>
       </c>
       <c r="K13">
-        <v>9.915907760810766</v>
+        <v>15.01607960668643</v>
       </c>
       <c r="L13">
-        <v>9.518589761518053</v>
+        <v>7.150737214115439</v>
       </c>
       <c r="M13">
-        <v>14.63723091169379</v>
+        <v>10.94811461477238</v>
       </c>
       <c r="N13">
-        <v>20.0674280109216</v>
+        <v>12.57626263687878</v>
       </c>
       <c r="O13">
-        <v>22.88473288139105</v>
+        <v>14.61293469908039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.9756872262287</v>
+        <v>13.80928706711636</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.43331853833703</v>
+        <v>6.701682054991551</v>
       </c>
       <c r="E14">
-        <v>15.88560510134572</v>
+        <v>9.281124668305845</v>
       </c>
       <c r="F14">
-        <v>31.28107534838719</v>
+        <v>21.02339889293378</v>
       </c>
       <c r="G14">
-        <v>30.99502576769967</v>
+        <v>23.40134773028027</v>
       </c>
       <c r="H14">
-        <v>14.84092879671644</v>
+        <v>8.77839107394931</v>
       </c>
       <c r="I14">
-        <v>26.35465331485027</v>
+        <v>15.3212641433302</v>
       </c>
       <c r="J14">
-        <v>11.34491796466892</v>
+        <v>6.80780683433291</v>
       </c>
       <c r="K14">
-        <v>9.861778451761225</v>
+        <v>14.90661032471811</v>
       </c>
       <c r="L14">
-        <v>9.51264207691047</v>
+        <v>7.111241393851126</v>
       </c>
       <c r="M14">
-        <v>14.62833384976019</v>
+        <v>10.88876213031133</v>
       </c>
       <c r="N14">
-        <v>20.07644839799612</v>
+        <v>12.60712444705345</v>
       </c>
       <c r="O14">
-        <v>22.89306166824899</v>
+        <v>14.59876396744168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.95950272620298</v>
+        <v>13.7443813662936</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.43371930664891</v>
+        <v>6.692544367985039</v>
       </c>
       <c r="E15">
-        <v>15.88930520496696</v>
+        <v>9.288875324300877</v>
       </c>
       <c r="F15">
-        <v>31.28592953844246</v>
+        <v>20.99746475325621</v>
       </c>
       <c r="G15">
-        <v>30.99692236895917</v>
+        <v>23.35040899056689</v>
       </c>
       <c r="H15">
-        <v>14.84461693454016</v>
+        <v>8.780575411618281</v>
       </c>
       <c r="I15">
-        <v>26.3647309624777</v>
+        <v>15.34561657108169</v>
       </c>
       <c r="J15">
-        <v>11.34660485708205</v>
+        <v>6.812503322237776</v>
       </c>
       <c r="K15">
-        <v>9.828445825024565</v>
+        <v>14.83916120238521</v>
       </c>
       <c r="L15">
-        <v>9.509015825844807</v>
+        <v>7.0869771166411</v>
       </c>
       <c r="M15">
-        <v>14.62291056620104</v>
+        <v>10.85230029771234</v>
       </c>
       <c r="N15">
-        <v>20.08200392556299</v>
+        <v>12.62607552048641</v>
       </c>
       <c r="O15">
-        <v>22.89824061878054</v>
+        <v>14.59032043387468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.8669106770536</v>
+        <v>13.36725424657858</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.43637912736185</v>
+        <v>6.640715274520437</v>
       </c>
       <c r="E16">
-        <v>15.91091161693985</v>
+        <v>9.33410842957681</v>
       </c>
       <c r="F16">
-        <v>31.31550532386371</v>
+        <v>20.85343403655889</v>
       </c>
       <c r="G16">
-        <v>31.01013472953628</v>
+        <v>23.06406319650491</v>
       </c>
       <c r="H16">
-        <v>14.86632651461308</v>
+        <v>8.79471854032032</v>
       </c>
       <c r="I16">
-        <v>26.4235334009158</v>
+        <v>15.48767425549535</v>
       </c>
       <c r="J16">
-        <v>11.35642780694225</v>
+        <v>6.839681667070923</v>
       </c>
       <c r="K16">
-        <v>9.63474588419589</v>
+        <v>14.44658250737472</v>
       </c>
       <c r="L16">
-        <v>9.488497107673078</v>
+        <v>6.94685593136987</v>
       </c>
       <c r="M16">
-        <v>14.59224176036845</v>
+        <v>10.64176418986728</v>
       </c>
       <c r="N16">
-        <v>20.11430518280522</v>
+        <v>12.73540876590941</v>
       </c>
       <c r="O16">
-        <v>22.92910411364734</v>
+        <v>14.5455108081382</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.81026976243564</v>
+        <v>13.13132489331217</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.43833562097937</v>
+        <v>6.609406669295689</v>
       </c>
       <c r="E17">
-        <v>15.92452627525645</v>
+        <v>9.362582091477718</v>
       </c>
       <c r="F17">
-        <v>31.33521816822098</v>
+        <v>20.7691415566027</v>
       </c>
       <c r="G17">
-        <v>31.02033118297945</v>
+        <v>22.89337833956088</v>
       </c>
       <c r="H17">
-        <v>14.88015739436725</v>
+        <v>8.804817057873359</v>
       </c>
       <c r="I17">
-        <v>26.46054597360138</v>
+        <v>15.5770173155126</v>
       </c>
       <c r="J17">
-        <v>11.36259338010849</v>
+        <v>6.85659226461526</v>
       </c>
       <c r="K17">
-        <v>9.513552623281431</v>
+        <v>14.20036390994148</v>
       </c>
       <c r="L17">
-        <v>9.47614661482225</v>
+        <v>6.859973736343796</v>
       </c>
       <c r="M17">
-        <v>14.57379834717744</v>
+        <v>10.51124419839191</v>
       </c>
       <c r="N17">
-        <v>20.13453641047105</v>
+        <v>12.80314215718534</v>
       </c>
       <c r="O17">
-        <v>22.9490950394486</v>
+        <v>14.52116116600734</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.77775989753622</v>
+        <v>12.99396398238686</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.43958057486902</v>
+        <v>6.591581316642858</v>
       </c>
       <c r="E18">
-        <v>15.93248952552607</v>
+        <v>9.379223913496446</v>
       </c>
       <c r="F18">
-        <v>31.34713307699113</v>
+        <v>20.72214119456353</v>
       </c>
       <c r="G18">
-        <v>31.02696420417249</v>
+        <v>22.79703945808929</v>
       </c>
       <c r="H18">
-        <v>14.88830108508672</v>
+        <v>8.811136981185937</v>
       </c>
       <c r="I18">
-        <v>26.4821801310228</v>
+        <v>15.62919705095134</v>
       </c>
       <c r="J18">
-        <v>11.36619102981164</v>
+        <v>6.866406647157869</v>
       </c>
       <c r="K18">
-        <v>9.442989193165902</v>
+        <v>14.05677529307128</v>
       </c>
       <c r="L18">
-        <v>9.469131399294314</v>
+        <v>6.809676790638528</v>
       </c>
       <c r="M18">
-        <v>14.56332852611882</v>
+        <v>10.43569415076961</v>
       </c>
       <c r="N18">
-        <v>20.14632584400263</v>
+        <v>12.84234649625206</v>
       </c>
       <c r="O18">
-        <v>22.96098169128469</v>
+        <v>14.50828876463962</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.76676525366535</v>
+        <v>12.94717283198709</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.44002266706519</v>
+        <v>6.585577645542955</v>
       </c>
       <c r="E19">
-        <v>15.93520851655541</v>
+        <v>9.384903818347015</v>
       </c>
       <c r="F19">
-        <v>31.35126628761854</v>
+        <v>20.70648111347939</v>
       </c>
       <c r="G19">
-        <v>31.02934196054901</v>
+        <v>22.76473619958714</v>
       </c>
       <c r="H19">
-        <v>14.89109078913556</v>
+        <v>8.813363610453022</v>
       </c>
       <c r="I19">
-        <v>26.48956446006463</v>
+        <v>15.6469988888693</v>
       </c>
       <c r="J19">
-        <v>11.3674179659009</v>
+        <v>6.869744769519964</v>
       </c>
       <c r="K19">
-        <v>9.418951830329309</v>
+        <v>14.00782118629297</v>
       </c>
       <c r="L19">
-        <v>9.466771486356789</v>
+        <v>6.792592784090955</v>
       </c>
       <c r="M19">
-        <v>14.55980757571636</v>
+        <v>10.41003426120142</v>
       </c>
       <c r="N19">
-        <v>20.15034384331513</v>
+        <v>12.85566292324543</v>
       </c>
       <c r="O19">
-        <v>22.96507300446946</v>
+        <v>14.50412295137737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.81629240375517</v>
+        <v>13.15661232863588</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.438114973701</v>
+        <v>6.612720713271806</v>
       </c>
       <c r="E20">
-        <v>15.92306326772234</v>
+        <v>9.359523605292551</v>
       </c>
       <c r="F20">
-        <v>31.33306002518612</v>
+        <v>20.77796093237391</v>
       </c>
       <c r="G20">
-        <v>31.01916623237903</v>
+        <v>22.91135825644334</v>
       </c>
       <c r="H20">
-        <v>14.87866556320863</v>
+        <v>8.803688864117614</v>
       </c>
       <c r="I20">
-        <v>26.45657017177104</v>
+        <v>15.56742430498554</v>
       </c>
       <c r="J20">
-        <v>11.36193172956707</v>
+        <v>6.854783022457181</v>
       </c>
       <c r="K20">
-        <v>9.526542771076418</v>
+        <v>14.22677841763098</v>
       </c>
       <c r="L20">
-        <v>9.477452220320629</v>
+        <v>6.869256424734813</v>
       </c>
       <c r="M20">
-        <v>14.57574740756283</v>
+        <v>10.52518830973592</v>
       </c>
       <c r="N20">
-        <v>20.13236693683221</v>
+        <v>12.79590644081565</v>
       </c>
       <c r="O20">
-        <v>22.94692677076464</v>
+        <v>14.52363550299681</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.98345054594208</v>
+        <v>13.84031889387475</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.43313277328087</v>
+        <v>6.706073162506009</v>
       </c>
       <c r="E21">
-        <v>15.88383791513194</v>
+        <v>9.277422541037843</v>
       </c>
       <c r="F21">
-        <v>31.27877873568516</v>
+        <v>21.03591653264226</v>
       </c>
       <c r="G21">
-        <v>30.99415775481172</v>
+        <v>23.42587242156146</v>
       </c>
       <c r="H21">
-        <v>14.83917039075911</v>
+        <v>8.77737278271502</v>
       </c>
       <c r="I21">
-        <v>26.34983939694888</v>
+        <v>15.3096313493436</v>
       </c>
       <c r="J21">
-        <v>11.34411181064459</v>
+        <v>6.805559402964417</v>
       </c>
       <c r="K21">
-        <v>9.877714461803382</v>
+        <v>14.93884667058341</v>
       </c>
       <c r="L21">
-        <v>9.514385546448725</v>
+        <v>7.122857337861016</v>
       </c>
       <c r="M21">
-        <v>14.6309416374783</v>
+        <v>10.90621774559133</v>
       </c>
       <c r="N21">
-        <v>20.07379258291029</v>
+        <v>12.59804973983433</v>
       </c>
       <c r="O21">
-        <v>22.89059918608595</v>
+        <v>14.6028768669178</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.09311262966553</v>
+        <v>14.27197374350307</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.43093595916552</v>
+        <v>6.768632351231652</v>
       </c>
       <c r="E22">
-        <v>15.85937665582343</v>
+        <v>9.226159091396225</v>
       </c>
       <c r="F22">
-        <v>31.2484372333267</v>
+        <v>21.21794078521579</v>
       </c>
       <c r="G22">
-        <v>30.98465690204811</v>
+        <v>23.77835321468203</v>
       </c>
       <c r="H22">
-        <v>14.8150347901948</v>
+        <v>8.764967451610982</v>
       </c>
       <c r="I22">
-        <v>26.28315379581491</v>
+        <v>15.14852804337107</v>
       </c>
       <c r="J22">
-        <v>11.33292072868492</v>
+        <v>6.774159530923442</v>
       </c>
       <c r="K22">
-        <v>10.09934262427397</v>
+        <v>15.38652016199352</v>
       </c>
       <c r="L22">
-        <v>9.539282631815523</v>
+        <v>7.285417534135284</v>
       </c>
       <c r="M22">
-        <v>14.66820244408577</v>
+        <v>11.15052462590881</v>
       </c>
       <c r="N22">
-        <v>20.03686689395047</v>
+        <v>12.47086506362207</v>
       </c>
       <c r="O22">
-        <v>22.85724660229077</v>
+        <v>14.66519269557861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.03455539842769</v>
+        <v>14.04299773768338</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.43201180766496</v>
+        <v>6.73510550122464</v>
       </c>
       <c r="E23">
-        <v>15.87232482692726</v>
+        <v>9.253298299864385</v>
       </c>
       <c r="F23">
-        <v>31.26416131369306</v>
+        <v>21.11955145433715</v>
       </c>
       <c r="G23">
-        <v>30.98910153568986</v>
+        <v>23.58875109309278</v>
       </c>
       <c r="H23">
-        <v>14.8277630913404</v>
+        <v>8.771138022436888</v>
       </c>
       <c r="I23">
-        <v>26.31846469013222</v>
+        <v>15.23381979901429</v>
       </c>
       <c r="J23">
-        <v>11.33885206997446</v>
+        <v>6.790848292537162</v>
       </c>
       <c r="K23">
-        <v>9.981788272993574</v>
+        <v>15.14921441637487</v>
       </c>
       <c r="L23">
-        <v>9.525926554063304</v>
+        <v>7.198960381136282</v>
       </c>
       <c r="M23">
-        <v>14.64820908757819</v>
+        <v>11.02058571173098</v>
       </c>
       <c r="N23">
-        <v>20.05645104498788</v>
+        <v>12.53855447325591</v>
       </c>
       <c r="O23">
-        <v>22.87473075871996</v>
+        <v>14.63094956521311</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.81356939800448</v>
+        <v>13.14518523792799</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.43821435406227</v>
+        <v>6.61122188997892</v>
       </c>
       <c r="E24">
-        <v>15.92372426975633</v>
+        <v>9.36090550029888</v>
       </c>
       <c r="F24">
-        <v>31.3340339096249</v>
+        <v>20.7739691461833</v>
       </c>
       <c r="G24">
-        <v>31.01969050517333</v>
+        <v>22.90322395906934</v>
       </c>
       <c r="H24">
-        <v>14.87933942157109</v>
+        <v>8.804197321669948</v>
       </c>
       <c r="I24">
-        <v>26.45836652548116</v>
+        <v>15.57175876930028</v>
       </c>
       <c r="J24">
-        <v>11.36223069672964</v>
+        <v>6.855600693354259</v>
       </c>
       <c r="K24">
-        <v>9.520672687616333</v>
+        <v>14.21484275298711</v>
       </c>
       <c r="L24">
-        <v>9.47686169022356</v>
+        <v>6.865060799422781</v>
       </c>
       <c r="M24">
-        <v>14.57486582091257</v>
+        <v>10.51888576760888</v>
       </c>
       <c r="N24">
-        <v>20.13334726291828</v>
+        <v>12.79917688671064</v>
       </c>
       <c r="O24">
-        <v>22.94790581902551</v>
+        <v>14.5225133512807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.57793424384209</v>
+        <v>12.11364487623676</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.44948153796386</v>
+        <v>6.484612917019629</v>
       </c>
       <c r="E25">
-        <v>15.98423406044215</v>
+        <v>9.487072333158196</v>
       </c>
       <c r="F25">
-        <v>31.43144511671708</v>
+        <v>20.4576786895461</v>
       </c>
       <c r="G25">
-        <v>31.0820502881373</v>
+        <v>22.23388577583567</v>
       </c>
       <c r="H25">
-        <v>14.94218218928278</v>
+        <v>8.859281826735597</v>
       </c>
       <c r="I25">
-        <v>26.62248770879532</v>
+        <v>15.96641388782711</v>
       </c>
       <c r="J25">
-        <v>11.38941391073557</v>
+        <v>6.928812505260757</v>
       </c>
       <c r="K25">
-        <v>8.990753138861526</v>
+        <v>13.13183337950802</v>
       </c>
       <c r="L25">
-        <v>9.427334757930387</v>
+        <v>6.492712732654423</v>
       </c>
       <c r="M25">
-        <v>14.50106582213639</v>
+        <v>9.959781683606236</v>
       </c>
       <c r="N25">
-        <v>20.22214444361843</v>
+        <v>13.08973833646447</v>
       </c>
       <c r="O25">
-        <v>23.04168434402805</v>
+        <v>14.44857564508892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.30284395924296</v>
+        <v>10.48427786406182</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.397789544556856</v>
+        <v>3.849107512124636</v>
       </c>
       <c r="E2">
-        <v>9.588484372292816</v>
+        <v>7.854405491685215</v>
       </c>
       <c r="F2">
-        <v>20.27163620710354</v>
+        <v>29.24209416201409</v>
       </c>
       <c r="G2">
-        <v>21.80122929188784</v>
+        <v>38.28652536775743</v>
       </c>
       <c r="H2">
-        <v>8.915317048223512</v>
+        <v>4.010767999262574</v>
       </c>
       <c r="I2">
-        <v>16.28148263893643</v>
+        <v>5.025513135698912</v>
       </c>
       <c r="J2">
-        <v>6.98568631510552</v>
+        <v>12.70567871267809</v>
       </c>
       <c r="K2">
-        <v>12.27112897615376</v>
+        <v>20.91451283026589</v>
       </c>
       <c r="L2">
-        <v>6.209936612361482</v>
+        <v>6.619828686790092</v>
       </c>
       <c r="M2">
-        <v>9.535573887765841</v>
+        <v>13.25311275159391</v>
       </c>
       <c r="N2">
-        <v>13.31217594267227</v>
+        <v>6.900139444679336</v>
       </c>
       <c r="O2">
-        <v>14.42860165615054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.59481765283468</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.72351608982939</v>
+        <v>9.879458202206317</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.343103028702135</v>
+        <v>3.767575818082849</v>
       </c>
       <c r="E3">
-        <v>9.662451827549491</v>
+        <v>7.695031570427593</v>
       </c>
       <c r="F3">
-        <v>20.17370263996452</v>
+        <v>28.76448911924784</v>
       </c>
       <c r="G3">
-        <v>21.54510410789064</v>
+        <v>37.42078628179615</v>
       </c>
       <c r="H3">
-        <v>8.962356539229246</v>
+        <v>4.234594161458931</v>
       </c>
       <c r="I3">
-        <v>16.50967808399734</v>
+        <v>5.176907581027424</v>
       </c>
       <c r="J3">
-        <v>7.026118067555482</v>
+        <v>12.6294496569961</v>
       </c>
       <c r="K3">
-        <v>11.64942043262919</v>
+        <v>20.89566369396077</v>
       </c>
       <c r="L3">
-        <v>6.014050059488104</v>
+        <v>6.527003016713586</v>
       </c>
       <c r="M3">
-        <v>9.241996997648382</v>
+        <v>12.45315452723012</v>
       </c>
       <c r="N3">
-        <v>13.46841213265854</v>
+        <v>6.64882381045409</v>
       </c>
       <c r="O3">
-        <v>14.43522627528812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.243398414921829</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.35404414815692</v>
+        <v>9.486771302014311</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.311622058308878</v>
+        <v>3.716866098106742</v>
       </c>
       <c r="E4">
-        <v>9.710431020086226</v>
+        <v>7.594478218954022</v>
       </c>
       <c r="F4">
-        <v>20.12704208934539</v>
+        <v>28.47395133907525</v>
       </c>
       <c r="G4">
-        <v>21.40585822214161</v>
+        <v>36.89036832978038</v>
       </c>
       <c r="H4">
-        <v>8.995521771623542</v>
+        <v>4.376816177365635</v>
       </c>
       <c r="I4">
-        <v>16.65685411156247</v>
+        <v>5.273689962318291</v>
       </c>
       <c r="J4">
-        <v>7.05188616765406</v>
+        <v>12.5855555572093</v>
       </c>
       <c r="K4">
-        <v>11.24926186076036</v>
+        <v>20.88407036068198</v>
       </c>
       <c r="L4">
-        <v>5.892115550130186</v>
+        <v>6.468225214486884</v>
       </c>
       <c r="M4">
-        <v>9.059401550375251</v>
+        <v>11.93711463820286</v>
       </c>
       <c r="N4">
-        <v>13.5671086645677</v>
+        <v>6.492985379172691</v>
       </c>
       <c r="O4">
-        <v>14.44877987364615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.022186956355045</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.2001957544428</v>
+        <v>9.31572074372831</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.299327055091533</v>
+        <v>3.696198619081648</v>
       </c>
       <c r="E5">
-        <v>9.730624310401916</v>
+        <v>7.552194566051424</v>
       </c>
       <c r="F5">
-        <v>20.11134814170313</v>
+        <v>28.34232001158903</v>
       </c>
       <c r="G5">
-        <v>21.35358947646351</v>
+        <v>36.65116160444023</v>
       </c>
       <c r="H5">
-        <v>9.010086726814649</v>
+        <v>4.436348096165204</v>
       </c>
       <c r="I5">
-        <v>16.7185819600273</v>
+        <v>5.316375782141698</v>
       </c>
       <c r="J5">
-        <v>7.062625575548028</v>
+        <v>12.56390732100611</v>
       </c>
       <c r="K5">
-        <v>11.0816586282269</v>
+        <v>20.86852422653531</v>
       </c>
       <c r="L5">
-        <v>5.842080824265691</v>
+        <v>6.443595816149431</v>
       </c>
       <c r="M5">
-        <v>8.984513679790238</v>
+        <v>11.725416244708</v>
       </c>
       <c r="N5">
-        <v>13.60803236832606</v>
+        <v>6.433884468432469</v>
       </c>
       <c r="O5">
-        <v>14.45661939727762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.931599241508991</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.174456631224</v>
+        <v>9.279972489098466</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.297317885394937</v>
+        <v>3.692957266289729</v>
       </c>
       <c r="E6">
-        <v>9.734016043645145</v>
+        <v>7.544398374813838</v>
       </c>
       <c r="F6">
-        <v>20.10894066362698</v>
+        <v>28.30338828485365</v>
       </c>
       <c r="G6">
-        <v>21.34517866138313</v>
+        <v>36.58267402777587</v>
       </c>
       <c r="H6">
-        <v>9.012567859199995</v>
+        <v>4.446734101941936</v>
       </c>
       <c r="I6">
-        <v>16.7289370177764</v>
+        <v>5.32640168454232</v>
       </c>
       <c r="J6">
-        <v>7.06442330974193</v>
+        <v>12.55487480021436</v>
       </c>
       <c r="K6">
-        <v>11.05355759185663</v>
+        <v>20.85273446683563</v>
       </c>
       <c r="L6">
-        <v>5.833753935164777</v>
+        <v>6.439219692743429</v>
       </c>
       <c r="M6">
-        <v>8.972053028174242</v>
+        <v>11.69578074264113</v>
       </c>
       <c r="N6">
-        <v>13.61487048305353</v>
+        <v>6.429823298249615</v>
       </c>
       <c r="O6">
-        <v>14.45805900962221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.917479774820519</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.35198234409562</v>
+        <v>9.465680441197764</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.31145407465274</v>
+        <v>3.717130638074066</v>
       </c>
       <c r="E7">
-        <v>9.710700760791763</v>
+        <v>7.59195590033786</v>
       </c>
       <c r="F7">
-        <v>20.12681708277782</v>
+        <v>28.42572869935562</v>
       </c>
       <c r="G7">
-        <v>21.40513527228617</v>
+        <v>36.80915526111486</v>
       </c>
       <c r="H7">
-        <v>8.995713984042689</v>
+        <v>4.378756462453202</v>
       </c>
       <c r="I7">
-        <v>16.65767952889296</v>
+        <v>5.281876834563625</v>
       </c>
       <c r="J7">
-        <v>7.052030034452981</v>
+        <v>12.57035834352212</v>
       </c>
       <c r="K7">
-        <v>11.24701972366166</v>
+        <v>20.84787853482997</v>
       </c>
       <c r="L7">
-        <v>5.891442064140498</v>
+        <v>6.467225928142943</v>
       </c>
       <c r="M7">
-        <v>9.058393374982201</v>
+        <v>11.95003706206772</v>
       </c>
       <c r="N7">
-        <v>13.56765771427044</v>
+        <v>6.507733948881793</v>
       </c>
       <c r="O7">
-        <v>14.448876313307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.023641666137246</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.10604383578001</v>
+        <v>10.25700202833792</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.378502656185109</v>
+        <v>3.821821599781955</v>
       </c>
       <c r="E8">
-        <v>9.613454501769001</v>
+        <v>7.79762564500268</v>
       </c>
       <c r="F8">
-        <v>20.23503443421286</v>
+        <v>29.01701113737322</v>
       </c>
       <c r="G8">
-        <v>21.70914961907006</v>
+        <v>37.88800490702953</v>
       </c>
       <c r="H8">
-        <v>8.930630813984951</v>
+        <v>4.088378476076715</v>
       </c>
       <c r="I8">
-        <v>16.35868352195554</v>
+        <v>5.08647088390626</v>
       </c>
       <c r="J8">
-        <v>6.999432476943386</v>
+        <v>12.65939144265966</v>
       </c>
       <c r="K8">
-        <v>12.06064119286152</v>
+        <v>20.86093639695198</v>
       </c>
       <c r="L8">
-        <v>6.142780774302367</v>
+        <v>6.587470467921393</v>
       </c>
       <c r="M8">
-        <v>9.434896960019303</v>
+        <v>13.00186916940036</v>
       </c>
       <c r="N8">
-        <v>13.36547697389823</v>
+        <v>6.83348396288406</v>
       </c>
       <c r="O8">
-        <v>14.42887576782452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.47817339811737</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.46932249684936</v>
+        <v>11.6673788728588</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.526290771791925</v>
+        <v>4.021277692704601</v>
       </c>
       <c r="E9">
-        <v>9.443239525136971</v>
+        <v>8.183787300779988</v>
       </c>
       <c r="F9">
-        <v>20.55681786630817</v>
+        <v>30.27466220954313</v>
       </c>
       <c r="G9">
-        <v>22.44997699232478</v>
+        <v>40.13769942903526</v>
       </c>
       <c r="H9">
-        <v>8.838241794303029</v>
+        <v>3.554129113884845</v>
       </c>
       <c r="I9">
-        <v>15.82958187259595</v>
+        <v>4.720669087782776</v>
       </c>
       <c r="J9">
-        <v>6.903694754157283</v>
+        <v>12.88362996091637</v>
       </c>
       <c r="K9">
-        <v>13.50658968596384</v>
+        <v>20.94976621488165</v>
       </c>
       <c r="L9">
-        <v>6.619613699597883</v>
+        <v>6.810589222675912</v>
       </c>
       <c r="M9">
-        <v>10.15027552647034</v>
+        <v>14.84126195242778</v>
       </c>
       <c r="N9">
-        <v>12.99056723595573</v>
+        <v>7.431048473939946</v>
       </c>
       <c r="O9">
-        <v>14.46795375773565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.31765466678474</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.39394888200503</v>
+        <v>12.57267770676755</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.644312277588016</v>
+        <v>4.156478790052665</v>
       </c>
       <c r="E10">
-        <v>9.330895356954374</v>
+        <v>8.451245852652399</v>
       </c>
       <c r="F10">
-        <v>20.86325414002602</v>
+        <v>30.95772000820422</v>
       </c>
       <c r="G10">
-        <v>23.08378779941202</v>
+        <v>41.39843025826721</v>
       </c>
       <c r="H10">
-        <v>8.793636343705787</v>
+        <v>3.20812030270968</v>
       </c>
       <c r="I10">
-        <v>15.47758795690572</v>
+        <v>4.47906873571891</v>
       </c>
       <c r="J10">
-        <v>6.837763914908389</v>
+        <v>12.98654621287828</v>
       </c>
       <c r="K10">
-        <v>14.4744101440393</v>
+        <v>20.86749478101377</v>
       </c>
       <c r="L10">
-        <v>6.956724747464162</v>
+        <v>6.970556673965628</v>
       </c>
       <c r="M10">
-        <v>10.65659094599896</v>
+        <v>16.10070877511063</v>
       </c>
       <c r="N10">
-        <v>12.72771301774234</v>
+        <v>7.802220711771228</v>
       </c>
       <c r="O10">
-        <v>14.54844430379751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.85982042519953</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.79689527357792</v>
+        <v>12.79883315801382</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.699932604012042</v>
+        <v>4.144499614945802</v>
       </c>
       <c r="E11">
-        <v>9.282603655199825</v>
+        <v>8.626540872289418</v>
       </c>
       <c r="F11">
-        <v>21.01842166596582</v>
+        <v>29.25874049489685</v>
       </c>
       <c r="G11">
-        <v>23.39158520028209</v>
+        <v>38.87277283551452</v>
       </c>
       <c r="H11">
-        <v>8.778802415468794</v>
+        <v>3.830722282944087</v>
       </c>
       <c r="I11">
-        <v>15.32591127131002</v>
+        <v>4.43180784418182</v>
       </c>
       <c r="J11">
-        <v>6.808703926244118</v>
+        <v>12.41334017854465</v>
       </c>
       <c r="K11">
-        <v>14.89373546641041</v>
+        <v>19.69597980311907</v>
       </c>
       <c r="L11">
-        <v>7.106605564280925</v>
+        <v>7.130017642511661</v>
       </c>
       <c r="M11">
-        <v>10.88179580336883</v>
+        <v>16.86010513359633</v>
       </c>
       <c r="N11">
-        <v>12.61074565962121</v>
+        <v>7.455319258486013</v>
       </c>
       <c r="O11">
-        <v>14.59713531962618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.73889173067743</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.94688006817941</v>
+        <v>12.82591734339467</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.721261320920975</v>
+        <v>4.109723827501839</v>
       </c>
       <c r="E12">
-        <v>9.264726909646818</v>
+        <v>8.843265906082749</v>
       </c>
       <c r="F12">
-        <v>21.07948311699419</v>
+        <v>27.73622662567469</v>
       </c>
       <c r="G12">
-        <v>23.51092564067777</v>
+        <v>36.55364645888814</v>
       </c>
       <c r="H12">
-        <v>8.774004663949519</v>
+        <v>4.927308091222954</v>
       </c>
       <c r="I12">
-        <v>15.26973621412797</v>
+        <v>4.42509722861439</v>
       </c>
       <c r="J12">
-        <v>6.797831885079078</v>
+        <v>11.92827207226049</v>
       </c>
       <c r="K12">
-        <v>15.0494884448697</v>
+        <v>18.83759160990953</v>
       </c>
       <c r="L12">
-        <v>7.162818980930267</v>
+        <v>7.300830092492916</v>
       </c>
       <c r="M12">
-        <v>10.96627106951505</v>
+        <v>17.23034206067188</v>
       </c>
       <c r="N12">
-        <v>12.56681817440381</v>
+        <v>7.05804757624457</v>
       </c>
       <c r="O12">
-        <v>14.6173747327679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.51389834144416</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.91469472241496</v>
+        <v>12.67999382485399</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.716656130251603</v>
+        <v>4.054949981638803</v>
       </c>
       <c r="E13">
-        <v>9.268558645331579</v>
+        <v>9.091878989360767</v>
       </c>
       <c r="F13">
-        <v>21.06622951745589</v>
+        <v>26.1785397978529</v>
       </c>
       <c r="G13">
-        <v>23.48510005187164</v>
+        <v>34.10920014711984</v>
       </c>
       <c r="H13">
-        <v>8.775000931689341</v>
+        <v>6.191661205654479</v>
       </c>
       <c r="I13">
-        <v>15.28177760339427</v>
+        <v>4.461188669842181</v>
       </c>
       <c r="J13">
-        <v>6.800167514994575</v>
+        <v>11.45869715079433</v>
       </c>
       <c r="K13">
-        <v>15.01607960668643</v>
+        <v>18.12558908302762</v>
       </c>
       <c r="L13">
-        <v>7.150737214115439</v>
+        <v>7.483481237963415</v>
       </c>
       <c r="M13">
-        <v>10.94811461477238</v>
+        <v>17.35330676022435</v>
       </c>
       <c r="N13">
-        <v>12.57626263687878</v>
+        <v>6.610724795882414</v>
       </c>
       <c r="O13">
-        <v>14.61293469908039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.1941128485822</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.80928706711636</v>
+        <v>12.49312675439364</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.701682054991551</v>
+        <v>4.008137192015551</v>
       </c>
       <c r="E14">
-        <v>9.281124668305845</v>
+        <v>9.291769761517413</v>
       </c>
       <c r="F14">
-        <v>21.02339889293378</v>
+        <v>25.06396559884602</v>
       </c>
       <c r="G14">
-        <v>23.40134773028027</v>
+        <v>32.31598629175242</v>
       </c>
       <c r="H14">
-        <v>8.77839107394931</v>
+        <v>7.129028433220561</v>
       </c>
       <c r="I14">
-        <v>15.3212641433302</v>
+        <v>4.507885886128676</v>
       </c>
       <c r="J14">
-        <v>6.80780683433291</v>
+        <v>11.13611443567344</v>
       </c>
       <c r="K14">
-        <v>14.90661032471811</v>
+        <v>17.70548017387033</v>
       </c>
       <c r="L14">
-        <v>7.111241393851126</v>
+        <v>7.623108187393897</v>
       </c>
       <c r="M14">
-        <v>10.88876213031133</v>
+        <v>17.33350511446392</v>
       </c>
       <c r="N14">
-        <v>12.60712444705345</v>
+        <v>6.275852094676633</v>
       </c>
       <c r="O14">
-        <v>14.59876396744168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.924978068439961</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.7443813662936</v>
+        <v>12.40426715003382</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.692544367985039</v>
+        <v>3.991991297163001</v>
       </c>
       <c r="E15">
-        <v>9.288875324300877</v>
+        <v>9.333570991352492</v>
       </c>
       <c r="F15">
-        <v>20.99746475325621</v>
+        <v>24.77243096247522</v>
       </c>
       <c r="G15">
-        <v>23.35040899056689</v>
+        <v>31.83046828678338</v>
       </c>
       <c r="H15">
-        <v>8.780575411618281</v>
+        <v>7.353586564672701</v>
       </c>
       <c r="I15">
-        <v>15.34561657108169</v>
+        <v>4.532329406858031</v>
       </c>
       <c r="J15">
-        <v>6.812503322237776</v>
+        <v>11.05683955838541</v>
       </c>
       <c r="K15">
-        <v>14.83916120238521</v>
+        <v>17.61957156942373</v>
       </c>
       <c r="L15">
-        <v>7.0869771166411</v>
+        <v>7.652182472488124</v>
       </c>
       <c r="M15">
-        <v>10.85230029771234</v>
+        <v>17.28029209583613</v>
       </c>
       <c r="N15">
-        <v>12.62607552048641</v>
+        <v>6.188855887233398</v>
       </c>
       <c r="O15">
-        <v>14.59032043387468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.840387593151616</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.36725424657858</v>
+        <v>12.04323973942566</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.640715274520437</v>
+        <v>3.943343197453314</v>
       </c>
       <c r="E16">
-        <v>9.33410842957681</v>
+        <v>9.168417701116155</v>
       </c>
       <c r="F16">
-        <v>20.85343403655889</v>
+        <v>24.73899886712219</v>
       </c>
       <c r="G16">
-        <v>23.06406319650491</v>
+        <v>31.65926494138127</v>
       </c>
       <c r="H16">
-        <v>8.79471854032032</v>
+        <v>7.206127415278815</v>
       </c>
       <c r="I16">
-        <v>15.48767425549535</v>
+        <v>4.633492505896572</v>
       </c>
       <c r="J16">
-        <v>6.839681667070923</v>
+        <v>11.09656725501713</v>
       </c>
       <c r="K16">
-        <v>14.44658250737472</v>
+        <v>17.78908650398044</v>
       </c>
       <c r="L16">
-        <v>6.94685593136987</v>
+        <v>7.544253474629397</v>
       </c>
       <c r="M16">
-        <v>10.64176418986728</v>
+        <v>16.75926317813444</v>
       </c>
       <c r="N16">
-        <v>12.73540876590941</v>
+        <v>6.112435124075734</v>
       </c>
       <c r="O16">
-        <v>14.5455108081382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.66603267486208</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.13132489331217</v>
+        <v>11.86415303612157</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.609406669295689</v>
+        <v>3.930947861449191</v>
       </c>
       <c r="E17">
-        <v>9.362582091477718</v>
+        <v>8.923030215137393</v>
       </c>
       <c r="F17">
-        <v>20.7691415566027</v>
+        <v>25.30837786042566</v>
       </c>
       <c r="G17">
-        <v>22.89337833956088</v>
+        <v>32.49708901855875</v>
       </c>
       <c r="H17">
-        <v>8.804817057873359</v>
+        <v>6.574068230684396</v>
       </c>
       <c r="I17">
-        <v>15.5770173155126</v>
+        <v>4.686886697353721</v>
       </c>
       <c r="J17">
-        <v>6.85659226461526</v>
+        <v>11.29749889702633</v>
       </c>
       <c r="K17">
-        <v>14.20036390994148</v>
+        <v>18.12916732359073</v>
       </c>
       <c r="L17">
-        <v>6.859973736343796</v>
+        <v>7.38095441500705</v>
       </c>
       <c r="M17">
-        <v>10.51124419839191</v>
+        <v>16.3618559362448</v>
       </c>
       <c r="N17">
-        <v>12.80314215718534</v>
+        <v>6.237072112174995</v>
       </c>
       <c r="O17">
-        <v>14.52116116600734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.67887578039049</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.99396398238686</v>
+        <v>11.83883422470795</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.591581316642858</v>
+        <v>3.950554456381656</v>
       </c>
       <c r="E18">
-        <v>9.379223913496446</v>
+        <v>8.62770352275459</v>
       </c>
       <c r="F18">
-        <v>20.72214119456353</v>
+        <v>26.5023547247958</v>
       </c>
       <c r="G18">
-        <v>22.79703945808929</v>
+        <v>34.35583550492787</v>
       </c>
       <c r="H18">
-        <v>8.811136981185937</v>
+        <v>5.512986490403907</v>
       </c>
       <c r="I18">
-        <v>15.62919705095134</v>
+        <v>4.695084466011143</v>
       </c>
       <c r="J18">
-        <v>6.866406647157869</v>
+        <v>11.67389473905711</v>
       </c>
       <c r="K18">
-        <v>14.05677529307128</v>
+        <v>18.72075073532654</v>
       </c>
       <c r="L18">
-        <v>6.809676790638528</v>
+        <v>7.177498842183212</v>
       </c>
       <c r="M18">
-        <v>10.43569415076961</v>
+        <v>16.0225334137597</v>
       </c>
       <c r="N18">
-        <v>12.84234649625206</v>
+        <v>6.538042234201679</v>
       </c>
       <c r="O18">
-        <v>14.50828876463962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.851491822919666</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.94717283198709</v>
+        <v>11.90977732684903</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.585577645542955</v>
+        <v>3.998934345606038</v>
       </c>
       <c r="E19">
-        <v>9.384903818347015</v>
+        <v>8.404534129169608</v>
       </c>
       <c r="F19">
-        <v>20.70648111347939</v>
+        <v>28.05124670787714</v>
       </c>
       <c r="G19">
-        <v>22.76473619958714</v>
+        <v>36.7760161357081</v>
       </c>
       <c r="H19">
-        <v>8.813363610453022</v>
+        <v>4.351723532864446</v>
       </c>
       <c r="I19">
-        <v>15.6469988888693</v>
+        <v>4.677970201009859</v>
       </c>
       <c r="J19">
-        <v>6.869744769519964</v>
+        <v>12.14703535595374</v>
       </c>
       <c r="K19">
-        <v>14.00782118629297</v>
+        <v>19.48893472905637</v>
       </c>
       <c r="L19">
-        <v>6.792592784090955</v>
+        <v>7.008581728733716</v>
       </c>
       <c r="M19">
-        <v>10.41003426120142</v>
+        <v>15.78713485624535</v>
       </c>
       <c r="N19">
-        <v>12.85566292324543</v>
+        <v>6.980317719664776</v>
       </c>
       <c r="O19">
-        <v>14.50412295137737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.13954320148163</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.15661232863588</v>
+        <v>12.29492775167643</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.612720713271806</v>
+        <v>4.122189317890581</v>
       </c>
       <c r="E20">
-        <v>9.359523605292551</v>
+        <v>8.377294557596752</v>
       </c>
       <c r="F20">
-        <v>20.77796093237391</v>
+        <v>30.63648965145751</v>
       </c>
       <c r="G20">
-        <v>22.91135825644334</v>
+        <v>40.83696703710702</v>
       </c>
       <c r="H20">
-        <v>8.803688864117614</v>
+        <v>3.300552345402891</v>
       </c>
       <c r="I20">
-        <v>15.56742430498554</v>
+        <v>4.565271426601997</v>
       </c>
       <c r="J20">
-        <v>6.854783022457181</v>
+        <v>12.91180721478545</v>
       </c>
       <c r="K20">
-        <v>14.22677841763098</v>
+        <v>20.77664144239127</v>
       </c>
       <c r="L20">
-        <v>6.869256424734813</v>
+        <v>6.92855463597911</v>
       </c>
       <c r="M20">
-        <v>10.52518830973592</v>
+        <v>15.81814509532326</v>
       </c>
       <c r="N20">
-        <v>12.79590644081565</v>
+        <v>7.743763094244111</v>
       </c>
       <c r="O20">
-        <v>14.52363550299681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.72465746596201</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.84031889387475</v>
+        <v>12.99300404370879</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.706073162506009</v>
+        <v>4.23890098386752</v>
       </c>
       <c r="E21">
-        <v>9.277422541037843</v>
+        <v>8.588175413457069</v>
       </c>
       <c r="F21">
-        <v>21.03591653264226</v>
+        <v>31.54356572979067</v>
       </c>
       <c r="G21">
-        <v>23.42587242156146</v>
+        <v>42.3907974749344</v>
       </c>
       <c r="H21">
-        <v>8.77737278271502</v>
+        <v>3.003067945896471</v>
       </c>
       <c r="I21">
-        <v>15.3096313493436</v>
+        <v>4.371261999640196</v>
       </c>
       <c r="J21">
-        <v>6.805559402964417</v>
+        <v>13.11402470567949</v>
       </c>
       <c r="K21">
-        <v>14.93884667058341</v>
+        <v>20.93869374429859</v>
       </c>
       <c r="L21">
-        <v>7.122857337861016</v>
+        <v>7.043858138346862</v>
       </c>
       <c r="M21">
-        <v>10.90621774559133</v>
+        <v>16.70150784958843</v>
       </c>
       <c r="N21">
-        <v>12.59804973983433</v>
+        <v>8.109235837727628</v>
       </c>
       <c r="O21">
-        <v>14.6028768669178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.19200560137029</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.27197374350307</v>
+        <v>13.4386685497547</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.768632351231652</v>
+        <v>4.309649745057855</v>
       </c>
       <c r="E22">
-        <v>9.226159091396225</v>
+        <v>8.723970704153745</v>
       </c>
       <c r="F22">
-        <v>21.21794078521579</v>
+        <v>32.07231818917022</v>
       </c>
       <c r="G22">
-        <v>23.77835321468203</v>
+        <v>43.30737546724976</v>
       </c>
       <c r="H22">
-        <v>8.764967451610982</v>
+        <v>2.822960629506901</v>
       </c>
       <c r="I22">
-        <v>15.14852804337107</v>
+        <v>4.240673795839961</v>
       </c>
       <c r="J22">
-        <v>6.774159530923442</v>
+        <v>13.23098618371154</v>
       </c>
       <c r="K22">
-        <v>15.38652016199352</v>
+        <v>21.0224366180005</v>
       </c>
       <c r="L22">
-        <v>7.285417534135284</v>
+        <v>7.120303728673258</v>
       </c>
       <c r="M22">
-        <v>11.15052462590881</v>
+        <v>17.25417463427787</v>
       </c>
       <c r="N22">
-        <v>12.47086506362207</v>
+        <v>8.297341308158716</v>
       </c>
       <c r="O22">
-        <v>14.66519269557861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.46613380532222</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.04299773768338</v>
+        <v>13.2191819501255</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.73510550122464</v>
+        <v>4.271356410312677</v>
       </c>
       <c r="E23">
-        <v>9.253298299864385</v>
+        <v>8.653166296569205</v>
       </c>
       <c r="F23">
-        <v>21.11955145433715</v>
+        <v>31.83823031152461</v>
       </c>
       <c r="G23">
-        <v>23.58875109309278</v>
+        <v>42.89673243817945</v>
       </c>
       <c r="H23">
-        <v>8.771138022436888</v>
+        <v>2.917751601526795</v>
       </c>
       <c r="I23">
-        <v>15.23381979901429</v>
+        <v>4.300986520188823</v>
       </c>
       <c r="J23">
-        <v>6.790848292537162</v>
+        <v>13.18446481798261</v>
       </c>
       <c r="K23">
-        <v>15.14921441637487</v>
+        <v>21.01794217370026</v>
       </c>
       <c r="L23">
-        <v>7.198960381136282</v>
+        <v>7.079813404099992</v>
       </c>
       <c r="M23">
-        <v>11.02058571173098</v>
+        <v>16.94737336913481</v>
       </c>
       <c r="N23">
-        <v>12.53855447325591</v>
+        <v>8.182386955894467</v>
       </c>
       <c r="O23">
-        <v>14.63094956521311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.31807153306936</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.14518523792799</v>
+        <v>12.32318871457099</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.61122188997892</v>
+        <v>4.126605554340918</v>
       </c>
       <c r="E24">
-        <v>9.36090550029888</v>
+        <v>8.37993319702354</v>
       </c>
       <c r="F24">
-        <v>20.7739691461833</v>
+        <v>30.87796875318002</v>
       </c>
       <c r="G24">
-        <v>22.90322395906934</v>
+        <v>41.21357216683292</v>
       </c>
       <c r="H24">
-        <v>8.804197321669948</v>
+        <v>3.285101237897277</v>
       </c>
       <c r="I24">
-        <v>15.57175876930028</v>
+        <v>4.549522983159378</v>
       </c>
       <c r="J24">
-        <v>6.855600693354259</v>
+        <v>12.98936409136576</v>
       </c>
       <c r="K24">
-        <v>14.21484275298711</v>
+        <v>20.93904693524311</v>
       </c>
       <c r="L24">
-        <v>6.865060799422781</v>
+        <v>6.924044773087489</v>
       </c>
       <c r="M24">
-        <v>10.51888576760888</v>
+        <v>15.76287387862357</v>
       </c>
       <c r="N24">
-        <v>12.79917688671064</v>
+        <v>7.763344418071449</v>
       </c>
       <c r="O24">
-        <v>14.5225133512807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.7464424164236</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.11364487623676</v>
+        <v>11.27561562687444</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.484612917019629</v>
+        <v>3.968714577172171</v>
       </c>
       <c r="E25">
-        <v>9.487072333158196</v>
+        <v>8.07847175925872</v>
       </c>
       <c r="F25">
-        <v>20.4576786895461</v>
+        <v>29.85430856143002</v>
       </c>
       <c r="G25">
-        <v>22.23388577583567</v>
+        <v>39.40022225668238</v>
       </c>
       <c r="H25">
-        <v>8.859281826735597</v>
+        <v>3.696611396283262</v>
       </c>
       <c r="I25">
-        <v>15.96641388782711</v>
+        <v>4.829731840745228</v>
       </c>
       <c r="J25">
-        <v>6.928812505260757</v>
+        <v>12.79452819693729</v>
       </c>
       <c r="K25">
-        <v>13.13183337950802</v>
+        <v>20.86256456386212</v>
       </c>
       <c r="L25">
-        <v>6.492712732654423</v>
+        <v>6.750922254461356</v>
       </c>
       <c r="M25">
-        <v>9.959781683606236</v>
+        <v>14.3890144296033</v>
       </c>
       <c r="N25">
-        <v>13.08973833646447</v>
+        <v>7.296562663777364</v>
       </c>
       <c r="O25">
-        <v>14.44857564508892</v>
+        <v>10.10038656202083</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.48427786406182</v>
+        <v>9.839528075425589</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.849107512124636</v>
+        <v>3.809804329416957</v>
       </c>
       <c r="E2">
-        <v>7.854405491685215</v>
+        <v>7.547995726883689</v>
       </c>
       <c r="F2">
-        <v>29.24209416201409</v>
+        <v>27.8163531012321</v>
       </c>
       <c r="G2">
-        <v>38.28652536775743</v>
+        <v>35.91238732654794</v>
       </c>
       <c r="H2">
-        <v>4.010767999262574</v>
+        <v>3.745856248263423</v>
       </c>
       <c r="I2">
-        <v>5.025513135698912</v>
+        <v>4.609487494185151</v>
       </c>
       <c r="J2">
-        <v>12.70567871267809</v>
+        <v>12.32023416030902</v>
       </c>
       <c r="K2">
-        <v>20.91451283026589</v>
+        <v>19.18859520696642</v>
       </c>
       <c r="L2">
-        <v>6.619828686790092</v>
+        <v>14.40314561100305</v>
       </c>
       <c r="M2">
-        <v>13.25311275159391</v>
+        <v>13.94710300957994</v>
       </c>
       <c r="N2">
-        <v>6.900139444679336</v>
+        <v>6.425163807355593</v>
       </c>
       <c r="O2">
-        <v>9.59481765283468</v>
+        <v>13.5511082254959</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.539348184928418</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.627062848343531</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.879458202206317</v>
+        <v>9.261632154678729</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.767575818082849</v>
+        <v>3.732537185177177</v>
       </c>
       <c r="E3">
-        <v>7.695031570427593</v>
+        <v>7.393847013478803</v>
       </c>
       <c r="F3">
-        <v>28.76448911924784</v>
+        <v>27.46337115927776</v>
       </c>
       <c r="G3">
-        <v>37.42078628179615</v>
+        <v>35.32284661607432</v>
       </c>
       <c r="H3">
-        <v>4.234594161458931</v>
+        <v>3.953494977372729</v>
       </c>
       <c r="I3">
-        <v>5.176907581027424</v>
+        <v>4.739268758681252</v>
       </c>
       <c r="J3">
-        <v>12.6294496569961</v>
+        <v>12.23278491330673</v>
       </c>
       <c r="K3">
-        <v>20.89566369396077</v>
+        <v>19.25991679986392</v>
       </c>
       <c r="L3">
-        <v>6.527003016713586</v>
+        <v>14.52337795539411</v>
       </c>
       <c r="M3">
-        <v>12.45315452723012</v>
+        <v>13.97720633530949</v>
       </c>
       <c r="N3">
-        <v>6.64882381045409</v>
+        <v>6.32912286450452</v>
       </c>
       <c r="O3">
-        <v>9.243398414921829</v>
+        <v>12.70535124455792</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.26156173529771</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.262072609367783</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.486771302014311</v>
+        <v>8.884727927931527</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.716866098106742</v>
+        <v>3.684565433689541</v>
       </c>
       <c r="E4">
-        <v>7.594478218954022</v>
+        <v>7.296933494177389</v>
       </c>
       <c r="F4">
-        <v>28.47395133907525</v>
+        <v>27.24965993578698</v>
       </c>
       <c r="G4">
-        <v>36.89036832978038</v>
+        <v>34.96954559109975</v>
       </c>
       <c r="H4">
-        <v>4.376816177365635</v>
+        <v>4.085470200800003</v>
       </c>
       <c r="I4">
-        <v>5.273689962318291</v>
+        <v>4.822500199046812</v>
       </c>
       <c r="J4">
-        <v>12.5855555572093</v>
+        <v>12.17937326164341</v>
       </c>
       <c r="K4">
-        <v>20.88407036068198</v>
+        <v>19.30322363020732</v>
       </c>
       <c r="L4">
-        <v>6.468225214486884</v>
+        <v>14.5960384136495</v>
       </c>
       <c r="M4">
-        <v>11.93711463820286</v>
+        <v>14.00675749527719</v>
       </c>
       <c r="N4">
-        <v>6.492985379172691</v>
+        <v>6.268646667614903</v>
       </c>
       <c r="O4">
-        <v>9.022186956355045</v>
+        <v>12.15919990619632</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.08955060417529</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.031852001767238</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.31572074372831</v>
+        <v>8.720335182471592</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.696198619081648</v>
+        <v>3.66504521180071</v>
       </c>
       <c r="E5">
-        <v>7.552194566051424</v>
+        <v>7.256568611459348</v>
       </c>
       <c r="F5">
-        <v>28.34232001158903</v>
+        <v>27.15101073241834</v>
       </c>
       <c r="G5">
-        <v>36.65116160444023</v>
+        <v>34.80707122340675</v>
       </c>
       <c r="H5">
-        <v>4.436348096165204</v>
+        <v>4.140711929644132</v>
       </c>
       <c r="I5">
-        <v>5.316375782141698</v>
+        <v>4.859946854010247</v>
       </c>
       <c r="J5">
-        <v>12.56390732100611</v>
+        <v>12.15365556322607</v>
       </c>
       <c r="K5">
-        <v>20.86852422653531</v>
+        <v>19.31174615771885</v>
       </c>
       <c r="L5">
-        <v>6.443595816149431</v>
+        <v>14.61665871926229</v>
       </c>
       <c r="M5">
-        <v>11.725416244708</v>
+        <v>14.01656081005109</v>
       </c>
       <c r="N5">
-        <v>6.433884468432469</v>
+        <v>6.243611467776086</v>
       </c>
       <c r="O5">
-        <v>8.931599241508991</v>
+        <v>11.93431719401511</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.023254485484768</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.93734250778793</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.279972489098466</v>
+        <v>8.686248739294788</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.692957266289729</v>
+        <v>3.661996197351322</v>
       </c>
       <c r="E6">
-        <v>7.544398374813838</v>
+        <v>7.249494586525816</v>
       </c>
       <c r="F6">
-        <v>28.30338828485365</v>
+        <v>27.11958309794741</v>
       </c>
       <c r="G6">
-        <v>36.58267402777587</v>
+        <v>34.75490888495499</v>
       </c>
       <c r="H6">
-        <v>4.446734101941936</v>
+        <v>4.150338206079219</v>
       </c>
       <c r="I6">
-        <v>5.32640168454232</v>
+        <v>4.869567908723079</v>
       </c>
       <c r="J6">
-        <v>12.55487480021436</v>
+        <v>12.14446702927769</v>
       </c>
       <c r="K6">
-        <v>20.85273446683563</v>
+        <v>19.30216925720189</v>
       </c>
       <c r="L6">
-        <v>6.439219692743429</v>
+        <v>14.60946145465284</v>
       </c>
       <c r="M6">
-        <v>11.69578074264113</v>
+        <v>14.01222209339065</v>
       </c>
       <c r="N6">
-        <v>6.429823298249615</v>
+        <v>6.239434560395943</v>
       </c>
       <c r="O6">
-        <v>8.917479774820519</v>
+        <v>11.90194536250721</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.017208947864717</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.922456922550532</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.465680441197764</v>
+        <v>8.871175109224376</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.717130638074066</v>
+        <v>3.688544142021273</v>
       </c>
       <c r="E7">
-        <v>7.59195590033786</v>
+        <v>7.294637583721632</v>
       </c>
       <c r="F7">
-        <v>28.42572869935562</v>
+        <v>27.18155847515132</v>
       </c>
       <c r="G7">
-        <v>36.80915526111486</v>
+        <v>34.95127987513483</v>
       </c>
       <c r="H7">
-        <v>4.378756462453202</v>
+        <v>4.087971190669233</v>
       </c>
       <c r="I7">
-        <v>5.281876834563625</v>
+        <v>4.832289653133428</v>
       </c>
       <c r="J7">
-        <v>12.57035834352212</v>
+        <v>12.11694387874473</v>
       </c>
       <c r="K7">
-        <v>20.84787853482997</v>
+        <v>19.26333403750215</v>
       </c>
       <c r="L7">
-        <v>6.467225928142943</v>
+        <v>14.55851231689139</v>
       </c>
       <c r="M7">
-        <v>11.95003706206772</v>
+        <v>13.98371367369025</v>
       </c>
       <c r="N7">
-        <v>6.507733948881793</v>
+        <v>6.267650020008984</v>
       </c>
       <c r="O7">
-        <v>9.023641666137246</v>
+        <v>12.16477886833502</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.099309646524878</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.033407232692847</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.25700202833792</v>
+        <v>9.641761758603089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.821821599781955</v>
+        <v>3.796034875675813</v>
       </c>
       <c r="E8">
-        <v>7.79762564500268</v>
+        <v>7.491489132984663</v>
       </c>
       <c r="F8">
-        <v>29.01701113737322</v>
+        <v>27.55753882697732</v>
       </c>
       <c r="G8">
-        <v>37.88800490702953</v>
+        <v>35.79164205269321</v>
       </c>
       <c r="H8">
-        <v>4.088378476076715</v>
+        <v>3.82006823341418</v>
       </c>
       <c r="I8">
-        <v>5.08647088390626</v>
+        <v>4.66598621977796</v>
       </c>
       <c r="J8">
-        <v>12.65939144265966</v>
+        <v>12.11400997543298</v>
       </c>
       <c r="K8">
-        <v>20.86093639695198</v>
+        <v>19.14180497819956</v>
       </c>
       <c r="L8">
-        <v>6.587470467921393</v>
+        <v>14.38149834384543</v>
       </c>
       <c r="M8">
-        <v>13.00186916940036</v>
+        <v>13.90951733452369</v>
       </c>
       <c r="N8">
-        <v>6.83348396288406</v>
+        <v>6.390367350249536</v>
       </c>
       <c r="O8">
-        <v>9.47817339811737</v>
+        <v>13.26495918013366</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.452050498427538</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.506839719319236</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.6673788728588</v>
+        <v>10.98302802943932</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.021277692704601</v>
+        <v>3.988046668722986</v>
       </c>
       <c r="E9">
-        <v>8.183787300779988</v>
+        <v>7.864823505293865</v>
       </c>
       <c r="F9">
-        <v>30.27466220954313</v>
+        <v>28.4832947912759</v>
       </c>
       <c r="G9">
-        <v>40.13769942903526</v>
+        <v>37.43046320945073</v>
       </c>
       <c r="H9">
-        <v>3.554129113884845</v>
+        <v>3.325122742733813</v>
       </c>
       <c r="I9">
-        <v>4.720669087782776</v>
+        <v>4.351578828329417</v>
       </c>
       <c r="J9">
-        <v>12.88362996091637</v>
+        <v>12.30952092154046</v>
       </c>
       <c r="K9">
-        <v>20.94976621488165</v>
+        <v>18.98832467458453</v>
       </c>
       <c r="L9">
-        <v>6.810589222675912</v>
+        <v>14.10484113313731</v>
       </c>
       <c r="M9">
-        <v>14.84126195242778</v>
+        <v>13.90733189552155</v>
       </c>
       <c r="N9">
-        <v>7.431048473939946</v>
+        <v>6.621642450609719</v>
       </c>
       <c r="O9">
-        <v>10.31765466678474</v>
+        <v>15.20647884192071</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.115912905817133</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.37670239567127</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.57267770676755</v>
+        <v>11.8744661114817</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.156478790052665</v>
+        <v>4.137324306096733</v>
       </c>
       <c r="E10">
-        <v>8.451245852652399</v>
+        <v>8.130054858144183</v>
       </c>
       <c r="F10">
-        <v>30.95772000820422</v>
+        <v>28.82887380318094</v>
       </c>
       <c r="G10">
-        <v>41.39843025826721</v>
+        <v>38.63344927978306</v>
       </c>
       <c r="H10">
-        <v>3.20812030270968</v>
+        <v>3.009731600330435</v>
       </c>
       <c r="I10">
-        <v>4.47906873571891</v>
+        <v>4.148615928680909</v>
       </c>
       <c r="J10">
-        <v>12.98654621287828</v>
+        <v>12.12755721813672</v>
       </c>
       <c r="K10">
-        <v>20.86749478101377</v>
+        <v>18.71223323367451</v>
       </c>
       <c r="L10">
-        <v>6.970556673965628</v>
+        <v>13.77408702719913</v>
       </c>
       <c r="M10">
-        <v>16.10070877511063</v>
+        <v>13.8358376822025</v>
       </c>
       <c r="N10">
-        <v>7.802220711771228</v>
+        <v>6.791952119491686</v>
       </c>
       <c r="O10">
-        <v>10.85982042519953</v>
+        <v>16.49601222133963</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.510393955207055</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.93735449352102</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.79883315801382</v>
+        <v>12.23228137663747</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.144499614945802</v>
+        <v>4.153697936531183</v>
       </c>
       <c r="E11">
-        <v>8.626540872289418</v>
+        <v>8.359890102537106</v>
       </c>
       <c r="F11">
-        <v>29.25874049489685</v>
+        <v>27.05166313364387</v>
       </c>
       <c r="G11">
-        <v>38.87277283551452</v>
+        <v>37.03087041845804</v>
       </c>
       <c r="H11">
-        <v>3.830722282944087</v>
+        <v>3.677563690519688</v>
       </c>
       <c r="I11">
-        <v>4.43180784418182</v>
+        <v>4.117121350642141</v>
       </c>
       <c r="J11">
-        <v>12.41334017854465</v>
+        <v>11.13549448889007</v>
       </c>
       <c r="K11">
-        <v>19.69597980311907</v>
+        <v>17.70304238029929</v>
       </c>
       <c r="L11">
-        <v>7.130017642511661</v>
+        <v>12.98274020401347</v>
       </c>
       <c r="M11">
-        <v>16.86010513359633</v>
+        <v>13.11626139253127</v>
       </c>
       <c r="N11">
-        <v>7.455319258486013</v>
+        <v>6.997456699818624</v>
       </c>
       <c r="O11">
-        <v>10.73889173067743</v>
+        <v>17.14969262062749</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.069078882668414</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.8104435937977</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.82591734339467</v>
+        <v>12.35710068104401</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.109723827501839</v>
+        <v>4.123101719305035</v>
       </c>
       <c r="E12">
-        <v>8.843265906082749</v>
+        <v>8.601131815894457</v>
       </c>
       <c r="F12">
-        <v>27.73622662567469</v>
+        <v>25.61669375618856</v>
       </c>
       <c r="G12">
-        <v>36.55364645888814</v>
+        <v>35.30510380201134</v>
       </c>
       <c r="H12">
-        <v>4.927308091222954</v>
+        <v>4.81030078319587</v>
       </c>
       <c r="I12">
-        <v>4.42509722861439</v>
+        <v>4.11272841150944</v>
       </c>
       <c r="J12">
-        <v>11.92827207226049</v>
+        <v>10.54878280745161</v>
       </c>
       <c r="K12">
-        <v>18.83759160990953</v>
+        <v>17.04748922782249</v>
       </c>
       <c r="L12">
-        <v>7.300830092492916</v>
+        <v>12.50753313695675</v>
       </c>
       <c r="M12">
-        <v>17.23034206067188</v>
+        <v>12.60983286189134</v>
       </c>
       <c r="N12">
-        <v>7.05804757624457</v>
+        <v>7.193630620643847</v>
       </c>
       <c r="O12">
-        <v>10.51389834144416</v>
+        <v>17.43987651953048</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.599139230831481</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.57610244949681</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.67999382485399</v>
+        <v>12.28272763682657</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.054949981638803</v>
+        <v>4.050995609745077</v>
       </c>
       <c r="E13">
-        <v>9.091878989360767</v>
+        <v>8.869719789096981</v>
       </c>
       <c r="F13">
-        <v>26.1785397978529</v>
+        <v>24.33991837675389</v>
       </c>
       <c r="G13">
-        <v>34.10920014711984</v>
+        <v>33.12744282359013</v>
       </c>
       <c r="H13">
-        <v>6.191661205654479</v>
+        <v>6.094491703770687</v>
       </c>
       <c r="I13">
-        <v>4.461188669842181</v>
+        <v>4.142431469690011</v>
       </c>
       <c r="J13">
-        <v>11.45869715079433</v>
+        <v>10.27153861041854</v>
       </c>
       <c r="K13">
-        <v>18.12558908302762</v>
+        <v>16.59027594882199</v>
       </c>
       <c r="L13">
-        <v>7.483481237963415</v>
+        <v>12.19604431877038</v>
       </c>
       <c r="M13">
-        <v>17.35330676022435</v>
+        <v>12.2284224740785</v>
       </c>
       <c r="N13">
-        <v>6.610724795882414</v>
+        <v>7.391286184451575</v>
       </c>
       <c r="O13">
-        <v>10.1941128485822</v>
+        <v>17.50528510056841</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.094050959349555</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.24235918390441</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.49312675439364</v>
+        <v>12.13599882381819</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.008137192015551</v>
+        <v>3.986006929681969</v>
       </c>
       <c r="E14">
-        <v>9.291769761517413</v>
+        <v>9.084270437668501</v>
       </c>
       <c r="F14">
-        <v>25.06396559884602</v>
+        <v>23.50240825227893</v>
       </c>
       <c r="G14">
-        <v>32.31598629175242</v>
+        <v>31.3856397808441</v>
       </c>
       <c r="H14">
-        <v>7.129028433220561</v>
+        <v>7.040001133808606</v>
       </c>
       <c r="I14">
-        <v>4.507885886128676</v>
+        <v>4.181301678298913</v>
       </c>
       <c r="J14">
-        <v>11.13611443567344</v>
+        <v>10.19268001144452</v>
       </c>
       <c r="K14">
-        <v>17.70548017387033</v>
+        <v>16.35664405806795</v>
       </c>
       <c r="L14">
-        <v>7.623108187393897</v>
+        <v>12.04119201113615</v>
       </c>
       <c r="M14">
-        <v>17.33350511446392</v>
+        <v>12.02284704947776</v>
       </c>
       <c r="N14">
-        <v>6.275852094676633</v>
+        <v>7.535897206817125</v>
       </c>
       <c r="O14">
-        <v>9.924978068439961</v>
+        <v>17.4536814366758</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.724768228896282</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.961084880959275</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.40426715003382</v>
+        <v>12.05273922474063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.991991297163001</v>
+        <v>3.963292845384304</v>
       </c>
       <c r="E15">
-        <v>9.333570991352492</v>
+        <v>9.132623986072309</v>
       </c>
       <c r="F15">
-        <v>24.77243096247522</v>
+        <v>23.31349329605604</v>
       </c>
       <c r="G15">
-        <v>31.83046828678338</v>
+        <v>30.85975466934418</v>
       </c>
       <c r="H15">
-        <v>7.353586564672701</v>
+        <v>7.265009901877974</v>
       </c>
       <c r="I15">
-        <v>4.532329406858031</v>
+        <v>4.202582570785488</v>
       </c>
       <c r="J15">
-        <v>11.05683955838541</v>
+        <v>10.21874680711816</v>
       </c>
       <c r="K15">
-        <v>17.61957156942373</v>
+        <v>16.3233084845474</v>
       </c>
       <c r="L15">
-        <v>7.652182472488124</v>
+        <v>12.01878011701673</v>
       </c>
       <c r="M15">
-        <v>17.28029209583613</v>
+        <v>11.9901518638947</v>
       </c>
       <c r="N15">
-        <v>6.188855887233398</v>
+        <v>7.565568224818775</v>
       </c>
       <c r="O15">
-        <v>9.840387593151616</v>
+        <v>17.39632757996707</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.631259393285411</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.872418959037308</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.04323973942566</v>
+        <v>11.65018319866776</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.943343197453314</v>
+        <v>3.89599761288567</v>
       </c>
       <c r="E16">
-        <v>9.168417701116155</v>
+        <v>8.996998286176114</v>
       </c>
       <c r="F16">
-        <v>24.73899886712219</v>
+        <v>23.56069102153324</v>
       </c>
       <c r="G16">
-        <v>31.65926494138127</v>
+        <v>30.24920728518957</v>
       </c>
       <c r="H16">
-        <v>7.206127415278815</v>
+        <v>7.10387382972289</v>
       </c>
       <c r="I16">
-        <v>4.633492505896572</v>
+        <v>4.286518129415449</v>
       </c>
       <c r="J16">
-        <v>11.09656725501713</v>
+        <v>10.64967598156679</v>
       </c>
       <c r="K16">
-        <v>17.78908650398044</v>
+        <v>16.5571099256296</v>
       </c>
       <c r="L16">
-        <v>7.544253474629397</v>
+        <v>12.17523634933868</v>
       </c>
       <c r="M16">
-        <v>16.75926317813444</v>
+        <v>12.16236161964763</v>
       </c>
       <c r="N16">
-        <v>6.112435124075734</v>
+        <v>7.457467094784348</v>
       </c>
       <c r="O16">
-        <v>9.66603267486208</v>
+        <v>16.91011876213377</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.574625850209808</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.689144992118868</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.86415303612157</v>
+        <v>11.42304627536353</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.930947861449191</v>
+        <v>3.878642175610274</v>
       </c>
       <c r="E17">
-        <v>8.923030215137393</v>
+        <v>8.758023177373341</v>
       </c>
       <c r="F17">
-        <v>25.30837786042566</v>
+        <v>24.17191829110206</v>
       </c>
       <c r="G17">
-        <v>32.49708901855875</v>
+        <v>30.79215322706902</v>
       </c>
       <c r="H17">
-        <v>6.574068230684396</v>
+        <v>6.454783677674354</v>
       </c>
       <c r="I17">
-        <v>4.686886697353721</v>
+        <v>4.331312182352303</v>
       </c>
       <c r="J17">
-        <v>11.29749889702633</v>
+        <v>10.99076677544512</v>
       </c>
       <c r="K17">
-        <v>18.12916732359073</v>
+        <v>16.85636414533491</v>
       </c>
       <c r="L17">
-        <v>7.38095441500705</v>
+        <v>12.39106664452195</v>
       </c>
       <c r="M17">
-        <v>16.3618559362448</v>
+        <v>12.3884283771314</v>
       </c>
       <c r="N17">
-        <v>6.237072112174995</v>
+        <v>7.290647492555411</v>
       </c>
       <c r="O17">
-        <v>9.67887578039049</v>
+        <v>16.55049688072361</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.729541617301085</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.702302847638052</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.83883422470795</v>
+        <v>11.32849467375887</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.950554456381656</v>
+        <v>3.898191130173362</v>
       </c>
       <c r="E18">
-        <v>8.62770352275459</v>
+        <v>8.448072563704349</v>
       </c>
       <c r="F18">
-        <v>26.5023547247958</v>
+        <v>25.25029277403811</v>
       </c>
       <c r="G18">
-        <v>34.35583550492787</v>
+        <v>32.31833496017657</v>
       </c>
       <c r="H18">
-        <v>5.512986490403907</v>
+        <v>5.367843271375875</v>
       </c>
       <c r="I18">
-        <v>4.695084466011143</v>
+        <v>4.335693021278739</v>
       </c>
       <c r="J18">
-        <v>11.67389473905711</v>
+        <v>11.380900409803</v>
       </c>
       <c r="K18">
-        <v>18.72075073532654</v>
+        <v>17.31014677280463</v>
       </c>
       <c r="L18">
-        <v>7.177498842183212</v>
+        <v>12.73648884466696</v>
       </c>
       <c r="M18">
-        <v>16.0225334137597</v>
+        <v>12.72723761405264</v>
       </c>
       <c r="N18">
-        <v>6.538042234201679</v>
+        <v>7.076908875737659</v>
       </c>
       <c r="O18">
-        <v>9.851491822919666</v>
+        <v>16.26596395315961</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.080765664671569</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.883092324959684</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.90977732684903</v>
+        <v>11.31849261675959</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.998934345606038</v>
+        <v>3.949130664765102</v>
       </c>
       <c r="E19">
-        <v>8.404534129169608</v>
+        <v>8.185842896416551</v>
       </c>
       <c r="F19">
-        <v>28.05124670787714</v>
+        <v>26.58922664112229</v>
       </c>
       <c r="G19">
-        <v>36.7760161357081</v>
+        <v>34.36485255396043</v>
       </c>
       <c r="H19">
-        <v>4.351723532864446</v>
+        <v>4.171027334260753</v>
       </c>
       <c r="I19">
-        <v>4.677970201009859</v>
+        <v>4.322145717873857</v>
       </c>
       <c r="J19">
-        <v>12.14703535595374</v>
+        <v>11.79841116968622</v>
       </c>
       <c r="K19">
-        <v>19.48893472905637</v>
+        <v>17.86912051441809</v>
       </c>
       <c r="L19">
-        <v>7.008581728733716</v>
+        <v>13.17088040835594</v>
       </c>
       <c r="M19">
-        <v>15.78713485624535</v>
+        <v>13.14194402405434</v>
       </c>
       <c r="N19">
-        <v>6.980317719664776</v>
+        <v>6.885797208036203</v>
       </c>
       <c r="O19">
-        <v>10.13954320148163</v>
+        <v>16.09498752490514</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.585862884583861</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.18430682892847</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.29492775167643</v>
+        <v>11.58946769201645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.122189317890581</v>
+        <v>4.086982168261052</v>
       </c>
       <c r="E20">
-        <v>8.377294557596752</v>
+        <v>8.06386138030908</v>
       </c>
       <c r="F20">
-        <v>30.63648965145751</v>
+        <v>28.69804312712347</v>
       </c>
       <c r="G20">
-        <v>40.83696703710702</v>
+        <v>37.9340830214986</v>
       </c>
       <c r="H20">
-        <v>3.300552345402891</v>
+        <v>3.09164986442828</v>
       </c>
       <c r="I20">
-        <v>4.565271426601997</v>
+        <v>4.227783024690832</v>
       </c>
       <c r="J20">
-        <v>12.91180721478545</v>
+        <v>12.29762166931176</v>
       </c>
       <c r="K20">
-        <v>20.77664144239127</v>
+        <v>18.72912506146406</v>
       </c>
       <c r="L20">
-        <v>6.92855463597911</v>
+        <v>13.8169869281224</v>
       </c>
       <c r="M20">
-        <v>15.81814509532326</v>
+        <v>13.8104794198694</v>
       </c>
       <c r="N20">
-        <v>7.743763094244111</v>
+        <v>6.752134801888085</v>
       </c>
       <c r="O20">
-        <v>10.72465746596201</v>
+        <v>16.21835462504878</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.449126014272107</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.79560946715584</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99300404370879</v>
+        <v>12.34121398014259</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.23890098386752</v>
+        <v>4.28413003165879</v>
       </c>
       <c r="E21">
-        <v>8.588175413457069</v>
+        <v>8.243130339613288</v>
       </c>
       <c r="F21">
-        <v>31.54356572979067</v>
+        <v>28.8517263179331</v>
       </c>
       <c r="G21">
-        <v>42.3907974749344</v>
+        <v>40.30705488662488</v>
       </c>
       <c r="H21">
-        <v>3.003067945896471</v>
+        <v>2.828238487831027</v>
       </c>
       <c r="I21">
-        <v>4.371261999640196</v>
+        <v>4.070055641719427</v>
       </c>
       <c r="J21">
-        <v>13.11402470567949</v>
+        <v>11.43467529490556</v>
       </c>
       <c r="K21">
-        <v>20.93869374429859</v>
+        <v>18.50634746949625</v>
       </c>
       <c r="L21">
-        <v>7.043858138346862</v>
+        <v>13.56468072885408</v>
       </c>
       <c r="M21">
-        <v>16.70150784958843</v>
+        <v>13.75488975087683</v>
       </c>
       <c r="N21">
-        <v>8.109235837727628</v>
+        <v>6.854263831432468</v>
       </c>
       <c r="O21">
-        <v>11.19200560137029</v>
+        <v>17.05386379262897</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.801947790437154</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.28464381824088</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.4386685497547</v>
+        <v>12.82875688367261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.309649745057855</v>
+        <v>4.416055215080671</v>
       </c>
       <c r="E22">
-        <v>8.723970704153745</v>
+        <v>8.364354054598891</v>
       </c>
       <c r="F22">
-        <v>32.07231818917022</v>
+        <v>28.87048077044601</v>
       </c>
       <c r="G22">
-        <v>43.30737546724976</v>
+        <v>41.86052913883508</v>
       </c>
       <c r="H22">
-        <v>2.822960629506901</v>
+        <v>2.669986567046192</v>
       </c>
       <c r="I22">
-        <v>4.240673795839961</v>
+        <v>3.960696041906076</v>
       </c>
       <c r="J22">
-        <v>13.23098618371154</v>
+        <v>10.83600786358554</v>
       </c>
       <c r="K22">
-        <v>21.0224366180005</v>
+        <v>18.33381453388765</v>
       </c>
       <c r="L22">
-        <v>7.120303728673258</v>
+        <v>13.38435997081665</v>
       </c>
       <c r="M22">
-        <v>17.25417463427787</v>
+        <v>13.70317641020771</v>
       </c>
       <c r="N22">
-        <v>8.297341308158716</v>
+        <v>6.924531100072996</v>
       </c>
       <c r="O22">
-        <v>11.46613380532222</v>
+        <v>17.56809795815396</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.975804853751326</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.57153951529093</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.2191819501255</v>
+        <v>12.57408811264319</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.271356410312677</v>
+        <v>4.334634622359071</v>
       </c>
       <c r="E23">
-        <v>8.653166296569205</v>
+        <v>8.301508806943934</v>
       </c>
       <c r="F23">
-        <v>31.83823031152461</v>
+        <v>28.96341542375038</v>
       </c>
       <c r="G23">
-        <v>42.89673243817945</v>
+        <v>40.96855303840029</v>
       </c>
       <c r="H23">
-        <v>2.917751601526795</v>
+        <v>2.752038626727708</v>
       </c>
       <c r="I23">
-        <v>4.300986520188823</v>
+        <v>4.007207846176381</v>
       </c>
       <c r="J23">
-        <v>13.18446481798261</v>
+        <v>11.27103121762726</v>
       </c>
       <c r="K23">
-        <v>21.01794217370026</v>
+        <v>18.48099054962295</v>
       </c>
       <c r="L23">
-        <v>7.079813404099992</v>
+        <v>13.51959159966856</v>
       </c>
       <c r="M23">
-        <v>16.94737336913481</v>
+        <v>13.77415815462534</v>
       </c>
       <c r="N23">
-        <v>8.182386955894467</v>
+        <v>6.887745709799148</v>
       </c>
       <c r="O23">
-        <v>11.31807153306936</v>
+        <v>17.29413035093485</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.876644296000112</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.41629034729425</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.32318871457099</v>
+        <v>11.60637037572889</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.126605554340918</v>
+        <v>4.091355676470092</v>
       </c>
       <c r="E24">
-        <v>8.37993319702354</v>
+        <v>8.056859008110834</v>
       </c>
       <c r="F24">
-        <v>30.87796875318002</v>
+        <v>28.91120687523983</v>
       </c>
       <c r="G24">
-        <v>41.21357216683292</v>
+        <v>38.25081038906502</v>
       </c>
       <c r="H24">
-        <v>3.285101237897277</v>
+        <v>3.076295691545248</v>
       </c>
       <c r="I24">
-        <v>4.549522983159378</v>
+        <v>4.209497348433016</v>
       </c>
       <c r="J24">
-        <v>12.98936409136576</v>
+        <v>12.37147187845052</v>
       </c>
       <c r="K24">
-        <v>20.93904693524311</v>
+        <v>18.85434308111874</v>
       </c>
       <c r="L24">
-        <v>6.924044773087489</v>
+        <v>13.91474908811021</v>
       </c>
       <c r="M24">
-        <v>15.76287387862357</v>
+        <v>13.90282229981481</v>
       </c>
       <c r="N24">
-        <v>7.763344418071449</v>
+        <v>6.741242578818049</v>
       </c>
       <c r="O24">
-        <v>10.7464424164236</v>
+        <v>16.17171280355286</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.478769101005176</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.81907495473379</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.27561562687444</v>
+        <v>10.60588957491679</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.968714577172171</v>
+        <v>3.932375237890796</v>
       </c>
       <c r="E25">
-        <v>8.07847175925872</v>
+        <v>7.765973517451242</v>
       </c>
       <c r="F25">
-        <v>29.85430856143002</v>
+        <v>28.19634759130122</v>
       </c>
       <c r="G25">
-        <v>39.40022225668238</v>
+        <v>36.79327459589567</v>
       </c>
       <c r="H25">
-        <v>3.696611396283262</v>
+        <v>3.456079518604878</v>
       </c>
       <c r="I25">
-        <v>4.829731840745228</v>
+        <v>4.448691954080744</v>
       </c>
       <c r="J25">
-        <v>12.79452819693729</v>
+        <v>12.3006147165402</v>
       </c>
       <c r="K25">
-        <v>20.86256456386212</v>
+        <v>18.99317570316811</v>
       </c>
       <c r="L25">
-        <v>6.750922254461356</v>
+        <v>14.1502393844257</v>
       </c>
       <c r="M25">
-        <v>14.3890144296033</v>
+        <v>13.87247008535291</v>
       </c>
       <c r="N25">
-        <v>7.296562663777364</v>
+        <v>6.561930828695756</v>
       </c>
       <c r="O25">
-        <v>10.10038656202083</v>
+        <v>14.73322163667285</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.964105633461595</v>
       </c>
       <c r="Q25">
+        <v>10.15086795715435</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
